--- a/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
+++ b/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="1397">
   <si>
     <t>2020</t>
   </si>
@@ -2914,6 +2914,1287 @@
     <t>emp_okev at תלפיות מזרח in 2050</t>
   </si>
   <si>
+    <t>emp_okev at אבו גוש in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אבו גוש in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אורנית in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אלפי מנשה in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אפרת in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at אריאל in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אל in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at בית אריה-עופרים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at בית שמש in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at ביתר עילית in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at גבעת זאב in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at גוש עציון in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at הר אדר in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at הר חברון_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at ירושלים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מבשרת ציון in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מגילות ים המלח_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין - מכבים - רעות in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מודיעין עילית in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה בנימין in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מטה יהודה in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אדומים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at מעלה אפרים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at עמנואל in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at ערבות הירדן_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קדומים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קריית ארבע in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קרית יערים in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at קרני שומרון in 2050</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2020</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2025</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2030</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2035</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2040</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2045</t>
+  </si>
+  <si>
+    <t>emp_okev at שומרון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at 0 in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אבו גוש in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אורנית in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אלפי מנשה in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אפרת in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at אריאל in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at בית אל in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at בית אריה-עופרים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at בית שמש in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at ביתר עילית in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at גבעת זאב in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at גוש עציון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at הר אדר in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at הר חברון_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at ירושלים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מבשרת ציון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מגילות ים המלח_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין - מכבים - רעות in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מודיעין עילית in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מטה בנימין in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מטה יהודה in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אדומים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at מעלה אפרים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at עמנואל in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at ערבות הירדן_x000D_
+ in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קדומים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קריית ארבע in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קרית יערים in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at קרני שומרון in 2050</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2020</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2025</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2030</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2035</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2040</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2045</t>
+  </si>
+  <si>
+    <t>total_emp at שומרון in 2050</t>
+  </si>
+  <si>
     <t>1,758,461</t>
   </si>
   <si>
@@ -2939,6 +4220,9 @@
   </si>
   <si>
     <t>298,512</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
   <si>
     <t>7,278,700</t>
@@ -3320,7 +4604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E963"/>
+  <dimension ref="A1:E1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3345,16 +4629,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
       <c r="C2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
       <c r="D2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
       <c r="E2" t="s">
-        <v>966</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3362,13 +4646,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>971</v>
+        <v>1384</v>
       </c>
       <c r="D3" t="s">
-        <v>975</v>
+        <v>1389</v>
       </c>
       <c r="E3" t="s">
-        <v>979</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3376,16 +4660,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
       <c r="C4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
       <c r="D4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
       <c r="E4" t="s">
-        <v>967</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3393,13 +4677,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>972</v>
+        <v>1385</v>
       </c>
       <c r="D5" t="s">
-        <v>976</v>
+        <v>1390</v>
       </c>
       <c r="E5" t="s">
-        <v>980</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3492,16 +4776,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="C11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="D11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="E11" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3509,13 +4793,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="D12" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
       <c r="E12" t="s">
-        <v>968</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3523,16 +4807,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
       <c r="C13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
       <c r="D13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
       <c r="E13" t="s">
-        <v>969</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3540,13 +4824,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>973</v>
+        <v>1386</v>
       </c>
       <c r="D14" t="s">
-        <v>977</v>
+        <v>1391</v>
       </c>
       <c r="E14" t="s">
-        <v>981</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3554,16 +4838,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
       <c r="C15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
       <c r="D15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
       <c r="E15" t="s">
-        <v>970</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3571,13 +4855,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>974</v>
+        <v>1387</v>
       </c>
       <c r="D16" t="s">
-        <v>978</v>
+        <v>1392</v>
       </c>
       <c r="E16" t="s">
-        <v>982</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5445,11 +6729,11 @@
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
+      <c r="C148" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1388</v>
       </c>
       <c r="E148">
         <v>129.4654903995849</v>
@@ -7335,14 +8619,14 @@
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
+      <c r="C283" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7422,11 +8706,11 @@
       <c r="C289">
         <v>0.8743169398907104</v>
       </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
+      <c r="D289" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7464,11 +8748,11 @@
       <c r="C292">
         <v>0.8686210640608035</v>
       </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292">
-        <v>0</v>
+      <c r="D292" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7551,8 +8835,8 @@
       <c r="D298">
         <v>1.326086956521744</v>
       </c>
-      <c r="E298">
-        <v>0</v>
+      <c r="E298" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -11382,13 +12666,13 @@
         <v>574</v>
       </c>
       <c r="C572">
-        <v>73255.76075464822</v>
+        <v>2077.53</v>
       </c>
       <c r="D572">
-        <v>73255.76075464822</v>
+        <v>2077.53</v>
       </c>
       <c r="E572">
-        <v>73255.76075464822</v>
+        <v>2077.53</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -11396,13 +12680,13 @@
         <v>575</v>
       </c>
       <c r="C573">
-        <v>81504.63009969951</v>
+        <v>2204.93</v>
       </c>
       <c r="D573">
-        <v>78542.52811515545</v>
+        <v>2113.810868910457</v>
       </c>
       <c r="E573">
-        <v>79816.23732916736</v>
+        <v>2181.174015311838</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -11410,13 +12694,13 @@
         <v>576</v>
       </c>
       <c r="C574">
-        <v>92511.0825888566</v>
+        <v>2309.58</v>
       </c>
       <c r="D574">
-        <v>86028.44160616255</v>
+        <v>2120.309148846268</v>
       </c>
       <c r="E574">
-        <v>89421.30961412688</v>
+        <v>2262.985656031982</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -11424,13 +12708,13 @@
         <v>577</v>
       </c>
       <c r="C575">
-        <v>103122.2888339341</v>
+        <v>2400.58</v>
       </c>
       <c r="D575">
-        <v>93595.2949770533</v>
+        <v>2152.461604585944</v>
       </c>
       <c r="E575">
-        <v>99529.82020775802</v>
+        <v>2352.658589854606</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -11438,13 +12722,13 @@
         <v>578</v>
       </c>
       <c r="C576">
-        <v>111440.6888850915</v>
+        <v>2562.105</v>
       </c>
       <c r="D576">
-        <v>96946.26389316574</v>
+        <v>2247.155333778505</v>
       </c>
       <c r="E576">
-        <v>105611.0397633965</v>
+        <v>2467.993259760862</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -11452,13 +12736,13 @@
         <v>579</v>
       </c>
       <c r="C577">
-        <v>119274.6894817425</v>
+        <v>2641.73</v>
       </c>
       <c r="D577">
-        <v>104568.0196568163</v>
+        <v>2454.808986806963</v>
       </c>
       <c r="E577">
-        <v>115829.3413400636</v>
+        <v>2672.303978951742</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -11466,13 +12750,13 @@
         <v>580</v>
       </c>
       <c r="C578">
-        <v>127110.9353220066</v>
+        <v>2721.355</v>
       </c>
       <c r="D578">
-        <v>110099.8074150336</v>
+        <v>2523.54612588418</v>
       </c>
       <c r="E578">
-        <v>124624.443177918</v>
+        <v>2739.065134919956</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -16863,6 +18147,5788 @@
       </c>
       <c r="E963">
         <v>3948.276695050143</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5">
+      <c r="A964" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C964">
+        <v>963.32807053582</v>
+      </c>
+      <c r="D964">
+        <v>963.32807053582</v>
+      </c>
+      <c r="E964">
+        <v>963.32807053582</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5">
+      <c r="A965" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C965">
+        <v>1042.51875</v>
+      </c>
+      <c r="D965">
+        <v>1036.874615943339</v>
+      </c>
+      <c r="E965">
+        <v>1041.793295332048</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5">
+      <c r="A966" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C966">
+        <v>1120.9198</v>
+      </c>
+      <c r="D966">
+        <v>1084.787995494406</v>
+      </c>
+      <c r="E966">
+        <v>1102.609611652929</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5">
+      <c r="A967" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C967">
+        <v>1196.88205</v>
+      </c>
+      <c r="D967">
+        <v>1133.885508380835</v>
+      </c>
+      <c r="E967">
+        <v>1165.335601585355</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5">
+      <c r="A968" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C968">
+        <v>1278.91855</v>
+      </c>
+      <c r="D968">
+        <v>1178.961289725837</v>
+      </c>
+      <c r="E968">
+        <v>1233.051406228814</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5">
+      <c r="A969" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C969">
+        <v>1356.446</v>
+      </c>
+      <c r="D969">
+        <v>1243.525740032619</v>
+      </c>
+      <c r="E969">
+        <v>1323.221918833497</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5">
+      <c r="A970" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C970">
+        <v>1439.4016</v>
+      </c>
+      <c r="D970">
+        <v>1385.450771308724</v>
+      </c>
+      <c r="E970">
+        <v>1496.820797929926</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5">
+      <c r="A971" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C971">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="D971">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="E971">
+        <v>975.0650000000001</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5">
+      <c r="A972" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C972">
+        <v>1045.135</v>
+      </c>
+      <c r="D972">
+        <v>1006.086691333944</v>
+      </c>
+      <c r="E972">
+        <v>1028.803946306224</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5">
+      <c r="A973" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C973">
+        <v>1086.756125</v>
+      </c>
+      <c r="D973">
+        <v>998.9398043801081</v>
+      </c>
+      <c r="E973">
+        <v>1055.902323684038</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5">
+      <c r="A974" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C974">
+        <v>1139.047</v>
+      </c>
+      <c r="D974">
+        <v>1025.770319347856</v>
+      </c>
+      <c r="E974">
+        <v>1110.681429425499</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5">
+      <c r="A975" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C975">
+        <v>1302.00525</v>
+      </c>
+      <c r="D975">
+        <v>1119.918536017112</v>
+      </c>
+      <c r="E975">
+        <v>1239.012809447323</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5">
+      <c r="A976" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C976">
+        <v>1378.48165</v>
+      </c>
+      <c r="D976">
+        <v>1278.186872008157</v>
+      </c>
+      <c r="E976">
+        <v>1393.393365468236</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5">
+      <c r="A977" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C977">
+        <v>1465.42305</v>
+      </c>
+      <c r="D977">
+        <v>1343.037635161194</v>
+      </c>
+      <c r="E977">
+        <v>1463.175897072033</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5">
+      <c r="A978" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C978">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="D978">
+        <v>975.0650000000001</v>
+      </c>
+      <c r="E978">
+        <v>975.0650000000001</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5">
+      <c r="A979" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C979">
+        <v>1258.280347136995</v>
+      </c>
+      <c r="D979">
+        <v>1213.725160991341</v>
+      </c>
+      <c r="E979">
+        <v>1238.202101711272</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5">
+      <c r="A980" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C980">
+        <v>1561.27419967428</v>
+      </c>
+      <c r="D980">
+        <v>1439.518885894797</v>
+      </c>
+      <c r="E980">
+        <v>1515.225086462136</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5">
+      <c r="A981" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C981">
+        <v>1697.77419967428</v>
+      </c>
+      <c r="D981">
+        <v>1535.028214533524</v>
+      </c>
+      <c r="E981">
+        <v>1648.67683513188</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5">
+      <c r="A982" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C982">
+        <v>1834.27419967428</v>
+      </c>
+      <c r="D982">
+        <v>1651.945417958191</v>
+      </c>
+      <c r="E982">
+        <v>1738.635323446999</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5">
+      <c r="A983" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C983">
+        <v>1840.224529444938</v>
+      </c>
+      <c r="D983">
+        <v>1795.043496762206</v>
+      </c>
+      <c r="E983">
+        <v>1810.196330389256</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5">
+      <c r="A984" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C984">
+        <v>1846.174859215596</v>
+      </c>
+      <c r="D984">
+        <v>1837.88639402688</v>
+      </c>
+      <c r="E984">
+        <v>1799.025488239829</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5">
+      <c r="A985" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C985">
+        <v>1187.55</v>
+      </c>
+      <c r="D985">
+        <v>1187.55</v>
+      </c>
+      <c r="E985">
+        <v>1187.55</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5">
+      <c r="A986" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C986">
+        <v>1260.35</v>
+      </c>
+      <c r="D986">
+        <v>1207.804264609508</v>
+      </c>
+      <c r="E986">
+        <v>1240.656043216474</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5">
+      <c r="A987" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C987">
+        <v>1296.75</v>
+      </c>
+      <c r="D987">
+        <v>1185.888855299095</v>
+      </c>
+      <c r="E987">
+        <v>1259.934318969011</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5">
+      <c r="A988" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C988">
+        <v>1419.6</v>
+      </c>
+      <c r="D988">
+        <v>1276.122292041829</v>
+      </c>
+      <c r="E988">
+        <v>1384.247846851305</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5">
+      <c r="A989" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C989">
+        <v>1519.7</v>
+      </c>
+      <c r="D989">
+        <v>1324.313770380444</v>
+      </c>
+      <c r="E989">
+        <v>1438.14217964881</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5">
+      <c r="A990" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C990">
+        <v>1758.575</v>
+      </c>
+      <c r="D990">
+        <v>1543.996057749192</v>
+      </c>
+      <c r="E990">
+        <v>1736.111288912869</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5">
+      <c r="A991" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C991">
+        <v>2088.45</v>
+      </c>
+      <c r="D991">
+        <v>1683.488449244823</v>
+      </c>
+      <c r="E991">
+        <v>2021.019901447112</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5">
+      <c r="A992" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C992">
+        <v>2511.145</v>
+      </c>
+      <c r="D992">
+        <v>2511.145</v>
+      </c>
+      <c r="E992">
+        <v>2511.145</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5">
+      <c r="A993" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C993">
+        <v>2511.145</v>
+      </c>
+      <c r="D993">
+        <v>2450.6080547575</v>
+      </c>
+      <c r="E993">
+        <v>2505.153729945311</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5">
+      <c r="A994" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C994">
+        <v>2703.72466</v>
+      </c>
+      <c r="D994">
+        <v>2502.524124497018</v>
+      </c>
+      <c r="E994">
+        <v>2662.148615755707</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5">
+      <c r="A995" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C995">
+        <v>3019.154320000001</v>
+      </c>
+      <c r="D995">
+        <v>2790.75722118767</v>
+      </c>
+      <c r="E995">
+        <v>3062.141656939146</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5">
+      <c r="A996" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C996">
+        <v>3211.73398</v>
+      </c>
+      <c r="D996">
+        <v>3031.302586312181</v>
+      </c>
+      <c r="E996">
+        <v>3321.735129282973</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5">
+      <c r="A997" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C997">
+        <v>3528.30114</v>
+      </c>
+      <c r="D997">
+        <v>3639.086370954284</v>
+      </c>
+      <c r="E997">
+        <v>3931.870992007455</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5">
+      <c r="A998" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C998">
+        <v>3844.8683</v>
+      </c>
+      <c r="D998">
+        <v>4177.812182944821</v>
+      </c>
+      <c r="E998">
+        <v>4506.206685652802</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5">
+      <c r="A999" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C999">
+        <v>537.8099999999999</v>
+      </c>
+      <c r="D999">
+        <v>537.8099999999999</v>
+      </c>
+      <c r="E999">
+        <v>537.8099999999999</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5">
+      <c r="A1000" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1000">
+        <v>674.3100000000001</v>
+      </c>
+      <c r="D1000">
+        <v>635.7117359533178</v>
+      </c>
+      <c r="E1000">
+        <v>649.0633201474323</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5">
+      <c r="A1001" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1001">
+        <v>856.3100000000001</v>
+      </c>
+      <c r="D1001">
+        <v>751.9536496955993</v>
+      </c>
+      <c r="E1001">
+        <v>795.0737545020547</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5">
+      <c r="A1002" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1002">
+        <v>879.0600000000001</v>
+      </c>
+      <c r="D1002">
+        <v>764.0112905296617</v>
+      </c>
+      <c r="E1002">
+        <v>823.6770789515792</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5">
+      <c r="A1003" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1003">
+        <v>901.8100000000001</v>
+      </c>
+      <c r="D1003">
+        <v>783.803427804064</v>
+      </c>
+      <c r="E1003">
+        <v>814.9846902779059</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5">
+      <c r="A1004" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1004">
+        <v>924.5600000000001</v>
+      </c>
+      <c r="D1004">
+        <v>890.0777458111553</v>
+      </c>
+      <c r="E1004">
+        <v>873.5660521898915</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5">
+      <c r="A1005" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1005">
+        <v>947.3100000000001</v>
+      </c>
+      <c r="D1005">
+        <v>924.6531178558447</v>
+      </c>
+      <c r="E1005">
+        <v>869.3086202186186</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1006">
+        <v>608.9037499999999</v>
+      </c>
+      <c r="D1006">
+        <v>608.9037499999999</v>
+      </c>
+      <c r="E1006">
+        <v>608.9037499999999</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1007">
+        <v>823.6769203936001</v>
+      </c>
+      <c r="D1007">
+        <v>722.0020121845358</v>
+      </c>
+      <c r="E1007">
+        <v>810.533595540123</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5">
+      <c r="A1008" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1008">
+        <v>1050.129986663576</v>
+      </c>
+      <c r="D1008">
+        <v>825.8499522347438</v>
+      </c>
+      <c r="E1008">
+        <v>1019.15685289026</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5">
+      <c r="A1009" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1009">
+        <v>1282.975335138952</v>
+      </c>
+      <c r="D1009">
+        <v>946.6816745512914</v>
+      </c>
+      <c r="E1009">
+        <v>1245.873400299614</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5">
+      <c r="A1010" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1010">
+        <v>1512.018603012736</v>
+      </c>
+      <c r="D1010">
+        <v>1077.051865147381</v>
+      </c>
+      <c r="E1010">
+        <v>1433.18210187645</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5">
+      <c r="A1011" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1011">
+        <v>1876.018603012736</v>
+      </c>
+      <c r="D1011">
+        <v>1397.357091596639</v>
+      </c>
+      <c r="E1011">
+        <v>1845.406327639785</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5">
+      <c r="A1012" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1012">
+        <v>2240.018603012736</v>
+      </c>
+      <c r="D1012">
+        <v>1668.039678323452</v>
+      </c>
+      <c r="E1012">
+        <v>2182.810875597933</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5">
+      <c r="A1013" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1013">
+        <v>9365.535106048697</v>
+      </c>
+      <c r="D1013">
+        <v>9365.535106048697</v>
+      </c>
+      <c r="E1013">
+        <v>9365.535106048697</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5">
+      <c r="A1014" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C1014">
+        <v>11063.93004154507</v>
+      </c>
+      <c r="D1014">
+        <v>10361.28976917068</v>
+      </c>
+      <c r="E1014">
+        <v>9940.132955845243</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5">
+      <c r="A1015" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1015">
+        <v>14439.37554154507</v>
+      </c>
+      <c r="D1015">
+        <v>13318.00479823992</v>
+      </c>
+      <c r="E1015">
+        <v>12350.04327084086</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5">
+      <c r="A1016" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1016">
+        <v>16233.39868378646</v>
+      </c>
+      <c r="D1016">
+        <v>14710.29451428797</v>
+      </c>
+      <c r="E1016">
+        <v>13775.48009327368</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5">
+      <c r="A1017" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1017">
+        <v>15548.49712371017</v>
+      </c>
+      <c r="D1017">
+        <v>13446.13088771379</v>
+      </c>
+      <c r="E1017">
+        <v>12793.90432136298</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5">
+      <c r="A1018" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1018">
+        <v>16541.20007971017</v>
+      </c>
+      <c r="D1018">
+        <v>14085.13620130704</v>
+      </c>
+      <c r="E1018">
+        <v>13672.76102373475</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5">
+      <c r="A1019" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C1019">
+        <v>17471.68303571017</v>
+      </c>
+      <c r="D1019">
+        <v>15261.85447751134</v>
+      </c>
+      <c r="E1019">
+        <v>15268.31288777708</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5">
+      <c r="A1020" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1020">
+        <v>1532.421349985133</v>
+      </c>
+      <c r="D1020">
+        <v>1532.421349985133</v>
+      </c>
+      <c r="E1020">
+        <v>1532.421349985133</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5">
+      <c r="A1021" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1021">
+        <v>1661.071349985132</v>
+      </c>
+      <c r="D1021">
+        <v>1854.592880512603</v>
+      </c>
+      <c r="E1021">
+        <v>1922.902607837325</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5">
+      <c r="A1022" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1022">
+        <v>1903.568849985132</v>
+      </c>
+      <c r="D1022">
+        <v>2172.844437266204</v>
+      </c>
+      <c r="E1022">
+        <v>2370.961541609451</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5">
+      <c r="A1023" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1023">
+        <v>2193.573849985132</v>
+      </c>
+      <c r="D1023">
+        <v>2488.009528766827</v>
+      </c>
+      <c r="E1023">
+        <v>2825.465942655549</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5">
+      <c r="A1024" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1024">
+        <v>2370.738849985132</v>
+      </c>
+      <c r="D1024">
+        <v>2556.333189176586</v>
+      </c>
+      <c r="E1024">
+        <v>2960.309708201408</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5">
+      <c r="A1025" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1025">
+        <v>2474.240099985132</v>
+      </c>
+      <c r="D1025">
+        <v>2788.098543250444</v>
+      </c>
+      <c r="E1025">
+        <v>3263.02439879039</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5">
+      <c r="A1026" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1026">
+        <v>2577.741349985133</v>
+      </c>
+      <c r="D1026">
+        <v>2932.786255575566</v>
+      </c>
+      <c r="E1026">
+        <v>3479.378614688227</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5">
+      <c r="A1027" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1027">
+        <v>1714.905000000001</v>
+      </c>
+      <c r="D1027">
+        <v>1714.905000000001</v>
+      </c>
+      <c r="E1027">
+        <v>1714.905000000001</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5">
+      <c r="A1028" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1028">
+        <v>1977.53</v>
+      </c>
+      <c r="D1028">
+        <v>1841.845193248432</v>
+      </c>
+      <c r="E1028">
+        <v>1922.017432982122</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5">
+      <c r="A1029" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C1029">
+        <v>2279.255</v>
+      </c>
+      <c r="D1029">
+        <v>1988.331604133209</v>
+      </c>
+      <c r="E1029">
+        <v>2237.05861031498</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5">
+      <c r="A1030" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1030">
+        <v>2395.78</v>
+      </c>
+      <c r="D1030">
+        <v>2078.793798279805</v>
+      </c>
+      <c r="E1030">
+        <v>2420.146399313127</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5">
+      <c r="A1031" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1031">
+        <v>2657.905</v>
+      </c>
+      <c r="D1031">
+        <v>2215.012114828946</v>
+      </c>
+      <c r="E1031">
+        <v>2689.480950429974</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5">
+      <c r="A1032" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1032">
+        <v>2899.105</v>
+      </c>
+      <c r="D1032">
+        <v>2381.487349896531</v>
+      </c>
+      <c r="E1032">
+        <v>2991.148776460102</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5">
+      <c r="A1033" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1033">
+        <v>3003.805</v>
+      </c>
+      <c r="D1033">
+        <v>2471.49385348442</v>
+      </c>
+      <c r="E1033">
+        <v>3158.26742375016</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5">
+      <c r="A1034" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1034">
+        <v>2521.13</v>
+      </c>
+      <c r="D1034">
+        <v>2521.13</v>
+      </c>
+      <c r="E1034">
+        <v>2521.13</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5">
+      <c r="A1035" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1035">
+        <v>2770.72025</v>
+      </c>
+      <c r="D1035">
+        <v>2638.781232084648</v>
+      </c>
+      <c r="E1035">
+        <v>2705.149456477417</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5">
+      <c r="A1036" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C1036">
+        <v>2921.9835</v>
+      </c>
+      <c r="D1036">
+        <v>2618.306540871423</v>
+      </c>
+      <c r="E1036">
+        <v>2787.540719797453</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5">
+      <c r="A1037" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1037">
+        <v>3045.7235</v>
+      </c>
+      <c r="D1037">
+        <v>2654.417212489025</v>
+      </c>
+      <c r="E1037">
+        <v>2933.879757482377</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5">
+      <c r="A1038" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1038">
+        <v>3558.249993100972</v>
+      </c>
+      <c r="D1038">
+        <v>2859.066119757716</v>
+      </c>
+      <c r="E1038">
+        <v>3578.617602563529</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5">
+      <c r="A1039" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1039">
+        <v>4289.631486201943</v>
+      </c>
+      <c r="D1039">
+        <v>3392.164737552514</v>
+      </c>
+      <c r="E1039">
+        <v>4816.137971684999</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5">
+      <c r="A1040" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1040">
+        <v>5183.859186201942</v>
+      </c>
+      <c r="D1040">
+        <v>3722.528047121901</v>
+      </c>
+      <c r="E1040">
+        <v>6128.708143961253</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5">
+      <c r="A1041" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1041">
+        <v>530.79</v>
+      </c>
+      <c r="D1041">
+        <v>530.79</v>
+      </c>
+      <c r="E1041">
+        <v>530.79</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5">
+      <c r="A1042" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1042">
+        <v>553.5400000000002</v>
+      </c>
+      <c r="D1042">
+        <v>534.8935745593136</v>
+      </c>
+      <c r="E1042">
+        <v>554.6787635218694</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5">
+      <c r="A1043" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1043">
+        <v>562.6400000000002</v>
+      </c>
+      <c r="D1043">
+        <v>535.2945422186289</v>
+      </c>
+      <c r="E1043">
+        <v>574.2849606897909</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5">
+      <c r="A1044" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1044">
+        <v>564.9150000000002</v>
+      </c>
+      <c r="D1044">
+        <v>536.825896272236</v>
+      </c>
+      <c r="E1044">
+        <v>586.6727343370408</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5">
+      <c r="A1045" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C1045">
+        <v>567.1900000000002</v>
+      </c>
+      <c r="D1045">
+        <v>538.8475949177745</v>
+      </c>
+      <c r="E1045">
+        <v>580.985305549795</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5">
+      <c r="A1046" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C1046">
+        <v>569.4650000000001</v>
+      </c>
+      <c r="D1046">
+        <v>552.0678007156453</v>
+      </c>
+      <c r="E1046">
+        <v>579.9542489245346</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5">
+      <c r="A1047" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1047">
+        <v>571.7400000000001</v>
+      </c>
+      <c r="D1047">
+        <v>557.0439185575078</v>
+      </c>
+      <c r="E1047">
+        <v>578.3423869077545</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5">
+      <c r="A1048" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1048">
+        <v>841.75</v>
+      </c>
+      <c r="D1048">
+        <v>841.75</v>
+      </c>
+      <c r="E1048">
+        <v>841.75</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5">
+      <c r="A1049" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1049">
+        <v>936.1625</v>
+      </c>
+      <c r="D1049">
+        <v>853.2487034417003</v>
+      </c>
+      <c r="E1049">
+        <v>901.8955466533205</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5">
+      <c r="A1050" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1050">
+        <v>1155.7</v>
+      </c>
+      <c r="D1050">
+        <v>919.7647723694314</v>
+      </c>
+      <c r="E1050">
+        <v>1073.053845077163</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5">
+      <c r="A1051" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1051">
+        <v>1370.6875</v>
+      </c>
+      <c r="D1051">
+        <v>1052.542210743277</v>
+      </c>
+      <c r="E1051">
+        <v>1284.330849038112</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5">
+      <c r="A1052" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1052">
+        <v>1572.025</v>
+      </c>
+      <c r="D1052">
+        <v>1167.005002749644</v>
+      </c>
+      <c r="E1052">
+        <v>1420.672101367389</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5">
+      <c r="A1053" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1053">
+        <v>1659.6125</v>
+      </c>
+      <c r="D1053">
+        <v>1345.196675007013</v>
+      </c>
+      <c r="E1053">
+        <v>1567.929990093301</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5">
+      <c r="A1054" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1054">
+        <v>1831.375</v>
+      </c>
+      <c r="D1054">
+        <v>1478.93876831341</v>
+      </c>
+      <c r="E1054">
+        <v>1683.734228201836</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5">
+      <c r="A1055" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1055">
+        <v>89944.23010755253</v>
+      </c>
+      <c r="D1055">
+        <v>89944.23010755253</v>
+      </c>
+      <c r="E1055">
+        <v>89944.23010755253</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5">
+      <c r="A1056" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1056">
+        <v>96494.32617792265</v>
+      </c>
+      <c r="D1056">
+        <v>92081.21903025464</v>
+      </c>
+      <c r="E1056">
+        <v>93013.57875068337</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5">
+      <c r="A1057" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1057">
+        <v>104532.227256995</v>
+      </c>
+      <c r="D1057">
+        <v>96954.62738164458</v>
+      </c>
+      <c r="E1057">
+        <v>99625.68298461214</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5">
+      <c r="A1058" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1058">
+        <v>116473.0857901775</v>
+      </c>
+      <c r="D1058">
+        <v>102671.4811583361</v>
+      </c>
+      <c r="E1058">
+        <v>106907.9045243533</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5">
+      <c r="A1059" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1059">
+        <v>127599.8131400183</v>
+      </c>
+      <c r="D1059">
+        <v>106940.7058971457</v>
+      </c>
+      <c r="E1059">
+        <v>113891.87245876</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5">
+      <c r="A1060" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1060">
+        <v>136799.1926556741</v>
+      </c>
+      <c r="D1060">
+        <v>111242.9202440556</v>
+      </c>
+      <c r="E1060">
+        <v>120954.5105586459</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5">
+      <c r="A1061" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1061">
+        <v>140813.5563850858</v>
+      </c>
+      <c r="D1061">
+        <v>116926.9184553686</v>
+      </c>
+      <c r="E1061">
+        <v>129233.4665808459</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5">
+      <c r="A1062" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1062">
+        <v>2404.17568037356</v>
+      </c>
+      <c r="D1062">
+        <v>2404.17568037356</v>
+      </c>
+      <c r="E1062">
+        <v>2404.17568037356</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5">
+      <c r="A1063" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1063">
+        <v>2458.775680373559</v>
+      </c>
+      <c r="D1063">
+        <v>2277.561947153727</v>
+      </c>
+      <c r="E1063">
+        <v>2329.340870393545</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5">
+      <c r="A1064" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1064">
+        <v>2513.37568037356</v>
+      </c>
+      <c r="D1064">
+        <v>2250.472170999044</v>
+      </c>
+      <c r="E1064">
+        <v>2365.574611637362</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5">
+      <c r="A1065" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1065">
+        <v>2567.975680373559</v>
+      </c>
+      <c r="D1065">
+        <v>2218.658077649434</v>
+      </c>
+      <c r="E1065">
+        <v>2356.458298326803</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5">
+      <c r="A1066" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1066">
+        <v>2622.575680373559</v>
+      </c>
+      <c r="D1066">
+        <v>2218.36049967209</v>
+      </c>
+      <c r="E1066">
+        <v>2400.852294079956</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5">
+      <c r="A1067" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1067">
+        <v>2658.285678515787</v>
+      </c>
+      <c r="D1067">
+        <v>2229.026242015762</v>
+      </c>
+      <c r="E1067">
+        <v>2424.748347060496</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5">
+      <c r="A1068" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1068">
+        <v>2693.995676658014</v>
+      </c>
+      <c r="D1068">
+        <v>2284.619812897578</v>
+      </c>
+      <c r="E1068">
+        <v>2498.332938326076</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5">
+      <c r="A1069" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1069">
+        <v>121.485</v>
+      </c>
+      <c r="D1069">
+        <v>121.485</v>
+      </c>
+      <c r="E1069">
+        <v>121.485</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5">
+      <c r="A1070" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1070">
+        <v>130.585</v>
+      </c>
+      <c r="D1070">
+        <v>122.8888187454633</v>
+      </c>
+      <c r="E1070">
+        <v>128.5012690692231</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5">
+      <c r="A1071" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1071">
+        <v>139.685</v>
+      </c>
+      <c r="D1071">
+        <v>122.9184856273817</v>
+      </c>
+      <c r="E1071">
+        <v>135.5650508069753</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5">
+      <c r="A1072" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1072">
+        <v>148.785</v>
+      </c>
+      <c r="D1072">
+        <v>125.8836294900143</v>
+      </c>
+      <c r="E1072">
+        <v>144.4823363213774</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5">
+      <c r="A1073" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C1073">
+        <v>157.885</v>
+      </c>
+      <c r="D1073">
+        <v>130.7174345755498</v>
+      </c>
+      <c r="E1073">
+        <v>149.6528916402872</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5">
+      <c r="A1074" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1074">
+        <v>166.985</v>
+      </c>
+      <c r="D1074">
+        <v>150.0108817471761</v>
+      </c>
+      <c r="E1074">
+        <v>170.0607767934173</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5">
+      <c r="A1075" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1075">
+        <v>176.085</v>
+      </c>
+      <c r="D1075">
+        <v>156.8726095640348</v>
+      </c>
+      <c r="E1075">
+        <v>178.1184090647007</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5">
+      <c r="A1076" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1076">
+        <v>14192.09</v>
+      </c>
+      <c r="D1076">
+        <v>14192.09</v>
+      </c>
+      <c r="E1076">
+        <v>14192.09</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5">
+      <c r="A1077" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1077">
+        <v>16460.84</v>
+      </c>
+      <c r="D1077">
+        <v>16460.84</v>
+      </c>
+      <c r="E1077">
+        <v>16460.84</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5">
+      <c r="A1078" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1078">
+        <v>18584.39</v>
+      </c>
+      <c r="D1078">
+        <v>18584.39</v>
+      </c>
+      <c r="E1078">
+        <v>18584.39</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5">
+      <c r="A1079" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1079">
+        <v>21312.94</v>
+      </c>
+      <c r="D1079">
+        <v>21312.94</v>
+      </c>
+      <c r="E1079">
+        <v>21312.94</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5">
+      <c r="A1080" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1080">
+        <v>23436.49</v>
+      </c>
+      <c r="D1080">
+        <v>23436.49</v>
+      </c>
+      <c r="E1080">
+        <v>23436.49</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5">
+      <c r="A1081" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1081">
+        <v>23645.215</v>
+      </c>
+      <c r="D1081">
+        <v>23645.215</v>
+      </c>
+      <c r="E1081">
+        <v>23645.215</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5">
+      <c r="A1082" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1082">
+        <v>23853.94</v>
+      </c>
+      <c r="D1082">
+        <v>23853.94</v>
+      </c>
+      <c r="E1082">
+        <v>23853.94</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5">
+      <c r="A1083" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1083">
+        <v>3494.943984585749</v>
+      </c>
+      <c r="D1083">
+        <v>3494.943984585749</v>
+      </c>
+      <c r="E1083">
+        <v>3494.943984585749</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5">
+      <c r="A1084" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1084">
+        <v>3965.253984585747</v>
+      </c>
+      <c r="D1084">
+        <v>4394.860375897855</v>
+      </c>
+      <c r="E1084">
+        <v>4556.907647075705</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5">
+      <c r="A1085" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1085">
+        <v>4304.413984585746</v>
+      </c>
+      <c r="D1085">
+        <v>4876.783777112616</v>
+      </c>
+      <c r="E1085">
+        <v>5323.011821116263</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5">
+      <c r="A1086" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1086">
+        <v>4500.833984585746</v>
+      </c>
+      <c r="D1086">
+        <v>5032.992066417038</v>
+      </c>
+      <c r="E1086">
+        <v>5722.305949718046</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5">
+      <c r="A1087" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1087">
+        <v>4694.447984585747</v>
+      </c>
+      <c r="D1087">
+        <v>5049.855853027979</v>
+      </c>
+      <c r="E1087">
+        <v>5849.055079635869</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5">
+      <c r="A1088" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1088">
+        <v>4765.299484585747</v>
+      </c>
+      <c r="D1088">
+        <v>5371.246941687299</v>
+      </c>
+      <c r="E1088">
+        <v>6286.225834152858</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5">
+      <c r="A1089" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1089">
+        <v>4941.375984585747</v>
+      </c>
+      <c r="D1089">
+        <v>5697.139249825038</v>
+      </c>
+      <c r="E1089">
+        <v>6767.964905779052</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5">
+      <c r="A1090" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1090">
+        <v>7363.093606480665</v>
+      </c>
+      <c r="D1090">
+        <v>7363.093606480665</v>
+      </c>
+      <c r="E1090">
+        <v>7363.093606480665</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5">
+      <c r="A1091" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1091">
+        <v>7574.747604551883</v>
+      </c>
+      <c r="D1091">
+        <v>7233.764150624874</v>
+      </c>
+      <c r="E1091">
+        <v>7442.757676425213</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5">
+      <c r="A1092" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1092">
+        <v>8424.769356329001</v>
+      </c>
+      <c r="D1092">
+        <v>7483.365773493481</v>
+      </c>
+      <c r="E1092">
+        <v>8090.088862595163</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5">
+      <c r="A1093" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1093">
+        <v>9615.708796222716</v>
+      </c>
+      <c r="D1093">
+        <v>8111.643736216877</v>
+      </c>
+      <c r="E1093">
+        <v>9311.789933492042</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5">
+      <c r="A1094" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1094">
+        <v>11543.63908867056</v>
+      </c>
+      <c r="D1094">
+        <v>8714.226173022826</v>
+      </c>
+      <c r="E1094">
+        <v>10850.49166779008</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5">
+      <c r="A1095" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1095">
+        <v>13303.41891398136</v>
+      </c>
+      <c r="D1095">
+        <v>9894.818753986996</v>
+      </c>
+      <c r="E1095">
+        <v>12994.83666355835</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5">
+      <c r="A1096" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1096">
+        <v>14783.37467535485</v>
+      </c>
+      <c r="D1096">
+        <v>10251.69118316227</v>
+      </c>
+      <c r="E1096">
+        <v>14138.12051724015</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5">
+      <c r="A1097" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1097">
+        <v>8146.089399738854</v>
+      </c>
+      <c r="D1097">
+        <v>8146.089399738854</v>
+      </c>
+      <c r="E1097">
+        <v>8146.089399738854</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5">
+      <c r="A1098" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1098">
+        <v>8865.733324738852</v>
+      </c>
+      <c r="D1098">
+        <v>7994.333151307682</v>
+      </c>
+      <c r="E1098">
+        <v>8241.70348297559</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5">
+      <c r="A1099" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C1099">
+        <v>9570.756165988852</v>
+      </c>
+      <c r="D1099">
+        <v>8033.005831113051</v>
+      </c>
+      <c r="E1099">
+        <v>8592.51506705065</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5">
+      <c r="A1100" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1100">
+        <v>11183.44349386764</v>
+      </c>
+      <c r="D1100">
+        <v>8681.525750004594</v>
+      </c>
+      <c r="E1100">
+        <v>9416.27640436133</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5">
+      <c r="A1101" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1101">
+        <v>10817.94897271761</v>
+      </c>
+      <c r="D1101">
+        <v>8169.050911981698</v>
+      </c>
+      <c r="E1101">
+        <v>9101.010367342797</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5">
+      <c r="A1102" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1102">
+        <v>11247.57856128008</v>
+      </c>
+      <c r="D1102">
+        <v>8394.264020363347</v>
+      </c>
+      <c r="E1102">
+        <v>9406.145845738361</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5">
+      <c r="A1103" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C1103">
+        <v>11647.07804984254</v>
+      </c>
+      <c r="D1103">
+        <v>8693.172009077962</v>
+      </c>
+      <c r="E1103">
+        <v>9855.801195010003</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5">
+      <c r="A1104" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1104">
+        <v>4058.071157180143</v>
+      </c>
+      <c r="D1104">
+        <v>4058.071157180143</v>
+      </c>
+      <c r="E1104">
+        <v>4058.071157180143</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5">
+      <c r="A1105" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C1105">
+        <v>4079.001157180142</v>
+      </c>
+      <c r="D1105">
+        <v>3963.900869572492</v>
+      </c>
+      <c r="E1105">
+        <v>4049.385594169599</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5">
+      <c r="A1106" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C1106">
+        <v>4472.576157180142</v>
+      </c>
+      <c r="D1106">
+        <v>4212.708288098873</v>
+      </c>
+      <c r="E1106">
+        <v>4435.877398363672</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5">
+      <c r="A1107" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1107">
+        <v>4981.084157180142</v>
+      </c>
+      <c r="D1107">
+        <v>4440.5005178905</v>
+      </c>
+      <c r="E1107">
+        <v>4814.693191035935</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5">
+      <c r="A1108" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C1108">
+        <v>6223.552657180142</v>
+      </c>
+      <c r="D1108">
+        <v>4907.141802568248</v>
+      </c>
+      <c r="E1108">
+        <v>5348.954878832973</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5">
+      <c r="A1109" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C1109">
+        <v>7204.737407180142</v>
+      </c>
+      <c r="D1109">
+        <v>5595.50426029133</v>
+      </c>
+      <c r="E1109">
+        <v>6101.21619692185</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5">
+      <c r="A1110" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1110">
+        <v>7767.003657180142</v>
+      </c>
+      <c r="D1110">
+        <v>5890.578767721135</v>
+      </c>
+      <c r="E1110">
+        <v>6383.208556840164</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5">
+      <c r="A1111" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1111">
+        <v>198.835</v>
+      </c>
+      <c r="D1111">
+        <v>198.835</v>
+      </c>
+      <c r="E1111">
+        <v>198.835</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5">
+      <c r="A1112" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1112">
+        <v>221.585</v>
+      </c>
+      <c r="D1112">
+        <v>215.4304056639179</v>
+      </c>
+      <c r="E1112">
+        <v>220.2581753667388</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5">
+      <c r="A1113" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1113">
+        <v>335.335</v>
+      </c>
+      <c r="D1113">
+        <v>309.1840406395232</v>
+      </c>
+      <c r="E1113">
+        <v>325.4444379307518</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5">
+      <c r="A1114" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1114">
+        <v>358.085</v>
+      </c>
+      <c r="D1114">
+        <v>323.7595307471936</v>
+      </c>
+      <c r="E1114">
+        <v>347.7296595869237</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5">
+      <c r="A1115" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1115">
+        <v>360.36</v>
+      </c>
+      <c r="D1115">
+        <v>324.5398375668823</v>
+      </c>
+      <c r="E1115">
+        <v>341.5708650694738</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5">
+      <c r="A1116" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1116">
+        <v>362.635</v>
+      </c>
+      <c r="D1116">
+        <v>353.7316170025762</v>
+      </c>
+      <c r="E1116">
+        <v>356.7176373139143</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5">
+      <c r="A1117" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1117">
+        <v>364.91</v>
+      </c>
+      <c r="D1117">
+        <v>363.271724071305</v>
+      </c>
+      <c r="E1117">
+        <v>355.5905810528275</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5">
+      <c r="A1118" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C1118">
+        <v>170.81</v>
+      </c>
+      <c r="D1118">
+        <v>170.81</v>
+      </c>
+      <c r="E1118">
+        <v>170.81</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5">
+      <c r="A1119" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1119">
+        <v>304.50525</v>
+      </c>
+      <c r="D1119">
+        <v>335.1670325138841</v>
+      </c>
+      <c r="E1119">
+        <v>347.5378196750095</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5">
+      <c r="A1120" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C1120">
+        <v>403.6355</v>
+      </c>
+      <c r="D1120">
+        <v>451.7081239819169</v>
+      </c>
+      <c r="E1120">
+        <v>493.2820335705579</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5">
+      <c r="A1121" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1121">
+        <v>466.4105</v>
+      </c>
+      <c r="D1121">
+        <v>514.1581101891371</v>
+      </c>
+      <c r="E1121">
+        <v>585.274413726007</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5">
+      <c r="A1122" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C1122">
+        <v>519.8855</v>
+      </c>
+      <c r="D1122">
+        <v>548.4790397222966</v>
+      </c>
+      <c r="E1122">
+        <v>636.3277878324943</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5">
+      <c r="A1123" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1123">
+        <v>536.6255</v>
+      </c>
+      <c r="D1123">
+        <v>584.5968940962517</v>
+      </c>
+      <c r="E1123">
+        <v>685.6614211500535</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5">
+      <c r="A1124" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C1124">
+        <v>582.0405</v>
+      </c>
+      <c r="D1124">
+        <v>644.6422463866277</v>
+      </c>
+      <c r="E1124">
+        <v>763.6489762319133</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5">
+      <c r="A1125" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1125">
+        <v>544.1800000000001</v>
+      </c>
+      <c r="D1125">
+        <v>544.1800000000001</v>
+      </c>
+      <c r="E1125">
+        <v>544.1800000000001</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5">
+      <c r="A1126" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C1126">
+        <v>693.1925000000001</v>
+      </c>
+      <c r="D1126">
+        <v>618.3392303929095</v>
+      </c>
+      <c r="E1126">
+        <v>682.1313011392378</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5">
+      <c r="A1127" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C1127">
+        <v>842.205</v>
+      </c>
+      <c r="D1127">
+        <v>680.3517203624788</v>
+      </c>
+      <c r="E1127">
+        <v>817.3645245723496</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5">
+      <c r="A1128" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1128">
+        <v>946.855</v>
+      </c>
+      <c r="D1128">
+        <v>728.6646363862347</v>
+      </c>
+      <c r="E1128">
+        <v>919.4732167730474</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5">
+      <c r="A1129" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1129">
+        <v>1051.505</v>
+      </c>
+      <c r="D1129">
+        <v>787.0705719780166</v>
+      </c>
+      <c r="E1129">
+        <v>996.6796327974167</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5">
+      <c r="A1130" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1130">
+        <v>1178.33625</v>
+      </c>
+      <c r="D1130">
+        <v>940.0705230237426</v>
+      </c>
+      <c r="E1130">
+        <v>1176.020320745126</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5">
+      <c r="A1131" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1131">
+        <v>1305.1675</v>
+      </c>
+      <c r="D1131">
+        <v>1037.365148262633</v>
+      </c>
+      <c r="E1131">
+        <v>1291.578066797235</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5">
+      <c r="A1132" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C1132">
+        <v>495.04</v>
+      </c>
+      <c r="D1132">
+        <v>495.04</v>
+      </c>
+      <c r="E1132">
+        <v>495.04</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5">
+      <c r="A1133" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1133">
+        <v>497.88375</v>
+      </c>
+      <c r="D1133">
+        <v>480.1597880286849</v>
+      </c>
+      <c r="E1133">
+        <v>490.1039260973383</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5">
+      <c r="A1134" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C1134">
+        <v>652.35625</v>
+      </c>
+      <c r="D1134">
+        <v>530.3430801931207</v>
+      </c>
+      <c r="E1134">
+        <v>605.7050985745595</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5">
+      <c r="A1135" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1135">
+        <v>929.67875</v>
+      </c>
+      <c r="D1135">
+        <v>686.4831261878709</v>
+      </c>
+      <c r="E1135">
+        <v>871.1067244139824</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5">
+      <c r="A1136" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1136">
+        <v>1105.195</v>
+      </c>
+      <c r="D1136">
+        <v>786.522221227956</v>
+      </c>
+      <c r="E1136">
+        <v>998.7879983274639</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5">
+      <c r="A1137" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1137">
+        <v>1251.8415</v>
+      </c>
+      <c r="D1137">
+        <v>962.9528612494431</v>
+      </c>
+      <c r="E1137">
+        <v>1182.796397337623</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5">
+      <c r="A1138" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1138">
+        <v>1368.913</v>
+      </c>
+      <c r="D1138">
+        <v>1050.611568394118</v>
+      </c>
+      <c r="E1138">
+        <v>1256.196885105541</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5">
+      <c r="A1139" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C1139">
+        <v>896.35</v>
+      </c>
+      <c r="D1139">
+        <v>896.35</v>
+      </c>
+      <c r="E1139">
+        <v>896.35</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5">
+      <c r="A1140" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C1140">
+        <v>960.045539488945</v>
+      </c>
+      <c r="D1140">
+        <v>904.3694434295385</v>
+      </c>
+      <c r="E1140">
+        <v>945.0440753203319</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5">
+      <c r="A1141" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1141">
+        <v>1027.76143181166</v>
+      </c>
+      <c r="D1141">
+        <v>905.6197810257589</v>
+      </c>
+      <c r="E1141">
+        <v>998.5825329880386</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5">
+      <c r="A1142" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C1142">
+        <v>1098.03588339991</v>
+      </c>
+      <c r="D1142">
+        <v>933.0227306470807</v>
+      </c>
+      <c r="E1142">
+        <v>1070.69160845435</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5">
+      <c r="A1143" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1143">
+        <v>1165.30718925712</v>
+      </c>
+      <c r="D1143">
+        <v>970.9617102156376</v>
+      </c>
+      <c r="E1143">
+        <v>1108.928350658054</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5">
+      <c r="A1144" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C1144">
+        <v>1232.5464865714</v>
+      </c>
+      <c r="D1144">
+        <v>1108.783561674151</v>
+      </c>
+      <c r="E1144">
+        <v>1245.87954944469</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5">
+      <c r="A1145" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1145">
+        <v>1299.78578388568</v>
+      </c>
+      <c r="D1145">
+        <v>1159.717570689934</v>
+      </c>
+      <c r="E1145">
+        <v>1297.792627418004</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5">
+      <c r="A1146" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C1146">
+        <v>165.198294652633</v>
+      </c>
+      <c r="D1146">
+        <v>165.198294652633</v>
+      </c>
+      <c r="E1146">
+        <v>165.198294652633</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5">
+      <c r="A1147" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1147">
+        <v>182.6357946526329</v>
+      </c>
+      <c r="D1147">
+        <v>167.8977516422864</v>
+      </c>
+      <c r="E1147">
+        <v>165.0843714883585</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5">
+      <c r="A1148" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1148">
+        <v>200.0732946526329</v>
+      </c>
+      <c r="D1148">
+        <v>184.4214115910374</v>
+      </c>
+      <c r="E1148">
+        <v>178.5720120294712</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5">
+      <c r="A1149" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1149">
+        <v>217.5107946526329</v>
+      </c>
+      <c r="D1149">
+        <v>200.2266111315265</v>
+      </c>
+      <c r="E1149">
+        <v>193.7380522074355</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5">
+      <c r="A1150" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C1150">
+        <v>234.9482946526329</v>
+      </c>
+      <c r="D1150">
+        <v>215.2496265799675</v>
+      </c>
+      <c r="E1150">
+        <v>209.3035973548495</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5">
+      <c r="A1151" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1151">
+        <v>249.2744772109644</v>
+      </c>
+      <c r="D1151">
+        <v>230.3034378834604</v>
+      </c>
+      <c r="E1151">
+        <v>225.8096820106449</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5">
+      <c r="A1152" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C1152">
+        <v>263.6006597692959</v>
+      </c>
+      <c r="D1152">
+        <v>261.3159418418799</v>
+      </c>
+      <c r="E1152">
+        <v>262.0611177614809</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5">
+      <c r="A1153" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1153">
+        <v>1083.355</v>
+      </c>
+      <c r="D1153">
+        <v>1083.355</v>
+      </c>
+      <c r="E1153">
+        <v>1083.355</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5">
+      <c r="A1154" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C1154">
+        <v>1216.67</v>
+      </c>
+      <c r="D1154">
+        <v>1182.876601119747</v>
+      </c>
+      <c r="E1154">
+        <v>1209.384724703614</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5">
+      <c r="A1155" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1155">
+        <v>1243.697</v>
+      </c>
+      <c r="D1155">
+        <v>1184.565119891768</v>
+      </c>
+      <c r="E1155">
+        <v>1249.15882192909</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5">
+      <c r="A1156" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C1156">
+        <v>1270.997</v>
+      </c>
+      <c r="D1156">
+        <v>1203.73841958055</v>
+      </c>
+      <c r="E1156">
+        <v>1303.29307222729</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5">
+      <c r="A1157" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1157">
+        <v>1698.242</v>
+      </c>
+      <c r="D1157">
+        <v>1386.157999405771</v>
+      </c>
+      <c r="E1157">
+        <v>1609.695829274374</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5">
+      <c r="A1158" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C1158">
+        <v>1921.556</v>
+      </c>
+      <c r="D1158">
+        <v>1642.952431457499</v>
+      </c>
+      <c r="E1158">
+        <v>1890.200659854608</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5">
+      <c r="A1159" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1159">
+        <v>2247.245</v>
+      </c>
+      <c r="D1159">
+        <v>1887.491028770687</v>
+      </c>
+      <c r="E1159">
+        <v>2189.852717979944</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5">
+      <c r="A1160" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1160">
+        <v>3527.615</v>
+      </c>
+      <c r="D1160">
+        <v>3527.615</v>
+      </c>
+      <c r="E1160">
+        <v>3527.615</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5">
+      <c r="A1161" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1161">
+        <v>3976.7</v>
+      </c>
+      <c r="D1161">
+        <v>3670.156947025221</v>
+      </c>
+      <c r="E1161">
+        <v>3834.375766689174</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5">
+      <c r="A1162" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1162">
+        <v>4434.22525</v>
+      </c>
+      <c r="D1162">
+        <v>3734.206014872937</v>
+      </c>
+      <c r="E1162">
+        <v>4113.642846777796</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5">
+      <c r="A1163" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1163">
+        <v>4827.459000000001</v>
+      </c>
+      <c r="D1163">
+        <v>3939.353477198719</v>
+      </c>
+      <c r="E1163">
+        <v>4503.605735525893</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5">
+      <c r="A1164" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1164">
+        <v>5395.044651953813</v>
+      </c>
+      <c r="D1164">
+        <v>4134.064850298387</v>
+      </c>
+      <c r="E1164">
+        <v>4853.179429880082</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5">
+      <c r="A1165" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1165">
+        <v>5837.027553907625</v>
+      </c>
+      <c r="D1165">
+        <v>4733.63053644114</v>
+      </c>
+      <c r="E1165">
+        <v>5580.349704521362</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5">
+      <c r="A1166" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1166">
+        <v>6620.388006512708</v>
+      </c>
+      <c r="D1166">
+        <v>4955.491774060873</v>
+      </c>
+      <c r="E1166">
+        <v>6179.547492509842</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5">
+      <c r="A1167" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1167">
+        <v>10251.24428571429</v>
+      </c>
+      <c r="D1167">
+        <v>10251.24428571429</v>
+      </c>
+      <c r="E1167">
+        <v>10251.24428571429</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5">
+      <c r="A1168" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C1168">
+        <v>11648.12811566074</v>
+      </c>
+      <c r="D1168">
+        <v>11284.49209654192</v>
+      </c>
+      <c r="E1168">
+        <v>11437.09621533372</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5">
+      <c r="A1169" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1169">
+        <v>13400.53774299692</v>
+      </c>
+      <c r="D1169">
+        <v>11286.21508568956</v>
+      </c>
+      <c r="E1169">
+        <v>11147.38578874808</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5">
+      <c r="A1170" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1170">
+        <v>13365.80800657429</v>
+      </c>
+      <c r="D1170">
+        <v>12778.74788541442</v>
+      </c>
+      <c r="E1170">
+        <v>13969.39277074248</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5">
+      <c r="A1171" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1171">
+        <v>15434.64576901395</v>
+      </c>
+      <c r="D1171">
+        <v>13736.38707445423</v>
+      </c>
+      <c r="E1171">
+        <v>14911.80342007351</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5">
+      <c r="A1172" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C1172">
+        <v>17051.12967536027</v>
+      </c>
+      <c r="D1172">
+        <v>14772.15200469762</v>
+      </c>
+      <c r="E1172">
+        <v>16174.31274682742</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5">
+      <c r="A1173" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1173">
+        <v>18165.07747474967</v>
+      </c>
+      <c r="D1173">
+        <v>15766.30833853045</v>
+      </c>
+      <c r="E1173">
+        <v>17657.8145733563</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5">
+      <c r="A1174" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1174">
+        <v>1300.69070789846</v>
+      </c>
+      <c r="D1174">
+        <v>1300.69070789846</v>
+      </c>
+      <c r="E1174">
+        <v>1300.69070789846</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5">
+      <c r="A1175" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1175">
+        <v>1349.720635714286</v>
+      </c>
+      <c r="D1175">
+        <v>1339.545436051747</v>
+      </c>
+      <c r="E1175">
+        <v>1345.955504223094</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5">
+      <c r="A1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1176">
+        <v>1449.204102521009</v>
+      </c>
+      <c r="D1176">
+        <v>1084.787995494406</v>
+      </c>
+      <c r="E1176">
+        <v>1102.609611652929</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5">
+      <c r="A1177" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1177">
+        <v>1549.684355916306</v>
+      </c>
+      <c r="D1177">
+        <v>1446.183104937629</v>
+      </c>
+      <c r="E1177">
+        <v>1486.237151968368</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5">
+      <c r="A1178" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C1178">
+        <v>1659.945092568543</v>
+      </c>
+      <c r="D1178">
+        <v>1503.443912003712</v>
+      </c>
+      <c r="E1178">
+        <v>1572.645946135009</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5">
+      <c r="A1179" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1179">
+        <v>1356.446</v>
+      </c>
+      <c r="D1179">
+        <v>1243.525740032619</v>
+      </c>
+      <c r="E1179">
+        <v>1323.221918833497</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5">
+      <c r="A1180" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1180">
+        <v>1840.14481220527</v>
+      </c>
+      <c r="D1180">
+        <v>1744.210914457419</v>
+      </c>
+      <c r="E1180">
+        <v>1885.101823481591</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5">
+      <c r="A1181" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1181">
+        <v>1524.51554945055</v>
+      </c>
+      <c r="D1181">
+        <v>1524.51554945055</v>
+      </c>
+      <c r="E1181">
+        <v>1524.51554945055</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5">
+      <c r="A1182" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1182">
+        <v>1438.265137865371</v>
+      </c>
+      <c r="D1182">
+        <v>1006.086691333944</v>
+      </c>
+      <c r="E1182">
+        <v>1028.803946306224</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5">
+      <c r="A1183" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C1183">
+        <v>1509.69226068784</v>
+      </c>
+      <c r="D1183">
+        <v>998.9398043801081</v>
+      </c>
+      <c r="E1183">
+        <v>1055.902323684038</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5">
+      <c r="A1184" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C1184">
+        <v>1597.164293239272</v>
+      </c>
+      <c r="D1184">
+        <v>1025.770319347856</v>
+      </c>
+      <c r="E1184">
+        <v>1110.681429425499</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5">
+      <c r="A1185" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1185">
+        <v>1842.616050229642</v>
+      </c>
+      <c r="D1185">
+        <v>1539.168334583076</v>
+      </c>
+      <c r="E1185">
+        <v>1693.682957214041</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5">
+      <c r="A1186" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1186">
+        <v>1378.48165</v>
+      </c>
+      <c r="D1186">
+        <v>1278.186872008157</v>
+      </c>
+      <c r="E1186">
+        <v>1393.393365468236</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5">
+      <c r="A1187" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1187">
+        <v>1794.214233153014</v>
+      </c>
+      <c r="D1187">
+        <v>1645.851426765332</v>
+      </c>
+      <c r="E1187">
+        <v>1770.837019550116</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5">
+      <c r="A1188" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C1188">
+        <v>1336.22983516484</v>
+      </c>
+      <c r="D1188">
+        <v>1336.22983516484</v>
+      </c>
+      <c r="E1188">
+        <v>1336.22983516484</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5">
+      <c r="A1189" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1189">
+        <v>1719.231883293831</v>
+      </c>
+      <c r="D1189">
+        <v>1679.572723290684</v>
+      </c>
+      <c r="E1189">
+        <v>1709.186393939518</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5">
+      <c r="A1190" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1190">
+        <v>2133.104858675186</v>
+      </c>
+      <c r="D1190">
+        <v>1954.749666147864</v>
+      </c>
+      <c r="E1190">
+        <v>2049.640757808267</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5">
+      <c r="A1191" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1191">
+        <v>2319.697239290479</v>
+      </c>
+      <c r="D1191">
+        <v>1536.880088499229</v>
+      </c>
+      <c r="E1191">
+        <v>1650.66771455726</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5">
+      <c r="A1192" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1192">
+        <v>2506.22442678089</v>
+      </c>
+      <c r="D1192">
+        <v>2201.999308187115</v>
+      </c>
+      <c r="E1192">
+        <v>2304.902216426649</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5">
+      <c r="A1193" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C1193">
+        <v>2514.728540671639</v>
+      </c>
+      <c r="D1193">
+        <v>2439.426616815496</v>
+      </c>
+      <c r="E1193">
+        <v>2432.655039259977</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5">
+      <c r="A1194" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C1194">
+        <v>2523.007194242768</v>
+      </c>
+      <c r="D1194">
+        <v>2506.030473321054</v>
+      </c>
+      <c r="E1194">
+        <v>1802.343220049377</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5">
+      <c r="A1195" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C1195">
+        <v>2165.560989010993</v>
+      </c>
+      <c r="D1195">
+        <v>2165.560989010993</v>
+      </c>
+      <c r="E1195">
+        <v>2165.560989010993</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5">
+      <c r="A1196" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1196">
+        <v>1280.247809099612</v>
+      </c>
+      <c r="D1196">
+        <v>1227.469540210015</v>
+      </c>
+      <c r="E1196">
+        <v>1260.718649809542</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5">
+      <c r="A1197" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1197">
+        <v>1845.422762345254</v>
+      </c>
+      <c r="D1197">
+        <v>1207.91954339286</v>
+      </c>
+      <c r="E1197">
+        <v>1283.042236537208</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5">
+      <c r="A1198" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1198">
+        <v>2039.940288512038</v>
+      </c>
+      <c r="D1198">
+        <v>1796.548985907464</v>
+      </c>
+      <c r="E1198">
+        <v>1937.816103197084</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5">
+      <c r="A1199" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1199">
+        <v>2208.92617117565</v>
+      </c>
+      <c r="D1199">
+        <v>1917.292433232329</v>
+      </c>
+      <c r="E1199">
+        <v>2130.233842166096</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5">
+      <c r="A1200" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1200">
+        <v>2453.130886950958</v>
+      </c>
+      <c r="D1200">
+        <v>2158.555276532304</v>
+      </c>
+      <c r="E1200">
+        <v>2702.285289201081</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5">
+      <c r="A1201" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C1201">
+        <v>2785.179158251581</v>
+      </c>
+      <c r="D1201">
+        <v>2605.514366232856</v>
+      </c>
+      <c r="E1201">
+        <v>3683.759448673048</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5">
+      <c r="A1202" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1202">
+        <v>5892.14500000001</v>
+      </c>
+      <c r="D1202">
+        <v>5892.14500000001</v>
+      </c>
+      <c r="E1202">
+        <v>5892.14500000001</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5">
+      <c r="A1203" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1203">
+        <v>5019.672632471262</v>
+      </c>
+      <c r="D1203">
+        <v>4959.03603001486</v>
+      </c>
+      <c r="E1203">
+        <v>5013.75198991377</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5">
+      <c r="A1204" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1204">
+        <v>5845.069364325177</v>
+      </c>
+      <c r="D1204">
+        <v>5663.093281950167</v>
+      </c>
+      <c r="E1204">
+        <v>5857.5063174104</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5">
+      <c r="A1205" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1205">
+        <v>6281.019224683148</v>
+      </c>
+      <c r="D1205">
+        <v>6498.791853712186</v>
+      </c>
+      <c r="E1205">
+        <v>6898.430817028239</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5">
+      <c r="A1206" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1206">
+        <v>6549.624168756754</v>
+      </c>
+      <c r="D1206">
+        <v>7150.940253784525</v>
+      </c>
+      <c r="E1206">
+        <v>7638.926362955841</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5">
+      <c r="A1207" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C1207">
+        <v>6952.732089944147</v>
+      </c>
+      <c r="D1207">
+        <v>8697.825920665051</v>
+      </c>
+      <c r="E1207">
+        <v>9309.453659937639</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5">
+      <c r="A1208" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1208">
+        <v>7365.587212283392</v>
+      </c>
+      <c r="D1208">
+        <v>10107.57405631355</v>
+      </c>
+      <c r="E1208">
+        <v>10887.62736926018</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5">
+      <c r="A1209" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1209">
+        <v>1182.79901098901</v>
+      </c>
+      <c r="D1209">
+        <v>1182.79901098901</v>
+      </c>
+      <c r="E1209">
+        <v>1182.79901098901</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5">
+      <c r="A1210" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1210">
+        <v>722.6332506704865</v>
+      </c>
+      <c r="D1210">
+        <v>683.4702624116908</v>
+      </c>
+      <c r="E1210">
+        <v>697.7867933020241</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5">
+      <c r="A1211" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1211">
+        <v>1341.207734391966</v>
+      </c>
+      <c r="D1211">
+        <v>1172.43892290979</v>
+      </c>
+      <c r="E1211">
+        <v>1232.114869362613</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5">
+      <c r="A1212" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1212">
+        <v>1383.578423430386</v>
+      </c>
+      <c r="D1212">
+        <v>826.9750053636227</v>
+      </c>
+      <c r="E1212">
+        <v>891.366979414512</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5">
+      <c r="A1213" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1213">
+        <v>1423.732546222821</v>
+      </c>
+      <c r="D1213">
+        <v>1213.376802574997</v>
+      </c>
+      <c r="E1213">
+        <v>897.0792020414872</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5">
+      <c r="A1214" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1214">
+        <v>1470.822257550939</v>
+      </c>
+      <c r="D1214">
+        <v>1406.6104617847</v>
+      </c>
+      <c r="E1214">
+        <v>1384.511238759821</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5">
+      <c r="A1215" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1215">
+        <v>1510.246318011962</v>
+      </c>
+      <c r="D1215">
+        <v>1476.679578872261</v>
+      </c>
+      <c r="E1215">
+        <v>982.1115017432644</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5">
+      <c r="A1216" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1216">
+        <v>816.321332417582</v>
+      </c>
+      <c r="D1216">
+        <v>816.321332417582</v>
+      </c>
+      <c r="E1216">
+        <v>816.321332417582</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5">
+      <c r="A1217" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1217">
+        <v>1124.487843495824</v>
+      </c>
+      <c r="D1217">
+        <v>998.2826059682959</v>
+      </c>
+      <c r="E1217">
+        <v>1117.904307910435</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5">
+      <c r="A1218" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1218">
+        <v>1433.642700015609</v>
+      </c>
+      <c r="D1218">
+        <v>825.8499522347438</v>
+      </c>
+      <c r="E1218">
+        <v>1377.500450428166</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5">
+      <c r="A1219" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1219">
+        <v>1751.524332112319</v>
+      </c>
+      <c r="D1219">
+        <v>1266.387576992007</v>
+      </c>
+      <c r="E1219">
+        <v>1660.428638280406</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5">
+      <c r="A1220" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1220">
+        <v>2064.215344791844</v>
+      </c>
+      <c r="D1220">
+        <v>1434.269264181771</v>
+      </c>
+      <c r="E1220">
+        <v>1897.973701987288</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5">
+      <c r="A1221" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1221">
+        <v>2561.149961870694</v>
+      </c>
+      <c r="D1221">
+        <v>1897.053951732662</v>
+      </c>
+      <c r="E1221">
+        <v>2477.063493840325</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5">
+      <c r="A1222" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1222">
+        <v>3058.084578949543</v>
+      </c>
+      <c r="D1222">
+        <v>1668.039678323452</v>
+      </c>
+      <c r="E1222">
+        <v>2925.506045015472</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5">
+      <c r="A1223" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1223">
+        <v>29530.80272012072</v>
+      </c>
+      <c r="D1223">
+        <v>29530.80272012072</v>
+      </c>
+      <c r="E1223">
+        <v>29530.80272012072</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5">
+      <c r="A1224" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1224">
+        <v>32746.02694873237</v>
+      </c>
+      <c r="D1224">
+        <v>32739.67037210066</v>
+      </c>
+      <c r="E1224">
+        <v>32635.34036470399</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5">
+      <c r="A1225" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1225">
+        <v>40654.92801652265</v>
+      </c>
+      <c r="D1225">
+        <v>32661.26447792788</v>
+      </c>
+      <c r="E1225">
+        <v>28338.19457070947</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5">
+      <c r="A1226" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1226">
+        <v>59576.54882483306</v>
+      </c>
+      <c r="D1226">
+        <v>46382.15555198614</v>
+      </c>
+      <c r="E1226">
+        <v>54243.77246081878</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5">
+      <c r="A1227" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1227">
+        <v>63684.06778832083</v>
+      </c>
+      <c r="D1227">
+        <v>51335.15869366467</v>
+      </c>
+      <c r="E1227">
+        <v>58942.12496192774</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5">
+      <c r="A1228" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1228">
+        <v>78157.08184798899</v>
+      </c>
+      <c r="D1228">
+        <v>58588.53750073619</v>
+      </c>
+      <c r="E1228">
+        <v>68956.95499686341</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5">
+      <c r="A1229" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1229">
+        <v>88338.56786321024</v>
+      </c>
+      <c r="D1229">
+        <v>68023.70357680366</v>
+      </c>
+      <c r="E1229">
+        <v>83751.82738644327</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5">
+      <c r="A1230" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C1230">
+        <v>7404.998273062057</v>
+      </c>
+      <c r="D1230">
+        <v>7404.998273062057</v>
+      </c>
+      <c r="E1230">
+        <v>7404.998273062057</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5">
+      <c r="A1231" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1231">
+        <v>6155.631232272855</v>
+      </c>
+      <c r="D1231">
+        <v>6987.131632556301</v>
+      </c>
+      <c r="E1231">
+        <v>7151.075895416545</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5">
+      <c r="A1232" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C1232">
+        <v>6928.716715575487</v>
+      </c>
+      <c r="D1232">
+        <v>6359.596655662673</v>
+      </c>
+      <c r="E1232">
+        <v>5796.106286628041</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5">
+      <c r="A1233" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C1233">
+        <v>11188.83168598598</v>
+      </c>
+      <c r="D1233">
+        <v>9131.187094616282</v>
+      </c>
+      <c r="E1233">
+        <v>11682.75285901119</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5">
+      <c r="A1234" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1234">
+        <v>11680.27695127065</v>
+      </c>
+      <c r="D1234">
+        <v>10356.78728002411</v>
+      </c>
+      <c r="E1234">
+        <v>12693.98203692862</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5">
+      <c r="A1235" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1235">
+        <v>13143.52029680626</v>
+      </c>
+      <c r="D1235">
+        <v>11442.71944107799</v>
+      </c>
+      <c r="E1235">
+        <v>13998.29080731275</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5">
+      <c r="A1236" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1236">
+        <v>13776.55770523324</v>
+      </c>
+      <c r="D1236">
+        <v>12377.75833958677</v>
+      </c>
+      <c r="E1236">
+        <v>15284.82420810931</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5">
+      <c r="A1237" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1237">
+        <v>2022.948956043958</v>
+      </c>
+      <c r="D1237">
+        <v>2022.948956043958</v>
+      </c>
+      <c r="E1237">
+        <v>2022.948956043958</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5">
+      <c r="A1238" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1238">
+        <v>2711.392808729584</v>
+      </c>
+      <c r="D1238">
+        <v>2650.271469987057</v>
+      </c>
+      <c r="E1238">
+        <v>2756.393756220436</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5">
+      <c r="A1239" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1239">
+        <v>3151.288934035689</v>
+      </c>
+      <c r="D1239">
+        <v>2915.565054020974</v>
+      </c>
+      <c r="E1239">
+        <v>3255.084996870935</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5">
+      <c r="A1240" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1240">
+        <v>3336.28016431201</v>
+      </c>
+      <c r="D1240">
+        <v>2359.925883774999</v>
+      </c>
+      <c r="E1240">
+        <v>2736.841954108158</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5">
+      <c r="A1241" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C1241">
+        <v>3740.264859056027</v>
+      </c>
+      <c r="D1241">
+        <v>3227.476419834582</v>
+      </c>
+      <c r="E1241">
+        <v>3904.485870612069</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5">
+      <c r="A1242" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C1242">
+        <v>4086.848048664055</v>
+      </c>
+      <c r="D1242">
+        <v>3609.914972404723</v>
+      </c>
+      <c r="E1242">
+        <v>4478.549460748087</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5">
+      <c r="A1243" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1243">
+        <v>3943.834358678093</v>
+      </c>
+      <c r="D1243">
+        <v>3447.20925787075</v>
+      </c>
+      <c r="E1243">
+        <v>4349.782967905308</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5">
+      <c r="A1244" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1244">
+        <v>5192.767362637363</v>
+      </c>
+      <c r="D1244">
+        <v>5192.767362637363</v>
+      </c>
+      <c r="E1244">
+        <v>5192.767362637363</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5">
+      <c r="A1245" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1245">
+        <v>5832.765633312843</v>
+      </c>
+      <c r="D1245">
+        <v>5509.133738808694</v>
+      </c>
+      <c r="E1245">
+        <v>5620.323157705023</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5">
+      <c r="A1246" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C1246">
+        <v>6783.544063860028</v>
+      </c>
+      <c r="D1246">
+        <v>5781.129880907918</v>
+      </c>
+      <c r="E1246">
+        <v>6059.859725827225</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5">
+      <c r="A1247" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1247">
+        <v>6427.432280402036</v>
+      </c>
+      <c r="D1247">
+        <v>6195.972916699968</v>
+      </c>
+      <c r="E1247">
+        <v>6689.956168596629</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5">
+      <c r="A1248" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C1248">
+        <v>8234.127819220095</v>
+      </c>
+      <c r="D1248">
+        <v>7038.222188381717</v>
+      </c>
+      <c r="E1248">
+        <v>8619.629965271512</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5">
+      <c r="A1249" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1249">
+        <v>9664.09550306711</v>
+      </c>
+      <c r="D1249">
+        <v>8291.243920193567</v>
+      </c>
+      <c r="E1249">
+        <v>11426.81482613487</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5">
+      <c r="A1250" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1250">
+        <v>11443.87254122176</v>
+      </c>
+      <c r="D1250">
+        <v>9530.429384492572</v>
+      </c>
+      <c r="E1250">
+        <v>15003.28499389903</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5">
+      <c r="A1251" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1251">
+        <v>621.998791208791</v>
+      </c>
+      <c r="D1251">
+        <v>621.998791208791</v>
+      </c>
+      <c r="E1251">
+        <v>621.998791208791</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5">
+      <c r="A1252" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1252">
+        <v>684.4159218401815</v>
+      </c>
+      <c r="D1252">
+        <v>534.8935745593136</v>
+      </c>
+      <c r="E1252">
+        <v>694.5025095629732</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5">
+      <c r="A1253" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1253">
+        <v>695.667475275788</v>
+      </c>
+      <c r="D1253">
+        <v>535.2945422186289</v>
+      </c>
+      <c r="E1253">
+        <v>574.2849606897909</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5">
+      <c r="A1254" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1254">
+        <v>698.4803636346896</v>
+      </c>
+      <c r="D1254">
+        <v>536.825896272236</v>
+      </c>
+      <c r="E1254">
+        <v>586.6727343370408</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5">
+      <c r="A1255" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1255">
+        <v>701.2932519935913</v>
+      </c>
+      <c r="D1255">
+        <v>538.8475949177745</v>
+      </c>
+      <c r="E1255">
+        <v>580.985305549795</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5">
+      <c r="A1256" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1256">
+        <v>704.1061403524928</v>
+      </c>
+      <c r="D1256">
+        <v>680.9630586521093</v>
+      </c>
+      <c r="E1256">
+        <v>708.6248026366126</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5">
+      <c r="A1257" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1257">
+        <v>706.9190287113945</v>
+      </c>
+      <c r="D1257">
+        <v>690.6300586934449</v>
+      </c>
+      <c r="E1257">
+        <v>578.3423869077545</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5">
+      <c r="A1258" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1258">
+        <v>1532.914835164835</v>
+      </c>
+      <c r="D1258">
+        <v>1532.914835164835</v>
+      </c>
+      <c r="E1258">
+        <v>1532.914835164835</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5">
+      <c r="A1259" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1259">
+        <v>1474.160418247544</v>
+      </c>
+      <c r="D1259">
+        <v>1395.283845967498</v>
+      </c>
+      <c r="E1259">
+        <v>1455.034773957939</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5">
+      <c r="A1260" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1260">
+        <v>1813.608003427355</v>
+      </c>
+      <c r="D1260">
+        <v>1480.929081754058</v>
+      </c>
+      <c r="E1260">
+        <v>1666.383855882257</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5">
+      <c r="A1261" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1261">
+        <v>2147.899960549496</v>
+      </c>
+      <c r="D1261">
+        <v>1632.018063610075</v>
+      </c>
+      <c r="E1261">
+        <v>1964.368626480794</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5">
+      <c r="A1262" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1262">
+        <v>2458.574978153026</v>
+      </c>
+      <c r="D1262">
+        <v>1800.916215333775</v>
+      </c>
+      <c r="E1262">
+        <v>2173.923437451141</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5">
+      <c r="A1263" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1263">
+        <v>2610.028610859289</v>
+      </c>
+      <c r="D1263">
+        <v>2122.525607644207</v>
+      </c>
+      <c r="E1263">
+        <v>2450.525726639244</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5">
+      <c r="A1264" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1264">
+        <v>2875.326511608549</v>
+      </c>
+      <c r="D1264">
+        <v>2347.090981259112</v>
+      </c>
+      <c r="E1264">
+        <v>2648.513510844145</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5">
+      <c r="A1265" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1265">
+        <v>321056.7777815452</v>
+      </c>
+      <c r="D1265">
+        <v>321056.7777815452</v>
+      </c>
+      <c r="E1265">
+        <v>321056.7777815452</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5">
+      <c r="A1266" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1266">
+        <v>370582.1995049816</v>
+      </c>
+      <c r="D1266">
+        <v>348401.8533125979</v>
+      </c>
+      <c r="E1266">
+        <v>352657.1635480625</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5">
+      <c r="A1267" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1267">
+        <v>412249.7432852864</v>
+      </c>
+      <c r="D1267">
+        <v>392488.9193652301</v>
+      </c>
+      <c r="E1267">
+        <v>408354.303324618</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5">
+      <c r="A1268" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1268">
+        <v>469731.6555560225</v>
+      </c>
+      <c r="D1268">
+        <v>422802.8461140175</v>
+      </c>
+      <c r="E1268">
+        <v>437544.7561189974</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5">
+      <c r="A1269" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1269">
+        <v>528876.4603541128</v>
+      </c>
+      <c r="D1269">
+        <v>458731.4927310848</v>
+      </c>
+      <c r="E1269">
+        <v>491803.1294737434</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5">
+      <c r="A1270" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1270">
+        <v>590668.5662612802</v>
+      </c>
+      <c r="D1270">
+        <v>494593.3540761059</v>
+      </c>
+      <c r="E1270">
+        <v>542975.137197917</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5">
+      <c r="A1271" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1271">
+        <v>620432.3750198297</v>
+      </c>
+      <c r="D1271">
+        <v>529811.0746880868</v>
+      </c>
+      <c r="E1271">
+        <v>595039.6896963766</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5">
+      <c r="A1272" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1272">
+        <v>4846.692163890043</v>
+      </c>
+      <c r="D1272">
+        <v>4846.692163890043</v>
+      </c>
+      <c r="E1272">
+        <v>4846.692163890043</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5">
+      <c r="A1273" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1273">
+        <v>4694.175623105867</v>
+      </c>
+      <c r="D1273">
+        <v>4816.29122157146</v>
+      </c>
+      <c r="E1273">
+        <v>5034.968181168839</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5">
+      <c r="A1274" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1274">
+        <v>-2620.109821550556</v>
+      </c>
+      <c r="D1274">
+        <v>7857.054186543108</v>
+      </c>
+      <c r="E1274">
+        <v>9540.685212894128</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5">
+      <c r="A1275" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C1275">
+        <v>20249.52614084974</v>
+      </c>
+      <c r="D1275">
+        <v>7298.318292847319</v>
+      </c>
+      <c r="E1275">
+        <v>6733.148256970482</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5">
+      <c r="A1276" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1276">
+        <v>9522.7349132165</v>
+      </c>
+      <c r="D1276">
+        <v>7801.697156192912</v>
+      </c>
+      <c r="E1276">
+        <v>8165.325793192539</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5">
+      <c r="A1277" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1277">
+        <v>9817.629421551663</v>
+      </c>
+      <c r="D1277">
+        <v>8213.657020102952</v>
+      </c>
+      <c r="E1277">
+        <v>8837.147293304119</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5">
+      <c r="A1278" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C1278">
+        <v>9985.422929546392</v>
+      </c>
+      <c r="D1278">
+        <v>8589.471983541611</v>
+      </c>
+      <c r="E1278">
+        <v>9388.847299170588</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5">
+      <c r="A1279" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1279">
+        <v>194.836648351648</v>
+      </c>
+      <c r="D1279">
+        <v>194.836648351648</v>
+      </c>
+      <c r="E1279">
+        <v>194.836648351648</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5">
+      <c r="A1280" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C1280">
+        <v>130.585</v>
+      </c>
+      <c r="D1280">
+        <v>122.8888187454633</v>
+      </c>
+      <c r="E1280">
+        <v>128.5012690692231</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5">
+      <c r="A1281" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1281">
+        <v>190.6986593040086</v>
+      </c>
+      <c r="D1281">
+        <v>122.9184856273817</v>
+      </c>
+      <c r="E1281">
+        <v>135.5650508069753</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5">
+      <c r="A1282" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1282">
+        <v>203.1220247309798</v>
+      </c>
+      <c r="D1282">
+        <v>125.8836294900143</v>
+      </c>
+      <c r="E1282">
+        <v>144.4823363213774</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5">
+      <c r="A1283" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1283">
+        <v>215.5453901579511</v>
+      </c>
+      <c r="D1283">
+        <v>174.0714674671194</v>
+      </c>
+      <c r="E1283">
+        <v>149.6528916402872</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5">
+      <c r="A1284" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1284">
+        <v>166.985</v>
+      </c>
+      <c r="D1284">
+        <v>150.0108817471761</v>
+      </c>
+      <c r="E1284">
+        <v>170.0607767934173</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5">
+      <c r="A1285" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C1285">
+        <v>217.7175589789867</v>
+      </c>
+      <c r="D1285">
+        <v>194.4926350352362</v>
+      </c>
+      <c r="E1285">
+        <v>217.5681836321714</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5">
+      <c r="A1286" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C1286">
+        <v>26549.23285714286</v>
+      </c>
+      <c r="D1286">
+        <v>26549.23285714286</v>
+      </c>
+      <c r="E1286">
+        <v>26549.23285714286</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5">
+      <c r="A1287" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1287">
+        <v>37838.72037930858</v>
+      </c>
+      <c r="D1287">
+        <v>34642.69546958286</v>
+      </c>
+      <c r="E1287">
+        <v>35029.03856463587</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5">
+      <c r="A1288" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1288">
+        <v>52578.45620489049</v>
+      </c>
+      <c r="D1288">
+        <v>41502.71244238754</v>
+      </c>
+      <c r="E1288">
+        <v>42657.05981428407</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5">
+      <c r="A1289" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C1289">
+        <v>45324.00903237275</v>
+      </c>
+      <c r="D1289">
+        <v>50304.39879900568</v>
+      </c>
+      <c r="E1289">
+        <v>52912.11090948903</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5">
+      <c r="A1290" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1290">
+        <v>63128.73769149381</v>
+      </c>
+      <c r="D1290">
+        <v>57431.62764082442</v>
+      </c>
+      <c r="E1290">
+        <v>61085.7219245968</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5">
+      <c r="A1291" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1291">
+        <v>70990.81551159442</v>
+      </c>
+      <c r="D1291">
+        <v>61605.90883285326</v>
+      </c>
+      <c r="E1291">
+        <v>66713.73993419313</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5">
+      <c r="A1292" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1292">
+        <v>77482.15493833265</v>
+      </c>
+      <c r="D1292">
+        <v>66780.86201584458</v>
+      </c>
+      <c r="E1292">
+        <v>75090.80531517419</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5">
+      <c r="A1293" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1293">
+        <v>11005.9000285418</v>
+      </c>
+      <c r="D1293">
+        <v>11005.9000285418</v>
+      </c>
+      <c r="E1293">
+        <v>11005.9000285418</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5">
+      <c r="A1294" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1294">
+        <v>9523.965379589597</v>
+      </c>
+      <c r="D1294">
+        <v>10205.71512139941</v>
+      </c>
+      <c r="E1294">
+        <v>10545.61433275784</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5">
+      <c r="A1295" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1295">
+        <v>10385.80264549155</v>
+      </c>
+      <c r="D1295">
+        <v>11073.91641721479</v>
+      </c>
+      <c r="E1295">
+        <v>12008.98880284563</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5">
+      <c r="A1296" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C1296">
+        <v>10905.09424122273</v>
+      </c>
+      <c r="D1296">
+        <v>11447.00656006646</v>
+      </c>
+      <c r="E1296">
+        <v>12879.34054979228</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5">
+      <c r="A1297" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1297">
+        <v>11378.32400581036</v>
+      </c>
+      <c r="D1297">
+        <v>11571.31050421311</v>
+      </c>
+      <c r="E1297">
+        <v>13224.60081796921</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5">
+      <c r="A1298" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C1298">
+        <v>11624.73339465466</v>
+      </c>
+      <c r="D1298">
+        <v>12041.1596659437</v>
+      </c>
+      <c r="E1298">
+        <v>13926.91561872603</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5">
+      <c r="A1299" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1299">
+        <v>11978.05173749978</v>
+      </c>
+      <c r="D1299">
+        <v>12600.18490497903</v>
+      </c>
+      <c r="E1299">
+        <v>14758.59821235476</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5">
+      <c r="A1300" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C1300">
+        <v>13139.91778230485</v>
+      </c>
+      <c r="D1300">
+        <v>13139.91778230485</v>
+      </c>
+      <c r="E1300">
+        <v>13139.91778230485</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5">
+      <c r="A1301" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1301">
+        <v>12457.70848155378</v>
+      </c>
+      <c r="D1301">
+        <v>11928.61444679763</v>
+      </c>
+      <c r="E1301">
+        <v>12206.94707937572</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5">
+      <c r="A1302" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C1302">
+        <v>14546.81874764833</v>
+      </c>
+      <c r="D1302">
+        <v>12470.83818209801</v>
+      </c>
+      <c r="E1302">
+        <v>13350.21162382745</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5">
+      <c r="A1303" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C1303">
+        <v>15819.44409242826</v>
+      </c>
+      <c r="D1303">
+        <v>13620.39105100902</v>
+      </c>
+      <c r="E1303">
+        <v>15482.48176644338</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5">
+      <c r="A1304" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1304">
+        <v>19664.38668490769</v>
+      </c>
+      <c r="D1304">
+        <v>14760.60849923956</v>
+      </c>
+      <c r="E1304">
+        <v>18116.49807799063</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5">
+      <c r="A1305" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1305">
+        <v>22446.20940651236</v>
+      </c>
+      <c r="D1305">
+        <v>16561.51823372484</v>
+      </c>
+      <c r="E1305">
+        <v>21648.61429970643</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5">
+      <c r="A1306" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1306">
+        <v>25034.4952705442</v>
+      </c>
+      <c r="D1306">
+        <v>17514.41076906074</v>
+      </c>
+      <c r="E1306">
+        <v>23925.8992150597</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5">
+      <c r="A1307" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1307">
+        <v>14072.51409335916</v>
+      </c>
+      <c r="D1307">
+        <v>14072.51409335916</v>
+      </c>
+      <c r="E1307">
+        <v>14072.51409335916</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5">
+      <c r="A1308" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C1308">
+        <v>19822.07891208152</v>
+      </c>
+      <c r="D1308">
+        <v>17655.22456940649</v>
+      </c>
+      <c r="E1308">
+        <v>18061.738635409</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5">
+      <c r="A1309" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C1309">
+        <v>25831.17935580029</v>
+      </c>
+      <c r="D1309">
+        <v>18546.08200712993</v>
+      </c>
+      <c r="E1309">
+        <v>19511.76193125389</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5">
+      <c r="A1310" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1310">
+        <v>21587.09337834156</v>
+      </c>
+      <c r="D1310">
+        <v>21803.70804184255</v>
+      </c>
+      <c r="E1310">
+        <v>23709.74437838442</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5">
+      <c r="A1311" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1311">
+        <v>32217.15863590058</v>
+      </c>
+      <c r="D1311">
+        <v>24708.50739817665</v>
+      </c>
+      <c r="E1311">
+        <v>28041.17417716569</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5">
+      <c r="A1312" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1312">
+        <v>36554.52308635177</v>
+      </c>
+      <c r="D1312">
+        <v>25358.15007357507</v>
+      </c>
+      <c r="E1312">
+        <v>31654.27433963</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5">
+      <c r="A1313" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1313">
+        <v>41312.20624911953</v>
+      </c>
+      <c r="D1313">
+        <v>30923.55117170508</v>
+      </c>
+      <c r="E1313">
+        <v>37389.71379711363</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5">
+      <c r="A1314" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1314">
+        <v>7634.444783553769</v>
+      </c>
+      <c r="D1314">
+        <v>7634.444783553769</v>
+      </c>
+      <c r="E1314">
+        <v>7634.444783553769</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5">
+      <c r="A1315" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1315">
+        <v>8126.974924402553</v>
+      </c>
+      <c r="D1315">
+        <v>7662.236036345987</v>
+      </c>
+      <c r="E1315">
+        <v>7808.224714470281</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5">
+      <c r="A1316" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1316">
+        <v>10141.77089178782</v>
+      </c>
+      <c r="D1316">
+        <v>8454.664614618621</v>
+      </c>
+      <c r="E1316">
+        <v>8858.227041185195</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5">
+      <c r="A1317" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1317">
+        <v>9535.225980109321</v>
+      </c>
+      <c r="D1317">
+        <v>9543.371241440904</v>
+      </c>
+      <c r="E1317">
+        <v>10438.22136588423</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5">
+      <c r="A1318" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C1318">
+        <v>13010.47839454763</v>
+      </c>
+      <c r="D1318">
+        <v>11459.77314482087</v>
+      </c>
+      <c r="E1318">
+        <v>12876.20908343497</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5">
+      <c r="A1319" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C1319">
+        <v>15157.11044664889</v>
+      </c>
+      <c r="D1319">
+        <v>13708.30147502561</v>
+      </c>
+      <c r="E1319">
+        <v>15753.249436093</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5">
+      <c r="A1320" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C1320">
+        <v>16742.93638126513</v>
+      </c>
+      <c r="D1320">
+        <v>15300.78586415486</v>
+      </c>
+      <c r="E1320">
+        <v>17850.726521637</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5">
+      <c r="A1321" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C1321">
+        <v>288.252582417582</v>
+      </c>
+      <c r="D1321">
+        <v>288.252582417582</v>
+      </c>
+      <c r="E1321">
+        <v>288.252582417582</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5">
+      <c r="A1322" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1322">
+        <v>231.533904549806</v>
+      </c>
+      <c r="D1322">
+        <v>225.2630434641712</v>
+      </c>
+      <c r="E1322">
+        <v>230.2894786632725</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5">
+      <c r="A1323" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1323">
+        <v>469.3197080520027</v>
+      </c>
+      <c r="D1323">
+        <v>430.5241589480513</v>
+      </c>
+      <c r="E1323">
+        <v>451.4272310557843</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5">
+      <c r="A1324" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1324">
+        <v>502.0714160945004</v>
+      </c>
+      <c r="D1324">
+        <v>336.7226485071267</v>
+      </c>
+      <c r="E1324">
+        <v>361.6658155645863</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5">
+      <c r="A1325" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C1325">
+        <v>506.4142000521393</v>
+      </c>
+      <c r="D1325">
+        <v>339.7020228787159</v>
+      </c>
+      <c r="E1325">
+        <v>358.4726763149171</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5">
+      <c r="A1326" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C1326">
+        <v>512.1848992965365</v>
+      </c>
+      <c r="D1326">
+        <v>497.5378374449176</v>
+      </c>
+      <c r="E1326">
+        <v>498.7912489961433</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5">
+      <c r="A1327" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C1327">
+        <v>516.3773763035905</v>
+      </c>
+      <c r="D1327">
+        <v>514.2082368587867</v>
+      </c>
+      <c r="E1327">
+        <v>378.8147037196664</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5">
+      <c r="A1328" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1328">
+        <v>401.337472527473</v>
+      </c>
+      <c r="D1328">
+        <v>401.337472527473</v>
+      </c>
+      <c r="E1328">
+        <v>401.337472527473</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5">
+      <c r="A1329" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1329">
+        <v>1111.033672345886</v>
+      </c>
+      <c r="D1329">
+        <v>1178.874166123204</v>
+      </c>
+      <c r="E1329">
+        <v>1217.786965181029</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5">
+      <c r="A1330" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1330">
+        <v>1470.81798713668</v>
+      </c>
+      <c r="D1330">
+        <v>1540.822229474363</v>
+      </c>
+      <c r="E1330">
+        <v>1671.247346966848</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5">
+      <c r="A1331" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1331">
+        <v>1699.453298287339</v>
+      </c>
+      <c r="D1331">
+        <v>1738.903642471822</v>
+      </c>
+      <c r="E1331">
+        <v>1966.968919156711</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5">
+      <c r="A1332" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1332">
+        <v>1893.981861851556</v>
+      </c>
+      <c r="D1332">
+        <v>1842.926146802933</v>
+      </c>
+      <c r="E1332">
+        <v>2127.929240941273</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5">
+      <c r="A1333" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1333">
+        <v>1957.480778380459</v>
+      </c>
+      <c r="D1333">
+        <v>2011.685706659876</v>
+      </c>
+      <c r="E1333">
+        <v>2348.136333355503</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5">
+      <c r="A1334" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C1334">
+        <v>2122.730386996842</v>
+      </c>
+      <c r="D1334">
+        <v>2212.999424687155</v>
+      </c>
+      <c r="E1334">
+        <v>2607.641825674588</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5">
+      <c r="A1335" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1335">
+        <v>892.037142857143</v>
+      </c>
+      <c r="D1335">
+        <v>892.037142857143</v>
+      </c>
+      <c r="E1335">
+        <v>892.037142857143</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5">
+      <c r="A1336" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1336">
+        <v>964.6369992314144</v>
+      </c>
+      <c r="D1336">
+        <v>896.016005121971</v>
+      </c>
+      <c r="E1336">
+        <v>972.280042835182</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5">
+      <c r="A1337" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1337">
+        <v>1158.010107457697</v>
+      </c>
+      <c r="D1337">
+        <v>968.8076698824086</v>
+      </c>
+      <c r="E1337">
+        <v>1127.861706603496</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5">
+      <c r="A1338" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C1338">
+        <v>1302.088305921488</v>
+      </c>
+      <c r="D1338">
+        <v>737.9240062147584</v>
+      </c>
+      <c r="E1338">
+        <v>1237.80364541136</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5">
+      <c r="A1339" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1339">
+        <v>1445.840538760869</v>
+      </c>
+      <c r="D1339">
+        <v>1080.042768649748</v>
+      </c>
+      <c r="E1339">
+        <v>1331.982962530564</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5">
+      <c r="A1340" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C1340">
+        <v>1582.743079093851</v>
+      </c>
+      <c r="D1340">
+        <v>1252.090289367128</v>
+      </c>
+      <c r="E1340">
+        <v>1533.115270905866</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5">
+      <c r="A1341" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1341">
+        <v>1726.743159656816</v>
+      </c>
+      <c r="D1341">
+        <v>1359.063442811528</v>
+      </c>
+      <c r="E1341">
+        <v>1683.666993922439</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5">
+      <c r="A1342" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1342">
+        <v>1428.809230769231</v>
+      </c>
+      <c r="D1342">
+        <v>1428.809230769231</v>
+      </c>
+      <c r="E1342">
+        <v>1428.809230769231</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5">
+      <c r="A1343" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1343">
+        <v>2102.6703977045</v>
+      </c>
+      <c r="D1343">
+        <v>1760.609975925202</v>
+      </c>
+      <c r="E1343">
+        <v>1809.839795870003</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5">
+      <c r="A1344" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C1344">
+        <v>3788.727532802663</v>
+      </c>
+      <c r="D1344">
+        <v>2474.73560370786</v>
+      </c>
+      <c r="E1344">
+        <v>2698.822167215445</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5">
+      <c r="A1345" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1345">
+        <v>3074.631726362805</v>
+      </c>
+      <c r="D1345">
+        <v>3188.705548284085</v>
+      </c>
+      <c r="E1345">
+        <v>3717.023999342228</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5">
+      <c r="A1346" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1346">
+        <v>4828.428207378184</v>
+      </c>
+      <c r="D1346">
+        <v>3735.540119259231</v>
+      </c>
+      <c r="E1346">
+        <v>4410.237486364563</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5">
+      <c r="A1347" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1347">
+        <v>5826.228298598702</v>
+      </c>
+      <c r="D1347">
+        <v>4425.95237011739</v>
+      </c>
+      <c r="E1347">
+        <v>5257.803389152012</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5">
+      <c r="A1348" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1348">
+        <v>6639.879244918206</v>
+      </c>
+      <c r="D1348">
+        <v>5070.603200464752</v>
+      </c>
+      <c r="E1348">
+        <v>6200.85085634606</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5">
+      <c r="A1349" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1349">
+        <v>1576.96538461539</v>
+      </c>
+      <c r="D1349">
+        <v>1576.96538461539</v>
+      </c>
+      <c r="E1349">
+        <v>1576.96538461539</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5">
+      <c r="A1350" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1350">
+        <v>975.6795323529259</v>
+      </c>
+      <c r="D1350">
+        <v>919.820731401365</v>
+      </c>
+      <c r="E1350">
+        <v>960.8075519291705</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5">
+      <c r="A1351" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C1351">
+        <v>1404.933704699554</v>
+      </c>
+      <c r="D1351">
+        <v>922.9296073851457</v>
+      </c>
+      <c r="E1351">
+        <v>1016.738753934479</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5">
+      <c r="A1352" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1352">
+        <v>1516.717976837524</v>
+      </c>
+      <c r="D1352">
+        <v>953.3933442698328</v>
+      </c>
+      <c r="E1352">
+        <v>1092.591282133534</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5">
+      <c r="A1353" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C1353">
+        <v>1625.484574696203</v>
+      </c>
+      <c r="D1353">
+        <v>1323.432459445603</v>
+      </c>
+      <c r="E1353">
+        <v>1503.415552571207</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5">
+      <c r="A1354" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1354">
+        <v>1259.439580478408</v>
+      </c>
+      <c r="D1354">
+        <v>1135.987028361564</v>
+      </c>
+      <c r="E1354">
+        <v>1277.267386420701</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5">
+      <c r="A1355" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1355">
+        <v>1620.014251913861</v>
+      </c>
+      <c r="D1355">
+        <v>1451.717545380984</v>
+      </c>
+      <c r="E1355">
+        <v>1607.173758411582</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5">
+      <c r="A1356" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1356">
+        <v>602.7807122350511</v>
+      </c>
+      <c r="D1356">
+        <v>602.7807122350511</v>
+      </c>
+      <c r="E1356">
+        <v>602.7807122350511</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5">
+      <c r="A1357" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C1357">
+        <v>246.5930381871003</v>
+      </c>
+      <c r="D1357">
+        <v>231.107566072486</v>
+      </c>
+      <c r="E1357">
+        <v>229.5713212517889</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5">
+      <c r="A1358" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C1358">
+        <v>690.6319568991595</v>
+      </c>
+      <c r="D1358">
+        <v>652.8539796601509</v>
+      </c>
+      <c r="E1358">
+        <v>633.4728725091418</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5">
+      <c r="A1359" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1359">
+        <v>755.2560772845957</v>
+      </c>
+      <c r="D1359">
+        <v>723.3221898298146</v>
+      </c>
+      <c r="E1359">
+        <v>702.9725136239692</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5">
+      <c r="A1360" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C1360">
+        <v>816.9465070503459</v>
+      </c>
+      <c r="D1360">
+        <v>768.9978515973887</v>
+      </c>
+      <c r="E1360">
+        <v>755.302046763382</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5">
+      <c r="A1361" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1361">
+        <v>359.2916795578162</v>
+      </c>
+      <c r="D1361">
+        <v>341.5903470592399</v>
+      </c>
+      <c r="E1361">
+        <v>354.2144696397836</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5">
+      <c r="A1362" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C1362">
+        <v>759.2398982393918</v>
+      </c>
+      <c r="D1362">
+        <v>775.7991383656574</v>
+      </c>
+      <c r="E1362">
+        <v>794.6521661413706</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5">
+      <c r="A1363" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1363">
+        <v>1818.09126373626</v>
+      </c>
+      <c r="D1363">
+        <v>1818.09126373626</v>
+      </c>
+      <c r="E1363">
+        <v>1818.09126373626</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5">
+      <c r="A1364" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1364">
+        <v>1260.729434434855</v>
+      </c>
+      <c r="D1364">
+        <v>1226.42113994944</v>
+      </c>
+      <c r="E1364">
+        <v>1253.809067873977</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5">
+      <c r="A1365" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1365">
+        <v>1619.612977474227</v>
+      </c>
+      <c r="D1365">
+        <v>1233.347357813677</v>
+      </c>
+      <c r="E1365">
+        <v>1300.326353687239</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5">
+      <c r="A1366" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1366">
+        <v>1673.249884476855</v>
+      </c>
+      <c r="D1366">
+        <v>1261.146512517397</v>
+      </c>
+      <c r="E1366">
+        <v>1365.010334414081</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5">
+      <c r="A1367" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1367">
+        <v>2382.436570762291</v>
+      </c>
+      <c r="D1367">
+        <v>1913.041041903049</v>
+      </c>
+      <c r="E1367">
+        <v>2206.583020548673</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5">
+      <c r="A1368" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1368">
+        <v>2699.107471842634</v>
+      </c>
+      <c r="D1368">
+        <v>2307.138845556388</v>
+      </c>
+      <c r="E1368">
+        <v>2625.646940425723</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5">
+      <c r="A1369" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1369">
+        <v>3148.55196406817</v>
+      </c>
+      <c r="D1369">
+        <v>2656.827739240464</v>
+      </c>
+      <c r="E1369">
+        <v>3037.793540262473</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5">
+      <c r="A1370" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1370">
+        <v>6431.713901098905</v>
+      </c>
+      <c r="D1370">
+        <v>6431.713901098905</v>
+      </c>
+      <c r="E1370">
+        <v>6431.713901098905</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5">
+      <c r="A1371" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C1371">
+        <v>6086.52707113436</v>
+      </c>
+      <c r="D1371">
+        <v>5767.509912502785</v>
+      </c>
+      <c r="E1371">
+        <v>5966.035018703476</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5">
+      <c r="A1372" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C1372">
+        <v>6789.767343617676</v>
+      </c>
+      <c r="D1372">
+        <v>3856.948419966771</v>
+      </c>
+      <c r="E1372">
+        <v>6309.113333309292</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5">
+      <c r="A1373" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1373">
+        <v>7399.033836992582</v>
+      </c>
+      <c r="D1373">
+        <v>6056.87922103234</v>
+      </c>
+      <c r="E1373">
+        <v>6751.842565378105</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5">
+      <c r="A1374" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C1374">
+        <v>8265.166007895998</v>
+      </c>
+      <c r="D1374">
+        <v>6283.481745491705</v>
+      </c>
+      <c r="E1374">
+        <v>7238.642071175259</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5">
+      <c r="A1375" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1375">
+        <v>8778.321408289441</v>
+      </c>
+      <c r="D1375">
+        <v>7003.602109128409</v>
+      </c>
+      <c r="E1375">
+        <v>8196.656975315738</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5">
+      <c r="A1376" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C1376">
+        <v>9857.388142244337</v>
+      </c>
+      <c r="D1376">
+        <v>7383.895405492633</v>
+      </c>
+      <c r="E1376">
+        <v>9117.43646116608</v>
       </c>
     </row>
   </sheetData>

--- a/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
+++ b/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1397">
   <si>
     <t>2020</t>
   </si>
@@ -5301,14 +5301,14 @@
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
+      <c r="C46" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6729,11 +6729,11 @@
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C148" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1388</v>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
       </c>
       <c r="E148">
         <v>129.4654903995849</v>
@@ -8619,14 +8619,14 @@
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C283" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D283" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1388</v>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8706,11 +8706,11 @@
       <c r="C289">
         <v>0.8743169398907104</v>
       </c>
-      <c r="D289" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E289" t="s">
-        <v>1388</v>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8748,11 +8748,11 @@
       <c r="C292">
         <v>0.8686210640608035</v>
       </c>
-      <c r="D292" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1388</v>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8835,8 +8835,8 @@
       <c r="D298">
         <v>1.326086956521744</v>
       </c>
-      <c r="E298" t="s">
-        <v>1388</v>
+      <c r="E298">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5">

--- a/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
+++ b/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
@@ -100,22 +100,22 @@
     <t>taz_num_count</t>
   </si>
   <si>
-    <t>percentage growth pop 2020-2025</t>
-  </si>
-  <si>
-    <t>percentage growth pop 2025-2030</t>
-  </si>
-  <si>
-    <t>percentage growth pop 2030-2035</t>
-  </si>
-  <si>
-    <t>percentage growth pop 2035-2040</t>
-  </si>
-  <si>
-    <t>percentage growth pop 2040-2045</t>
-  </si>
-  <si>
-    <t>percentage growth pop 2045-2050</t>
+    <t>percentage growth pop_without_dorms_yeshiva 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth pop_without_dorms_yeshiva 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth pop_without_dorms_yeshiva 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth pop_without_dorms_yeshiva 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth pop_without_dorms_yeshiva 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth pop_without_dorms_yeshiva 2045-2050</t>
   </si>
   <si>
     <t>percentage growth univ 2020-2025</t>

--- a/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
+++ b/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1509">
   <si>
     <t>2020</t>
   </si>
@@ -4193,6 +4193,342 @@
   </si>
   <si>
     <t>total_emp at שומרון in 2050</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at 0 in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at 0 in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at א-טור in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at א-טור in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at אבו טור סילוא in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at אבו טור סילוא in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at אזור תעשיה גב in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at אזור תעשיה גב in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at אזור תעשיה עט in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at אזור תעשיה עט in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at בית הכרם in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at בית הכרם in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at בית צפפא,שרפת in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at בית צפפא,שרפת in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at בקעה מושבות in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at בקעה מושבות in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at גבעת המטוס in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at גבעת המטוס in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at גבעת משואה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at גבעת משואה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at גילה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at גילה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הגבעה הצרפתי in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הגבעה הצרפתי in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at העיר העתיקה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at העיר העתיקה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הקריות של ירו in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הקריות של ירו in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הר החוצבים in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הר החוצבים in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הר הצופים in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הר הצופים in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הר נוף in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at הר נוף in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at חומת שמואל - ה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at חומת שמואל - ה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at חומת שמואל-מע in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at חומת שמואל-מע in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at טלביה רחביה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at טלביה רחביה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at יובלים גנים in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at יובלים גנים in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at כניסה לעיר in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at כניסה לעיר in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at כניסה לעיר - ק in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at כניסה לעיר - ק in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at כפר עקב in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at כפר עקב in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מורשה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מורשה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מחנה שועפט in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מחנה שועפט in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מנחת - מלחה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מנחת - מלחה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מעלות דפנה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מעלות דפנה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מער in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מער in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מער חרדי in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מער חרדי in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מער מזרח ואדי in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מער מזרח ואדי in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מקור ברוך in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מקור ברוך in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מרכז רפואי הד in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at מרכז רפואי הד in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at נוה יעקב in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at נוה יעקב in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at נחלאות שערי ח in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at נחלאות שערי ח in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at ניות -גבעת מר in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at ניות -גבעת מר in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at סנהדריה רמת א in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at סנהדריה רמת א in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at עין כרם in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at עין כרם in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at עיסאוויה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at עיסאוויה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at פסגת זאב in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at פסגת זאב in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at פת - קטמונים in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at פת - קטמונים in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at צור באהר מורח in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at צור באהר מורח in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at קטמון הישנה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at קטמון הישנה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at קריית הממשלה- in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at קריית הממשלה- in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at קריית משה -גב in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at קריית משה -גב in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at ראס אל עמד - ג' in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at ראס אל עמד - ג' in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רכס לבן in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רכס לבן in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רמות in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רמות in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רמת שלמה in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רמת שלמה in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רמת שרת - בית in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רמת שרת - בית in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רסקו in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at רסקו in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at שדה התעופה עט in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at שדה התעופה עט in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at שועפאט - בית in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at שועפאט - בית in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at תלפיות in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at תלפיות in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at תלפיות ארנונ in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at תלפיות ארנונ in 2025</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at תלפיות מזרח in 2020</t>
+  </si>
+  <si>
+    <t>pop division emp_okev at תלפיות מזרח in 2025</t>
   </si>
   <si>
     <t>1,758,461</t>
@@ -4604,7 +4940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1376"/>
+  <dimension ref="A1:E1488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4629,16 +4965,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1379</v>
+        <v>1491</v>
       </c>
       <c r="C2" t="s">
-        <v>1379</v>
+        <v>1491</v>
       </c>
       <c r="D2" t="s">
-        <v>1379</v>
+        <v>1491</v>
       </c>
       <c r="E2" t="s">
-        <v>1379</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4646,13 +4982,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1384</v>
+        <v>1496</v>
       </c>
       <c r="D3" t="s">
-        <v>1389</v>
+        <v>1501</v>
       </c>
       <c r="E3" t="s">
-        <v>1393</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4660,16 +4996,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1380</v>
+        <v>1492</v>
       </c>
       <c r="C4" t="s">
-        <v>1380</v>
+        <v>1492</v>
       </c>
       <c r="D4" t="s">
-        <v>1380</v>
+        <v>1492</v>
       </c>
       <c r="E4" t="s">
-        <v>1380</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4677,13 +5013,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>1385</v>
+        <v>1497</v>
       </c>
       <c r="D5" t="s">
-        <v>1390</v>
+        <v>1502</v>
       </c>
       <c r="E5" t="s">
-        <v>1394</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4776,16 +5112,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>1381</v>
+        <v>1493</v>
       </c>
       <c r="C11" t="s">
-        <v>1381</v>
+        <v>1493</v>
       </c>
       <c r="D11" t="s">
-        <v>1381</v>
+        <v>1493</v>
       </c>
       <c r="E11" t="s">
-        <v>1381</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4793,13 +5129,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>1381</v>
+        <v>1493</v>
       </c>
       <c r="D12" t="s">
-        <v>1381</v>
+        <v>1493</v>
       </c>
       <c r="E12" t="s">
-        <v>1381</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4807,16 +5143,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1382</v>
+        <v>1494</v>
       </c>
       <c r="C13" t="s">
-        <v>1382</v>
+        <v>1494</v>
       </c>
       <c r="D13" t="s">
-        <v>1382</v>
+        <v>1494</v>
       </c>
       <c r="E13" t="s">
-        <v>1382</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4824,13 +5160,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1386</v>
+        <v>1498</v>
       </c>
       <c r="D14" t="s">
-        <v>1391</v>
+        <v>1503</v>
       </c>
       <c r="E14" t="s">
-        <v>1395</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4838,16 +5174,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>1383</v>
+        <v>1495</v>
       </c>
       <c r="C15" t="s">
-        <v>1383</v>
+        <v>1495</v>
       </c>
       <c r="D15" t="s">
-        <v>1383</v>
+        <v>1495</v>
       </c>
       <c r="E15" t="s">
-        <v>1383</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4855,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>1387</v>
+        <v>1499</v>
       </c>
       <c r="D16" t="s">
-        <v>1392</v>
+        <v>1504</v>
       </c>
       <c r="E16" t="s">
-        <v>1396</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5302,13 +5638,13 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>1388</v>
+        <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>1388</v>
+        <v>1500</v>
       </c>
       <c r="E46" t="s">
-        <v>1388</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -23929,6 +24265,1574 @@
       </c>
       <c r="E1376">
         <v>9117.43646116608</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5">
+      <c r="A1377" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C1377">
+        <v>10.61797177433101</v>
+      </c>
+      <c r="D1377">
+        <v>10.61797177433101</v>
+      </c>
+      <c r="E1377">
+        <v>10.61797177433101</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5">
+      <c r="A1378" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C1378">
+        <v>48.66136791876972</v>
+      </c>
+      <c r="D1378">
+        <v>50.26030791605782</v>
+      </c>
+      <c r="E1378">
+        <v>49.7684289776571</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5">
+      <c r="A1379" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1379">
+        <v>8.879335743536435</v>
+      </c>
+      <c r="D1379">
+        <v>8.879335743536435</v>
+      </c>
+      <c r="E1379">
+        <v>8.879335743536435</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5">
+      <c r="A1380" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C1380">
+        <v>8.97809595681324</v>
+      </c>
+      <c r="D1380">
+        <v>8.97809595681324</v>
+      </c>
+      <c r="E1380">
+        <v>8.978095956813242</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5">
+      <c r="A1381" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C1381">
+        <v>10.48817622266559</v>
+      </c>
+      <c r="D1381">
+        <v>10.48817622266559</v>
+      </c>
+      <c r="E1381">
+        <v>10.48817622266559</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5">
+      <c r="A1382" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C1382">
+        <v>10.64197920075806</v>
+      </c>
+      <c r="D1382">
+        <v>10.65733287027282</v>
+      </c>
+      <c r="E1382">
+        <v>10.65123788087779</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5">
+      <c r="A1383" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1383">
+        <v>0</v>
+      </c>
+      <c r="D1383">
+        <v>0</v>
+      </c>
+      <c r="E1383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5">
+      <c r="A1384" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1384">
+        <v>0</v>
+      </c>
+      <c r="D1384">
+        <v>0</v>
+      </c>
+      <c r="E1384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5">
+      <c r="A1385" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C1385">
+        <v>0</v>
+      </c>
+      <c r="D1385">
+        <v>0</v>
+      </c>
+      <c r="E1385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5">
+      <c r="A1386" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1386">
+        <v>0</v>
+      </c>
+      <c r="D1386">
+        <v>0</v>
+      </c>
+      <c r="E1386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5">
+      <c r="A1387" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C1387">
+        <v>7.124781198522624</v>
+      </c>
+      <c r="D1387">
+        <v>7.124781198522624</v>
+      </c>
+      <c r="E1387">
+        <v>7.124781198522624</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5">
+      <c r="A1388" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1388">
+        <v>7.308352879444294</v>
+      </c>
+      <c r="D1388">
+        <v>6.891837625228979</v>
+      </c>
+      <c r="E1388">
+        <v>6.961116780234643</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5">
+      <c r="A1389" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1389">
+        <v>11.71001852449868</v>
+      </c>
+      <c r="D1389">
+        <v>11.71001852449868</v>
+      </c>
+      <c r="E1389">
+        <v>11.71001852449868</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5">
+      <c r="A1390" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C1390">
+        <v>11.90347984974643</v>
+      </c>
+      <c r="D1390">
+        <v>11.90347984974643</v>
+      </c>
+      <c r="E1390">
+        <v>11.90347984974643</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5">
+      <c r="A1391" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C1391">
+        <v>22.00711043041655</v>
+      </c>
+      <c r="D1391">
+        <v>22.00711043041655</v>
+      </c>
+      <c r="E1391">
+        <v>22.00711043041655</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5">
+      <c r="A1392" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1392">
+        <v>22.15309767411908</v>
+      </c>
+      <c r="D1392">
+        <v>22.95406507450567</v>
+      </c>
+      <c r="E1392">
+        <v>22.69873846913899</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5">
+      <c r="A1393" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C1393">
+        <v>0</v>
+      </c>
+      <c r="D1393">
+        <v>0</v>
+      </c>
+      <c r="E1393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5">
+      <c r="A1394" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C1394">
+        <v>0</v>
+      </c>
+      <c r="D1394">
+        <v>0</v>
+      </c>
+      <c r="E1394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5">
+      <c r="A1395" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C1395">
+        <v>5.585780140371284</v>
+      </c>
+      <c r="D1395">
+        <v>5.585780140371284</v>
+      </c>
+      <c r="E1395">
+        <v>5.585780140371284</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5">
+      <c r="A1396" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1396">
+        <v>6.280991735537189</v>
+      </c>
+      <c r="D1396">
+        <v>6.28099173553719</v>
+      </c>
+      <c r="E1396">
+        <v>6.28099173553719</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5">
+      <c r="A1397" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C1397">
+        <v>5.351811824539101</v>
+      </c>
+      <c r="D1397">
+        <v>5.351811824539101</v>
+      </c>
+      <c r="E1397">
+        <v>5.351811824539101</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5">
+      <c r="A1398" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1398">
+        <v>5.728047129564301</v>
+      </c>
+      <c r="D1398">
+        <v>5.72773368218265</v>
+      </c>
+      <c r="E1398">
+        <v>5.727903274549295</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5">
+      <c r="A1399" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C1399">
+        <v>39.23725427102401</v>
+      </c>
+      <c r="D1399">
+        <v>39.23725427102401</v>
+      </c>
+      <c r="E1399">
+        <v>39.23725427102401</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5">
+      <c r="A1400" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1400">
+        <v>40.49165572956781</v>
+      </c>
+      <c r="D1400">
+        <v>40.94104047252055</v>
+      </c>
+      <c r="E1400">
+        <v>40.93406273939863</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5">
+      <c r="A1401" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C1401">
+        <v>0</v>
+      </c>
+      <c r="D1401">
+        <v>0</v>
+      </c>
+      <c r="E1401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5">
+      <c r="A1402" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1402">
+        <v>0</v>
+      </c>
+      <c r="D1402">
+        <v>0</v>
+      </c>
+      <c r="E1402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5">
+      <c r="A1403" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C1403">
+        <v>20.70118699601915</v>
+      </c>
+      <c r="D1403">
+        <v>20.70118699601915</v>
+      </c>
+      <c r="E1403">
+        <v>20.70118699601915</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5">
+      <c r="A1404" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C1404">
+        <v>24.91431893195359</v>
+      </c>
+      <c r="D1404">
+        <v>24.91280982354486</v>
+      </c>
+      <c r="E1404">
+        <v>24.91152165368718</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5">
+      <c r="A1405" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C1405">
+        <v>0</v>
+      </c>
+      <c r="D1405">
+        <v>0</v>
+      </c>
+      <c r="E1405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5">
+      <c r="A1406" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C1406">
+        <v>0</v>
+      </c>
+      <c r="D1406">
+        <v>0</v>
+      </c>
+      <c r="E1406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5">
+      <c r="A1407" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1407">
+        <v>0</v>
+      </c>
+      <c r="D1407">
+        <v>0</v>
+      </c>
+      <c r="E1407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5">
+      <c r="A1408" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C1408">
+        <v>0</v>
+      </c>
+      <c r="D1408">
+        <v>0</v>
+      </c>
+      <c r="E1408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5">
+      <c r="A1409" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C1409">
+        <v>14.66547261650109</v>
+      </c>
+      <c r="D1409">
+        <v>14.66547261650109</v>
+      </c>
+      <c r="E1409">
+        <v>14.66547261650109</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5">
+      <c r="A1410" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C1410">
+        <v>15.1941214789956</v>
+      </c>
+      <c r="D1410">
+        <v>15.1941214789956</v>
+      </c>
+      <c r="E1410">
+        <v>15.1941214789956</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5">
+      <c r="A1411" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1411">
+        <v>6.944442962067281</v>
+      </c>
+      <c r="D1411">
+        <v>6.944442962067281</v>
+      </c>
+      <c r="E1411">
+        <v>6.944442962067281</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5">
+      <c r="A1412" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C1412">
+        <v>6.942148760330578</v>
+      </c>
+      <c r="D1412">
+        <v>6.942148760330582</v>
+      </c>
+      <c r="E1412">
+        <v>6.942148760330578</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5">
+      <c r="A1413" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1413">
+        <v>0</v>
+      </c>
+      <c r="D1413">
+        <v>0</v>
+      </c>
+      <c r="E1413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5">
+      <c r="A1414" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C1414">
+        <v>0</v>
+      </c>
+      <c r="D1414">
+        <v>0</v>
+      </c>
+      <c r="E1414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5">
+      <c r="A1415" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1415">
+        <v>7.347476667204568</v>
+      </c>
+      <c r="D1415">
+        <v>7.347476667204568</v>
+      </c>
+      <c r="E1415">
+        <v>7.347476667204568</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5">
+      <c r="A1416" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1416">
+        <v>6.738142506191168</v>
+      </c>
+      <c r="D1416">
+        <v>6.717886164423779</v>
+      </c>
+      <c r="E1416">
+        <v>6.718213713655519</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5">
+      <c r="A1417" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C1417">
+        <v>5.202732404265584</v>
+      </c>
+      <c r="D1417">
+        <v>5.202732404265584</v>
+      </c>
+      <c r="E1417">
+        <v>5.202732404265584</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5">
+      <c r="A1418" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C1418">
+        <v>5.692485246231844</v>
+      </c>
+      <c r="D1418">
+        <v>5.689438851389011</v>
+      </c>
+      <c r="E1418">
+        <v>5.68618828405399</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5">
+      <c r="A1419" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C1419">
+        <v>0</v>
+      </c>
+      <c r="D1419">
+        <v>0</v>
+      </c>
+      <c r="E1419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5">
+      <c r="A1420" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C1420">
+        <v>0</v>
+      </c>
+      <c r="D1420">
+        <v>0</v>
+      </c>
+      <c r="E1420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5">
+      <c r="A1421" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1421">
+        <v>91.24879455885682</v>
+      </c>
+      <c r="D1421">
+        <v>91.24879455885682</v>
+      </c>
+      <c r="E1421">
+        <v>91.24879455885682</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5">
+      <c r="A1422" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C1422">
+        <v>90.56489963902756</v>
+      </c>
+      <c r="D1422">
+        <v>91.28950915822267</v>
+      </c>
+      <c r="E1422">
+        <v>91.39560998488896</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5">
+      <c r="A1423" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1423">
+        <v>12.08791208791209</v>
+      </c>
+      <c r="D1423">
+        <v>12.08791208791209</v>
+      </c>
+      <c r="E1423">
+        <v>12.08791208791209</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5">
+      <c r="A1424" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C1424">
+        <v>11.78516286509618</v>
+      </c>
+      <c r="D1424">
+        <v>11.78516286509618</v>
+      </c>
+      <c r="E1424">
+        <v>11.78516286509618</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5">
+      <c r="A1425" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1425">
+        <v>0</v>
+      </c>
+      <c r="D1425">
+        <v>0</v>
+      </c>
+      <c r="E1425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5">
+      <c r="A1426" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C1426">
+        <v>0</v>
+      </c>
+      <c r="D1426">
+        <v>0</v>
+      </c>
+      <c r="E1426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5">
+      <c r="A1427" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1427">
+        <v>11.74716806238538</v>
+      </c>
+      <c r="D1427">
+        <v>11.74716806238538</v>
+      </c>
+      <c r="E1427">
+        <v>11.74716806238538</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5">
+      <c r="A1428" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C1428">
+        <v>11.44824005909651</v>
+      </c>
+      <c r="D1428">
+        <v>11.44704172880582</v>
+      </c>
+      <c r="E1428">
+        <v>11.44705978651874</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5">
+      <c r="A1429" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C1429">
+        <v>6.832876037424109</v>
+      </c>
+      <c r="D1429">
+        <v>6.832876037424109</v>
+      </c>
+      <c r="E1429">
+        <v>6.832876037424109</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5">
+      <c r="A1430" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C1430">
+        <v>7.767185784048269</v>
+      </c>
+      <c r="D1430">
+        <v>7.767185784048263</v>
+      </c>
+      <c r="E1430">
+        <v>7.767185784048269</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5">
+      <c r="A1431" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C1431">
+        <v>18.77653961963095</v>
+      </c>
+      <c r="D1431">
+        <v>18.77653961963095</v>
+      </c>
+      <c r="E1431">
+        <v>18.77653961963095</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5">
+      <c r="A1432" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C1432">
+        <v>19.44024615580287</v>
+      </c>
+      <c r="D1432">
+        <v>19.31312751089166</v>
+      </c>
+      <c r="E1432">
+        <v>19.32225336826691</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5">
+      <c r="A1433" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1433">
+        <v>0</v>
+      </c>
+      <c r="D1433">
+        <v>0</v>
+      </c>
+      <c r="E1433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5">
+      <c r="A1434" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C1434">
+        <v>0</v>
+      </c>
+      <c r="D1434">
+        <v>0</v>
+      </c>
+      <c r="E1434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5">
+      <c r="A1435" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C1435">
+        <v>32.70664157449798</v>
+      </c>
+      <c r="D1435">
+        <v>32.70664157449798</v>
+      </c>
+      <c r="E1435">
+        <v>32.70664157449798</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5">
+      <c r="A1436" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C1436">
+        <v>35.5682969497193</v>
+      </c>
+      <c r="D1436">
+        <v>35.34646507018998</v>
+      </c>
+      <c r="E1436">
+        <v>35.39803257083106</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5">
+      <c r="A1437" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C1437">
+        <v>0</v>
+      </c>
+      <c r="D1437">
+        <v>0</v>
+      </c>
+      <c r="E1437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5">
+      <c r="A1438" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1438">
+        <v>0</v>
+      </c>
+      <c r="D1438">
+        <v>0</v>
+      </c>
+      <c r="E1438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5">
+      <c r="A1439" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1439">
+        <v>0</v>
+      </c>
+      <c r="D1439">
+        <v>0</v>
+      </c>
+      <c r="E1439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5">
+      <c r="A1440" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C1440">
+        <v>0</v>
+      </c>
+      <c r="D1440">
+        <v>0</v>
+      </c>
+      <c r="E1440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5">
+      <c r="A1441" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1441">
+        <v>0</v>
+      </c>
+      <c r="D1441">
+        <v>0</v>
+      </c>
+      <c r="E1441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5">
+      <c r="A1442" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C1442">
+        <v>0</v>
+      </c>
+      <c r="D1442">
+        <v>0</v>
+      </c>
+      <c r="E1442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5">
+      <c r="A1443" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C1443">
+        <v>16.39725505146778</v>
+      </c>
+      <c r="D1443">
+        <v>16.39725505146778</v>
+      </c>
+      <c r="E1443">
+        <v>16.39725505146778</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5">
+      <c r="A1444" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C1444">
+        <v>18.45514042445038</v>
+      </c>
+      <c r="D1444">
+        <v>18.49033157702685</v>
+      </c>
+      <c r="E1444">
+        <v>18.48548096986664</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5">
+      <c r="A1445" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1445">
+        <v>102.0295600503881</v>
+      </c>
+      <c r="D1445">
+        <v>102.0295600503881</v>
+      </c>
+      <c r="E1445">
+        <v>102.0295600503881</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5">
+      <c r="A1446" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C1446">
+        <v>113.8681090059341</v>
+      </c>
+      <c r="D1446">
+        <v>115.1956358320139</v>
+      </c>
+      <c r="E1446">
+        <v>118.8240836730507</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5">
+      <c r="A1447" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C1447">
+        <v>5.945316652078143</v>
+      </c>
+      <c r="D1447">
+        <v>5.945316652078143</v>
+      </c>
+      <c r="E1447">
+        <v>5.945316652078143</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5">
+      <c r="A1448" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C1448">
+        <v>6.942148760330579</v>
+      </c>
+      <c r="D1448">
+        <v>6.942148760330581</v>
+      </c>
+      <c r="E1448">
+        <v>6.942148760330581</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5">
+      <c r="A1449" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C1449">
+        <v>13.74233004967821</v>
+      </c>
+      <c r="D1449">
+        <v>13.74233004967821</v>
+      </c>
+      <c r="E1449">
+        <v>13.74233004967821</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5">
+      <c r="A1450" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1450">
+        <v>16.76729304575607</v>
+      </c>
+      <c r="D1450">
+        <v>16.670043633783</v>
+      </c>
+      <c r="E1450">
+        <v>16.49860679659169</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5">
+      <c r="A1451" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1451">
+        <v>4.505540946656641</v>
+      </c>
+      <c r="D1451">
+        <v>4.505540946656641</v>
+      </c>
+      <c r="E1451">
+        <v>4.505540946656641</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5">
+      <c r="A1452" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1452">
+        <v>4.753474830954171</v>
+      </c>
+      <c r="D1452">
+        <v>4.75347483095417</v>
+      </c>
+      <c r="E1452">
+        <v>4.753474830954172</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5">
+      <c r="A1453" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C1453">
+        <v>10.99870325494772</v>
+      </c>
+      <c r="D1453">
+        <v>10.99870325494772</v>
+      </c>
+      <c r="E1453">
+        <v>10.99870325494772</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5">
+      <c r="A1454" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1454">
+        <v>11.16113328814083</v>
+      </c>
+      <c r="D1454">
+        <v>11.16113328814083</v>
+      </c>
+      <c r="E1454">
+        <v>11.16113328814084</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5">
+      <c r="A1455" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1455">
+        <v>7.457743220880475</v>
+      </c>
+      <c r="D1455">
+        <v>7.457743220880475</v>
+      </c>
+      <c r="E1455">
+        <v>7.457743220880475</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5">
+      <c r="A1456" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C1456">
+        <v>7.623295056673723</v>
+      </c>
+      <c r="D1456">
+        <v>7.64009813006245</v>
+      </c>
+      <c r="E1456">
+        <v>7.636071415732046</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5">
+      <c r="A1457" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C1457">
+        <v>5.811428131537058</v>
+      </c>
+      <c r="D1457">
+        <v>5.811428131537058</v>
+      </c>
+      <c r="E1457">
+        <v>5.811428131537058</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5">
+      <c r="A1458" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C1458">
+        <v>6.172487281127843</v>
+      </c>
+      <c r="D1458">
+        <v>6.099233051633656</v>
+      </c>
+      <c r="E1458">
+        <v>6.119577814703307</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5">
+      <c r="A1459" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C1459">
+        <v>9.504076162580008</v>
+      </c>
+      <c r="D1459">
+        <v>9.504076162580008</v>
+      </c>
+      <c r="E1459">
+        <v>9.504076162580008</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5">
+      <c r="A1460" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C1460">
+        <v>9.552561591347882</v>
+      </c>
+      <c r="D1460">
+        <v>9.552347929157344</v>
+      </c>
+      <c r="E1460">
+        <v>9.552350672556532</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5">
+      <c r="A1461" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C1461">
+        <v>3.956323603879162</v>
+      </c>
+      <c r="D1461">
+        <v>3.956323603879162</v>
+      </c>
+      <c r="E1461">
+        <v>3.956323603879162</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5">
+      <c r="A1462" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C1462">
+        <v>4.171014397564975</v>
+      </c>
+      <c r="D1462">
+        <v>4.172972218938142</v>
+      </c>
+      <c r="E1462">
+        <v>4.172428755729251</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5">
+      <c r="A1463" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C1463">
+        <v>0</v>
+      </c>
+      <c r="D1463">
+        <v>0</v>
+      </c>
+      <c r="E1463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5">
+      <c r="A1464" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C1464">
+        <v>0</v>
+      </c>
+      <c r="D1464">
+        <v>0</v>
+      </c>
+      <c r="E1464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5">
+      <c r="A1465" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C1465">
+        <v>221.3329223895845</v>
+      </c>
+      <c r="D1465">
+        <v>221.3329223895845</v>
+      </c>
+      <c r="E1465">
+        <v>221.3329223895845</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5">
+      <c r="A1466" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C1466">
+        <v>237.4078039230274</v>
+      </c>
+      <c r="D1466">
+        <v>230.1613518100752</v>
+      </c>
+      <c r="E1466">
+        <v>234.523447818702</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5">
+      <c r="A1467" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C1467">
+        <v>10.47478667238044</v>
+      </c>
+      <c r="D1467">
+        <v>10.47478667238044</v>
+      </c>
+      <c r="E1467">
+        <v>10.47478667238044</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5">
+      <c r="A1468" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1468">
+        <v>10.38830448361933</v>
+      </c>
+      <c r="D1468">
+        <v>10.38663976374064</v>
+      </c>
+      <c r="E1468">
+        <v>10.38646121365346</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5">
+      <c r="A1469" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1469">
+        <v>0</v>
+      </c>
+      <c r="D1469">
+        <v>0</v>
+      </c>
+      <c r="E1469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5">
+      <c r="A1470" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1470">
+        <v>0</v>
+      </c>
+      <c r="D1470">
+        <v>0</v>
+      </c>
+      <c r="E1470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5">
+      <c r="A1471" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C1471">
+        <v>19.00032971832463</v>
+      </c>
+      <c r="D1471">
+        <v>19.00032971832463</v>
+      </c>
+      <c r="E1471">
+        <v>19.00032971832463</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5">
+      <c r="A1472" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C1472">
+        <v>19.4693353446468</v>
+      </c>
+      <c r="D1472">
+        <v>19.37580411701953</v>
+      </c>
+      <c r="E1472">
+        <v>19.24772766594151</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5">
+      <c r="A1473" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C1473">
+        <v>16.63789607831781</v>
+      </c>
+      <c r="D1473">
+        <v>16.63789607831781</v>
+      </c>
+      <c r="E1473">
+        <v>16.63789607831781</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5">
+      <c r="A1474" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C1474">
+        <v>19.27171326363419</v>
+      </c>
+      <c r="D1474">
+        <v>19.28558597677667</v>
+      </c>
+      <c r="E1474">
+        <v>19.28381182603322</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5">
+      <c r="A1475" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C1475">
+        <v>10.1945169955856</v>
+      </c>
+      <c r="D1475">
+        <v>10.1945169955856</v>
+      </c>
+      <c r="E1475">
+        <v>10.1945169955856</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5">
+      <c r="A1476" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C1476">
+        <v>11.15606071240911</v>
+      </c>
+      <c r="D1476">
+        <v>11.04595970731102</v>
+      </c>
+      <c r="E1476">
+        <v>10.92233902608439</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5">
+      <c r="A1477" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C1477">
+        <v>4.423537535334355</v>
+      </c>
+      <c r="D1477">
+        <v>4.423537535334355</v>
+      </c>
+      <c r="E1477">
+        <v>4.423537535334355</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5">
+      <c r="A1478" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C1478">
+        <v>4.318931062344308</v>
+      </c>
+      <c r="D1478">
+        <v>4.312667561891613</v>
+      </c>
+      <c r="E1478">
+        <v>4.313317859992234</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5">
+      <c r="A1479" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C1479">
+        <v>25.71537651982733</v>
+      </c>
+      <c r="D1479">
+        <v>25.71537651982733</v>
+      </c>
+      <c r="E1479">
+        <v>25.71537651982733</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5">
+      <c r="A1480" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C1480">
+        <v>28.19310963582926</v>
+      </c>
+      <c r="D1480">
+        <v>27.03759665161701</v>
+      </c>
+      <c r="E1480">
+        <v>26.71540738503945</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5">
+      <c r="A1481" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C1481">
+        <v>9.893383537176318</v>
+      </c>
+      <c r="D1481">
+        <v>9.893383537176318</v>
+      </c>
+      <c r="E1481">
+        <v>9.893383537176318</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5">
+      <c r="A1482" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C1482">
+        <v>9.956893577718436</v>
+      </c>
+      <c r="D1482">
+        <v>9.956915770717734</v>
+      </c>
+      <c r="E1482">
+        <v>9.956923310275558</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5">
+      <c r="A1483" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1483">
+        <v>0</v>
+      </c>
+      <c r="D1483">
+        <v>0</v>
+      </c>
+      <c r="E1483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5">
+      <c r="A1484" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C1484">
+        <v>0</v>
+      </c>
+      <c r="D1484">
+        <v>0</v>
+      </c>
+      <c r="E1484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5">
+      <c r="A1485" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C1485">
+        <v>9.000384485519868</v>
+      </c>
+      <c r="D1485">
+        <v>9.000384485519868</v>
+      </c>
+      <c r="E1485">
+        <v>9.000384485519868</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5">
+      <c r="A1486" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C1486">
+        <v>9.360846884237608</v>
+      </c>
+      <c r="D1486">
+        <v>9.382152700650103</v>
+      </c>
+      <c r="E1486">
+        <v>9.374972223665662</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5">
+      <c r="A1487" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C1487">
+        <v>4.816265316393286</v>
+      </c>
+      <c r="D1487">
+        <v>4.816265316393286</v>
+      </c>
+      <c r="E1487">
+        <v>4.816265316393286</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5">
+      <c r="A1488" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C1488">
+        <v>5.21737476075624</v>
+      </c>
+      <c r="D1488">
+        <v>5.207898905781394</v>
+      </c>
+      <c r="E1488">
+        <v>5.208887551814326</v>
       </c>
     </row>
   </sheetData>

--- a/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
+++ b/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="2033">
   <si>
     <t>2020</t>
   </si>
@@ -154,112 +154,112 @@
     <t>percentage growth student_yeshiva_and_kollim 2045-2050</t>
   </si>
   <si>
-    <t>percentage growth Arab 2020-2025</t>
-  </si>
-  <si>
-    <t>percentage growth Jewish 2020-2025</t>
-  </si>
-  <si>
-    <t>percentage growth Palestinian 2020-2025</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox 2020-2025</t>
-  </si>
-  <si>
-    <t>percentage growth arabs_behined_seperation_wall 2020-2025</t>
-  </si>
-  <si>
-    <t>percentage growth Arab 2025-2030</t>
-  </si>
-  <si>
-    <t>percentage growth Jewish 2025-2030</t>
-  </si>
-  <si>
-    <t>percentage growth Palestinian 2025-2030</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox 2025-2030</t>
-  </si>
-  <si>
-    <t>percentage growth arabs_behined_seperation_wall 2025-2030</t>
-  </si>
-  <si>
-    <t>percentage growth Arab 2030-2035</t>
-  </si>
-  <si>
-    <t>percentage growth Jewish 2030-2035</t>
-  </si>
-  <si>
-    <t>percentage growth Palestinian 2030-2035</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox 2030-2035</t>
-  </si>
-  <si>
-    <t>percentage growth arabs_behined_seperation_wall 2030-2035</t>
-  </si>
-  <si>
-    <t>percentage growth Arab 2035-2040</t>
-  </si>
-  <si>
-    <t>percentage growth Jewish 2035-2040</t>
-  </si>
-  <si>
-    <t>percentage growth Palestinian 2035-2040</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox 2035-2040</t>
-  </si>
-  <si>
-    <t>percentage growth arabs_behined_seperation_wall 2035-2040</t>
-  </si>
-  <si>
-    <t>percentage growth Arab 2040-2045</t>
-  </si>
-  <si>
-    <t>percentage growth Jewish 2040-2045</t>
-  </si>
-  <si>
-    <t>percentage growth Palestinian 2040-2045</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox 2040-2045</t>
-  </si>
-  <si>
-    <t>percentage growth arabs_behined_seperation_wall 2040-2045</t>
-  </si>
-  <si>
-    <t>percentage growth Arab 2045-2050</t>
-  </si>
-  <si>
-    <t>percentage growth Jewish 2045-2050</t>
-  </si>
-  <si>
-    <t>percentage growth Palestinian 2045-2050</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox 2045-2050</t>
-  </si>
-  <si>
-    <t>percentage growth arabs_behined_seperation_wall 2045-2050</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox age15_24 2020-2025</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox age15_24 2025-2030</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox age15_24 2030-2035</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox age15_24 2035-2040</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox age15_24 2040-2045</t>
-  </si>
-  <si>
-    <t>percentage growth U_Orthodox age15_24 2045-2050</t>
+    <t>percentage growth sector Arab 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth sector Jewish 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth sector Palestinian 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth sector U_Orthodox 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth sector arabs_behined_seperation_wall 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth sector Arab 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth sector Jewish 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth sector Palestinian 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth sector U_Orthodox 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth sector arabs_behined_seperation_wall 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth sector Arab 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth sector Jewish 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth sector Palestinian 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth sector U_Orthodox 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth sector arabs_behined_seperation_wall 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth sector Arab 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth sector Jewish 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth sector Palestinian 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth sector U_Orthodox 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth sector arabs_behined_seperation_wall 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth sector Arab 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth sector Jewish 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth sector Palestinian 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth sector U_Orthodox 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth sector arabs_behined_seperation_wall 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth sector Arab 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth sector Jewish 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth sector Palestinian 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth sector U_Orthodox 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth sector arabs_behined_seperation_wall 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth U_Orthodox age18_24 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth U_Orthodox age18_24 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth U_Orthodox age18_24 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth U_Orthodox age18_24 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth U_Orthodox age18_24 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth U_Orthodox age18_24 2045-2050</t>
   </si>
   <si>
     <t>percentage growth Arab age20_29 2020-2025</t>
@@ -3166,31 +3166,31 @@
     <t>emp_okev at הר אדר in 2050</t>
   </si>
   <si>
-    <t>emp_okev at הר חברון_x000D_
+    <t>emp_okev at הר חברון_x005F_x000D_
  in 2020</t>
   </si>
   <si>
-    <t>emp_okev at הר חברון_x000D_
+    <t>emp_okev at הר חברון_x005F_x000D_
  in 2025</t>
   </si>
   <si>
-    <t>emp_okev at הר חברון_x000D_
+    <t>emp_okev at הר חברון_x005F_x000D_
  in 2030</t>
   </si>
   <si>
-    <t>emp_okev at הר חברון_x000D_
+    <t>emp_okev at הר חברון_x005F_x000D_
  in 2035</t>
   </si>
   <si>
-    <t>emp_okev at הר חברון_x000D_
+    <t>emp_okev at הר חברון_x005F_x000D_
  in 2040</t>
   </si>
   <si>
-    <t>emp_okev at הר חברון_x000D_
+    <t>emp_okev at הר חברון_x005F_x000D_
  in 2045</t>
   </si>
   <si>
-    <t>emp_okev at הר חברון_x000D_
+    <t>emp_okev at הר חברון_x005F_x000D_
  in 2050</t>
   </si>
   <si>
@@ -3236,31 +3236,31 @@
     <t>emp_okev at מבשרת ציון in 2050</t>
   </si>
   <si>
-    <t>emp_okev at מגילות ים המלח_x000D_
+    <t>emp_okev at מגילות ים המלח_x005F_x000D_
  in 2020</t>
   </si>
   <si>
-    <t>emp_okev at מגילות ים המלח_x000D_
+    <t>emp_okev at מגילות ים המלח_x005F_x000D_
  in 2025</t>
   </si>
   <si>
-    <t>emp_okev at מגילות ים המלח_x000D_
+    <t>emp_okev at מגילות ים המלח_x005F_x000D_
  in 2030</t>
   </si>
   <si>
-    <t>emp_okev at מגילות ים המלח_x000D_
+    <t>emp_okev at מגילות ים המלח_x005F_x000D_
  in 2035</t>
   </si>
   <si>
-    <t>emp_okev at מגילות ים המלח_x000D_
+    <t>emp_okev at מגילות ים המלח_x005F_x000D_
  in 2040</t>
   </si>
   <si>
-    <t>emp_okev at מגילות ים המלח_x000D_
+    <t>emp_okev at מגילות ים המלח_x005F_x000D_
  in 2045</t>
   </si>
   <si>
-    <t>emp_okev at מגילות ים המלח_x000D_
+    <t>emp_okev at מגילות ים המלח_x005F_x000D_
  in 2050</t>
   </si>
   <si>
@@ -3411,31 +3411,31 @@
     <t>emp_okev at עמנואל in 2050</t>
   </si>
   <si>
-    <t>emp_okev at ערבות הירדן_x000D_
+    <t>emp_okev at ערבות הירדן_x005F_x000D_
  in 2020</t>
   </si>
   <si>
-    <t>emp_okev at ערבות הירדן_x000D_
+    <t>emp_okev at ערבות הירדן_x005F_x000D_
  in 2025</t>
   </si>
   <si>
-    <t>emp_okev at ערבות הירדן_x000D_
+    <t>emp_okev at ערבות הירדן_x005F_x000D_
  in 2030</t>
   </si>
   <si>
-    <t>emp_okev at ערבות הירדן_x000D_
+    <t>emp_okev at ערבות הירדן_x005F_x000D_
  in 2035</t>
   </si>
   <si>
-    <t>emp_okev at ערבות הירדן_x000D_
+    <t>emp_okev at ערבות הירדן_x005F_x000D_
  in 2040</t>
   </si>
   <si>
-    <t>emp_okev at ערבות הירדן_x000D_
+    <t>emp_okev at ערבות הירדן_x005F_x000D_
  in 2045</t>
   </si>
   <si>
-    <t>emp_okev at ערבות הירדן_x000D_
+    <t>emp_okev at ערבות הירדן_x005F_x000D_
  in 2050</t>
   </si>
   <si>
@@ -3817,31 +3817,31 @@
     <t>total_emp at הר אדר in 2050</t>
   </si>
   <si>
-    <t>total_emp at הר חברון_x000D_
+    <t>total_emp at הר חברון_x005F_x000D_
  in 2020</t>
   </si>
   <si>
-    <t>total_emp at הר חברון_x000D_
+    <t>total_emp at הר חברון_x005F_x000D_
  in 2025</t>
   </si>
   <si>
-    <t>total_emp at הר חברון_x000D_
+    <t>total_emp at הר חברון_x005F_x000D_
  in 2030</t>
   </si>
   <si>
-    <t>total_emp at הר חברון_x000D_
+    <t>total_emp at הר חברון_x005F_x000D_
  in 2035</t>
   </si>
   <si>
-    <t>total_emp at הר חברון_x000D_
+    <t>total_emp at הר חברון_x005F_x000D_
  in 2040</t>
   </si>
   <si>
-    <t>total_emp at הר חברון_x000D_
+    <t>total_emp at הר חברון_x005F_x000D_
  in 2045</t>
   </si>
   <si>
-    <t>total_emp at הר חברון_x000D_
+    <t>total_emp at הר חברון_x005F_x000D_
  in 2050</t>
   </si>
   <si>
@@ -3887,31 +3887,31 @@
     <t>total_emp at מבשרת ציון in 2050</t>
   </si>
   <si>
-    <t>total_emp at מגילות ים המלח_x000D_
+    <t>total_emp at מגילות ים המלח_x005F_x000D_
  in 2020</t>
   </si>
   <si>
-    <t>total_emp at מגילות ים המלח_x000D_
+    <t>total_emp at מגילות ים המלח_x005F_x000D_
  in 2025</t>
   </si>
   <si>
-    <t>total_emp at מגילות ים המלח_x000D_
+    <t>total_emp at מגילות ים המלח_x005F_x000D_
  in 2030</t>
   </si>
   <si>
-    <t>total_emp at מגילות ים המלח_x000D_
+    <t>total_emp at מגילות ים המלח_x005F_x000D_
  in 2035</t>
   </si>
   <si>
-    <t>total_emp at מגילות ים המלח_x000D_
+    <t>total_emp at מגילות ים המלח_x005F_x000D_
  in 2040</t>
   </si>
   <si>
-    <t>total_emp at מגילות ים המלח_x000D_
+    <t>total_emp at מגילות ים המלח_x005F_x000D_
  in 2045</t>
   </si>
   <si>
-    <t>total_emp at מגילות ים המלח_x000D_
+    <t>total_emp at מגילות ים המלח_x005F_x000D_
  in 2050</t>
   </si>
   <si>
@@ -4062,31 +4062,31 @@
     <t>total_emp at עמנואל in 2050</t>
   </si>
   <si>
-    <t>total_emp at ערבות הירדן_x000D_
+    <t>total_emp at ערבות הירדן_x005F_x000D_
  in 2020</t>
   </si>
   <si>
-    <t>total_emp at ערבות הירדן_x000D_
+    <t>total_emp at ערבות הירדן_x005F_x000D_
  in 2025</t>
   </si>
   <si>
-    <t>total_emp at ערבות הירדן_x000D_
+    <t>total_emp at ערבות הירדן_x005F_x000D_
  in 2030</t>
   </si>
   <si>
-    <t>total_emp at ערבות הירדן_x000D_
+    <t>total_emp at ערבות הירדן_x005F_x000D_
  in 2035</t>
   </si>
   <si>
-    <t>total_emp at ערבות הירדן_x000D_
+    <t>total_emp at ערבות הירדן_x005F_x000D_
  in 2040</t>
   </si>
   <si>
-    <t>total_emp at ערבות הירדן_x000D_
+    <t>total_emp at ערבות הירדן_x005F_x000D_
  in 2045</t>
   </si>
   <si>
-    <t>total_emp at ערבות הירדן_x000D_
+    <t>total_emp at ערבות הירדן_x005F_x000D_
  in 2050</t>
   </si>
   <si>
@@ -4529,6 +4529,1596 @@
   </si>
   <si>
     <t>pop division emp_okev at תלפיות מזרח in 2025</t>
+  </si>
+  <si>
+    <t>pop division total_emp in 2020</t>
+  </si>
+  <si>
+    <t>pop division total_emp in 2025</t>
+  </si>
+  <si>
+    <t>pop division total_emp in 2030</t>
+  </si>
+  <si>
+    <t>pop division total_emp in 2035</t>
+  </si>
+  <si>
+    <t>pop division total_emp in 2040</t>
+  </si>
+  <si>
+    <t>pop division total_emp in 2045</t>
+  </si>
+  <si>
+    <t>pop division total_emp in 2050</t>
+  </si>
+  <si>
+    <t>aprt division total_emp in 2020</t>
+  </si>
+  <si>
+    <t>aprt division total_emp in 2025</t>
+  </si>
+  <si>
+    <t>aprt division total_emp in 2030</t>
+  </si>
+  <si>
+    <t>aprt division total_emp in 2035</t>
+  </si>
+  <si>
+    <t>aprt division total_emp in 2040</t>
+  </si>
+  <si>
+    <t>aprt division total_emp in 2045</t>
+  </si>
+  <si>
+    <t>aprt division total_emp in 2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education 0 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education א-טור 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו טור סילוא 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה גב 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה עט 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית הכרם 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית צפפא,שרפת 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בקעה מושבות 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת המטוס 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת משואה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גילה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הגבעה הצרפתי 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education העיר העתיקה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הקריות של ירו 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר החוצבים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר הצופים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר נוף 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל - ה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל-מע 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education טלביה רחביה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education יובלים גנים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר - ק 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כפר עקב 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מורשה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מחנה שועפט 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מנחת - מלחה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלות דפנה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער חרדי 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער מזרח ואדי 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מקור ברוך 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מרכז רפואי הד 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נוה יעקב 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נחלאות שערי ח 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ניות -גבעת מר 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education סנהדריה רמת א 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עין כרם 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עיסאוויה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פסגת זאב 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פת - קטמונים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education צור באהר מורח 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קטמון הישנה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית הממשלה- 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית משה -גב 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ראס אל עמד - ג' 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רכס לבן 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמות 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שלמה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שרת - בית 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רסקו 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שדה התעופה עט 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שועפאט - בית 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות ארנונ 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות מזרח 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education 0 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education א-טור 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו טור סילוא 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה גב 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה עט 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית הכרם 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית צפפא,שרפת 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בקעה מושבות 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת המטוס 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת משואה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גילה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הגבעה הצרפתי 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education העיר העתיקה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הקריות של ירו 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר החוצבים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר הצופים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר נוף 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל - ה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל-מע 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education טלביה רחביה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education יובלים גנים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר - ק 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כפר עקב 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מורשה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מחנה שועפט 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מנחת - מלחה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלות דפנה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער חרדי 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער מזרח ואדי 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מקור ברוך 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מרכז רפואי הד 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נוה יעקב 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נחלאות שערי ח 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ניות -גבעת מר 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education סנהדריה רמת א 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עין כרם 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עיסאוויה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פסגת זאב 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פת - קטמונים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education צור באהר מורח 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קטמון הישנה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית הממשלה- 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית משה -גב 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ראס אל עמד - ג' 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רכס לבן 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמות 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שלמה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שרת - בית 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רסקו 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שדה התעופה עט 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שועפאט - בית 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות ארנונ 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות מזרח 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education 0 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education א-טור 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו טור סילוא 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה גב 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה עט 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית הכרם 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית צפפא,שרפת 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בקעה מושבות 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת המטוס 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת משואה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גילה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הגבעה הצרפתי 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education העיר העתיקה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הקריות של ירו 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר החוצבים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר הצופים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר נוף 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל - ה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל-מע 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education טלביה רחביה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education יובלים גנים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר - ק 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כפר עקב 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מורשה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מחנה שועפט 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מנחת - מלחה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלות דפנה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער חרדי 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער מזרח ואדי 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מקור ברוך 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מרכז רפואי הד 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נוה יעקב 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נחלאות שערי ח 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ניות -גבעת מר 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education סנהדריה רמת א 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עין כרם 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עיסאוויה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פסגת זאב 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פת - קטמונים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education צור באהר מורח 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קטמון הישנה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית הממשלה- 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית משה -גב 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ראס אל עמד - ג' 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רכס לבן 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמות 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שלמה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שרת - בית 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רסקו 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שדה התעופה עט 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שועפאט - בית 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות ארנונ 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות מזרח 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education 0 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education א-טור 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו טור סילוא 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה גב 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה עט 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית הכרם 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית צפפא,שרפת 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בקעה מושבות 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת המטוס 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת משואה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גילה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הגבעה הצרפתי 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education העיר העתיקה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הקריות של ירו 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר החוצבים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר הצופים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר נוף 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל - ה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל-מע 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education טלביה רחביה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education יובלים גנים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר - ק 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כפר עקב 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מורשה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מחנה שועפט 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מנחת - מלחה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלות דפנה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער חרדי 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער מזרח ואדי 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מקור ברוך 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מרכז רפואי הד 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נוה יעקב 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נחלאות שערי ח 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ניות -גבעת מר 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education סנהדריה רמת א 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עין כרם 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עיסאוויה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פסגת זאב 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פת - קטמונים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education צור באהר מורח 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קטמון הישנה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית הממשלה- 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית משה -גב 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ראס אל עמד - ג' 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רכס לבן 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמות 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שלמה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שרת - בית 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רסקו 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שדה התעופה עט 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שועפאט - בית 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות ארנונ 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות מזרח 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education 0 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education א-טור 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו טור סילוא 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה גב 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה עט 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית הכרם 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית צפפא,שרפת 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בקעה מושבות 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת המטוס 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת משואה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גילה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הגבעה הצרפתי 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education העיר העתיקה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הקריות של ירו 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר החוצבים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר הצופים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר נוף 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל - ה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל-מע 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education טלביה רחביה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education יובלים גנים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר - ק 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כפר עקב 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מורשה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מחנה שועפט 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מנחת - מלחה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלות דפנה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער חרדי 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער מזרח ואדי 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מקור ברוך 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מרכז רפואי הד 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נוה יעקב 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נחלאות שערי ח 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ניות -גבעת מר 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education סנהדריה רמת א 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עין כרם 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עיסאוויה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פסגת זאב 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פת - קטמונים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education צור באהר מורח 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קטמון הישנה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית הממשלה- 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית משה -גב 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ראס אל עמד - ג' 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רכס לבן 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמות 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שלמה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שרת - בית 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רסקו 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שדה התעופה עט 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שועפאט - בית 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות ארנונ 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות מזרח 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education 0 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education א-טור 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו טור סילוא 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה גב 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אזור תעשיה עט 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית הכרם 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית צפפא,שרפת 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בקעה מושבות 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת המטוס 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת משואה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גילה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הגבעה הצרפתי 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education העיר העתיקה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הקריות של ירו 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר החוצבים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר הצופים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר נוף 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל - ה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education חומת שמואל-מע 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education טלביה רחביה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education יובלים גנים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כניסה לעיר - ק 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education כפר עקב 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מורשה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מחנה שועפט 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מנחת - מלחה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלות דפנה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער חרדי 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מער מזרח ואדי 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מקור ברוך 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מרכז רפואי הד 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נוה יעקב 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education נחלאות שערי ח 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ניות -גבעת מר 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education סנהדריה רמת א 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עין כרם 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עיסאוויה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פסגת זאב 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education פת - קטמונים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education צור באהר מורח 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קטמון הישנה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית הממשלה- 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית משה -גב 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ראס אל עמד - ג' 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רכס לבן 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמות 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שלמה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רמת שרת - בית 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education רסקו 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שדה התעופה עט 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שועפאט - בית 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות ארנונ 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education תלפיות מזרח 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו גוש 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אורנית 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אלפי מנשה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אפרת 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אריאל 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אל 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אריה-עופרים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית שמש 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ביתר עילית 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת זאב 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גוש עציון 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר אדר 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר חברון_x005F_x000D_
+ 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ירושלים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מבשרת ציון 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מגילות ים המלח_x005F_x000D_
+ 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין - מכבים - רעות 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין עילית 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה בנימין 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה יהודה 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אדומים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אפרים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עמנואל 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ערבות הירדן_x005F_x000D_
+ 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קדומים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית ארבע 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרית יערים 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרני שומרון 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שומרון 2020-2025</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו גוש 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אורנית 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אלפי מנשה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אפרת 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אריאל 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אל 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אריה-עופרים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית שמש 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ביתר עילית 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת זאב 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גוש עציון 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר אדר 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר חברון_x005F_x000D_
+ 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ירושלים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מבשרת ציון 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מגילות ים המלח_x005F_x000D_
+ 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין - מכבים - רעות 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין עילית 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה בנימין 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה יהודה 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אדומים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אפרים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עמנואל 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ערבות הירדן_x005F_x000D_
+ 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קדומים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית ארבע 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרית יערים 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרני שומרון 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שומרון 2025-2030</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו גוש 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אורנית 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אלפי מנשה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אפרת 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אריאל 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אל 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אריה-עופרים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית שמש 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ביתר עילית 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת זאב 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גוש עציון 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר אדר 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר חברון_x005F_x000D_
+ 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ירושלים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מבשרת ציון 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מגילות ים המלח_x005F_x000D_
+ 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין - מכבים - רעות 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין עילית 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה בנימין 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה יהודה 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אדומים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אפרים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עמנואל 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ערבות הירדן_x005F_x000D_
+ 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קדומים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית ארבע 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרית יערים 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרני שומרון 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שומרון 2030-2035</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו גוש 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אורנית 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אלפי מנשה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אפרת 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אריאל 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אל 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אריה-עופרים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית שמש 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ביתר עילית 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת זאב 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גוש עציון 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר אדר 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר חברון_x005F_x000D_
+ 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ירושלים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מבשרת ציון 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מגילות ים המלח_x005F_x000D_
+ 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין - מכבים - רעות 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין עילית 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה בנימין 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה יהודה 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אדומים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אפרים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עמנואל 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ערבות הירדן_x005F_x000D_
+ 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קדומים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית ארבע 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרית יערים 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרני שומרון 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שומרון 2035-2040</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו גוש 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אורנית 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אלפי מנשה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אפרת 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אריאל 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אל 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אריה-עופרים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית שמש 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ביתר עילית 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת זאב 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גוש עציון 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר אדר 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר חברון_x005F_x000D_
+ 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ירושלים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מבשרת ציון 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מגילות ים המלח_x005F_x000D_
+ 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין - מכבים - רעות 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין עילית 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה בנימין 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה יהודה 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אדומים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אפרים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עמנואל 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ערבות הירדן_x005F_x000D_
+ 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קדומים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית ארבע 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרית יערים 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרני שומרון 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שומרון 2040-2045</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אבו גוש 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אורנית 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אלפי מנשה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אפרת 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education אריאל 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אל 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית אריה-עופרים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education בית שמש 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ביתר עילית 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גבעת זאב 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education גוש עציון 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר אדר 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education הר חברון_x005F_x000D_
+ 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ירושלים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מבשרת ציון 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מגילות ים המלח_x005F_x000D_
+ 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין - מכבים - רעות 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מודיעין עילית 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה בנימין 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מטה יהודה 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אדומים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education מעלה אפרים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education עמנואל 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education ערבות הירדן_x005F_x000D_
+ 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קדומים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קריית ארבע 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרית יערים 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education קרני שומרון 2045-2050</t>
+  </si>
+  <si>
+    <t>percentage growth emp education שומרון 2045-2050</t>
   </si>
   <si>
     <t>1,758,461</t>
@@ -4940,7 +6530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1488"/>
+  <dimension ref="A1:E2012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4965,16 +6555,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1491</v>
+        <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>1491</v>
+        <v>2015</v>
       </c>
       <c r="D2" t="s">
-        <v>1491</v>
+        <v>2015</v>
       </c>
       <c r="E2" t="s">
-        <v>1491</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4982,13 +6572,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1496</v>
+        <v>2020</v>
       </c>
       <c r="D3" t="s">
-        <v>1501</v>
+        <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>1505</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4996,16 +6586,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1492</v>
+        <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>1492</v>
+        <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>1492</v>
+        <v>2016</v>
       </c>
       <c r="E4" t="s">
-        <v>1492</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5013,13 +6603,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>1497</v>
+        <v>2021</v>
       </c>
       <c r="D5" t="s">
-        <v>1502</v>
+        <v>2026</v>
       </c>
       <c r="E5" t="s">
-        <v>1506</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5112,16 +6702,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>1493</v>
+        <v>2017</v>
       </c>
       <c r="C11" t="s">
-        <v>1493</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>1493</v>
+        <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>1493</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5129,13 +6719,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>1493</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>1493</v>
+        <v>2017</v>
       </c>
       <c r="E12" t="s">
-        <v>1493</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5143,16 +6733,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1494</v>
+        <v>2018</v>
       </c>
       <c r="C13" t="s">
-        <v>1494</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>1494</v>
+        <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>1494</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5160,13 +6750,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1498</v>
+        <v>2022</v>
       </c>
       <c r="D14" t="s">
-        <v>1503</v>
+        <v>2027</v>
       </c>
       <c r="E14" t="s">
-        <v>1507</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5174,16 +6764,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>1495</v>
+        <v>2019</v>
       </c>
       <c r="C15" t="s">
-        <v>1495</v>
+        <v>2019</v>
       </c>
       <c r="D15" t="s">
-        <v>1495</v>
+        <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>1495</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5191,13 +6781,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>1499</v>
+        <v>2023</v>
       </c>
       <c r="D16" t="s">
-        <v>1504</v>
+        <v>2028</v>
       </c>
       <c r="E16" t="s">
-        <v>1508</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5358,10 +6948,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>188.1410644079084</v>
+        <v>188.1410644079083</v>
       </c>
       <c r="D26">
-        <v>183.9696620191286</v>
+        <v>183.9696620191285</v>
       </c>
       <c r="E26">
         <v>185.6774324006336</v>
@@ -5638,13 +7228,13 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>1500</v>
+        <v>2024</v>
       </c>
       <c r="D46" t="s">
-        <v>1500</v>
+        <v>2024</v>
       </c>
       <c r="E46" t="s">
-        <v>1500</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6030,13 +7620,13 @@
         <v>76</v>
       </c>
       <c r="C74">
-        <v>42.09690954865545</v>
+        <v>41.54781713017986</v>
       </c>
       <c r="D74">
-        <v>40.43492538402597</v>
+        <v>37.86546232469693</v>
       </c>
       <c r="E74">
-        <v>43.61020907067537</v>
+        <v>41.29394131473998</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6044,13 +7634,13 @@
         <v>77</v>
       </c>
       <c r="C75">
-        <v>15.77758091643236</v>
+        <v>16.20276428907952</v>
       </c>
       <c r="D75">
-        <v>12.02811192808335</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="E75">
-        <v>15.17559404714267</v>
+        <v>14.76593805857682</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6058,13 +7648,13 @@
         <v>78</v>
       </c>
       <c r="C76">
-        <v>14.69593470691299</v>
+        <v>14.92200295449436</v>
       </c>
       <c r="D76">
-        <v>17.6768672379605</v>
+        <v>15.38038457406811</v>
       </c>
       <c r="E76">
-        <v>20.61501469704239</v>
+        <v>18.26719681746647</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -6072,13 +7662,13 @@
         <v>79</v>
       </c>
       <c r="C77">
-        <v>9.364742508254336</v>
+        <v>9.228582057359025</v>
       </c>
       <c r="D77">
-        <v>16.96278121027581</v>
+        <v>18.89400750040033</v>
       </c>
       <c r="E77">
-        <v>21.28160577934251</v>
+        <v>22.99735241157777</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6086,13 +7676,13 @@
         <v>80</v>
       </c>
       <c r="C78">
-        <v>18.44823699460291</v>
+        <v>22.02142917674674</v>
       </c>
       <c r="D78">
-        <v>14.17119507982644</v>
+        <v>14.86172408716597</v>
       </c>
       <c r="E78">
-        <v>18.17684869276734</v>
+        <v>18.55999798460181</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6100,13 +7690,13 @@
         <v>81</v>
       </c>
       <c r="C79">
-        <v>6.347749179942457</v>
+        <v>6.722550328710719</v>
       </c>
       <c r="D79">
-        <v>12.19823562618298</v>
+        <v>12.95406729488314</v>
       </c>
       <c r="E79">
-        <v>16.27268957156985</v>
+        <v>16.97984913411482</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -25833,6 +27423,7186 @@
       </c>
       <c r="E1488">
         <v>5.208887551814326</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5">
+      <c r="A1489" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C1489">
+        <v>0.274510590027404</v>
+      </c>
+      <c r="D1489">
+        <v>0.274510590027404</v>
+      </c>
+      <c r="E1489">
+        <v>0.274510590027404</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5">
+      <c r="A1490" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C1490">
+        <v>0.1085610779961064</v>
+      </c>
+      <c r="D1490">
+        <v>0.1042627101407602</v>
+      </c>
+      <c r="E1490">
+        <v>0.1051127003854925</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5">
+      <c r="A1491" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C1491">
+        <v>0.1125054369322683</v>
+      </c>
+      <c r="D1491">
+        <v>0.1060000485240958</v>
+      </c>
+      <c r="E1491">
+        <v>0.108259127712942</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5">
+      <c r="A1492" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C1492">
+        <v>0.117776582480796</v>
+      </c>
+      <c r="D1492">
+        <v>0.1088794149716449</v>
+      </c>
+      <c r="E1492">
+        <v>0.1124915624920027</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5">
+      <c r="A1493" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C1493">
+        <v>0.1227534623323177</v>
+      </c>
+      <c r="D1493">
+        <v>0.1111431609688907</v>
+      </c>
+      <c r="E1493">
+        <v>0.1165598777550276</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5">
+      <c r="A1494" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1494">
+        <v>0.1292444792424143</v>
+      </c>
+      <c r="D1494">
+        <v>0.1129801244081925</v>
+      </c>
+      <c r="E1494">
+        <v>0.1202497001616002</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5">
+      <c r="A1495" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1495">
+        <v>0.1309869731098417</v>
+      </c>
+      <c r="D1495">
+        <v>0.1150036371136272</v>
+      </c>
+      <c r="E1495">
+        <v>0.1240135292494374</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5">
+      <c r="A1496" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C1496">
+        <v>1.114079232346069</v>
+      </c>
+      <c r="D1496">
+        <v>1.114079232346069</v>
+      </c>
+      <c r="E1496">
+        <v>1.114079232346069</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5">
+      <c r="A1497" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C1497">
+        <v>1.159182665523671</v>
+      </c>
+      <c r="D1497">
+        <v>1.144472910686225</v>
+      </c>
+      <c r="E1497">
+        <v>1.14517662824113</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5">
+      <c r="A1498" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1498">
+        <v>1.188754352991139</v>
+      </c>
+      <c r="D1498">
+        <v>1.173077736396925</v>
+      </c>
+      <c r="E1498">
+        <v>1.174263741817146</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5">
+      <c r="A1499" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C1499">
+        <v>1.218643112621387</v>
+      </c>
+      <c r="D1499">
+        <v>1.206558686088572</v>
+      </c>
+      <c r="E1499">
+        <v>1.208720333611625</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5">
+      <c r="A1500" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C1500">
+        <v>1.243413157309403</v>
+      </c>
+      <c r="D1500">
+        <v>1.23518656648838</v>
+      </c>
+      <c r="E1500">
+        <v>1.239806494952869</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5">
+      <c r="A1501" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C1501">
+        <v>1.300436413012383</v>
+      </c>
+      <c r="D1501">
+        <v>1.252104471481292</v>
+      </c>
+      <c r="E1501">
+        <v>1.263459048274382</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5">
+      <c r="A1502" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C1502">
+        <v>1.329352210290853</v>
+      </c>
+      <c r="D1502">
+        <v>1.275333581933721</v>
+      </c>
+      <c r="E1502">
+        <v>1.291052166578559</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5">
+      <c r="A1503" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C1503">
+        <v>-16.85929489135742</v>
+      </c>
+      <c r="D1503">
+        <v>-17.64156723022461</v>
+      </c>
+      <c r="E1503">
+        <v>-15.83106994628906</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5">
+      <c r="A1504" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C1504">
+        <v>-32.00569534301758</v>
+      </c>
+      <c r="D1504">
+        <v>-32.0456657409668</v>
+      </c>
+      <c r="E1504">
+        <v>-31.86953926086426</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5">
+      <c r="A1505" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1505">
+        <v>-28.84376525878906</v>
+      </c>
+      <c r="D1505">
+        <v>-29.46407127380371</v>
+      </c>
+      <c r="E1505">
+        <v>-29.19508934020996</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5">
+      <c r="A1506" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C1506">
+        <v>-3.878303050994873</v>
+      </c>
+      <c r="D1506">
+        <v>-4.062081813812256</v>
+      </c>
+      <c r="E1506">
+        <v>-3.74123477935791</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5">
+      <c r="A1507" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1507">
+        <v>-48</v>
+      </c>
+      <c r="D1507">
+        <v>-48</v>
+      </c>
+      <c r="E1507">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5">
+      <c r="A1508" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1508">
+        <v>-8.130292892456055</v>
+      </c>
+      <c r="D1508">
+        <v>-10.69640827178955</v>
+      </c>
+      <c r="E1508">
+        <v>-9.893491744995117</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5">
+      <c r="A1509" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C1509">
+        <v>-35.94775009155273</v>
+      </c>
+      <c r="D1509">
+        <v>-36.17729187011719</v>
+      </c>
+      <c r="E1509">
+        <v>-36.06415939331055</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5">
+      <c r="A1510" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C1510">
+        <v>-30.21263885498047</v>
+      </c>
+      <c r="D1510">
+        <v>-31.93795585632324</v>
+      </c>
+      <c r="E1510">
+        <v>-31.15077018737793</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5">
+      <c r="A1511" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5">
+      <c r="A1512" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C1512">
+        <v>-18.57325172424316</v>
+      </c>
+      <c r="D1512">
+        <v>-20.67618560791016</v>
+      </c>
+      <c r="E1512">
+        <v>-18.5692310333252</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5">
+      <c r="A1513" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C1513">
+        <v>-9.211896896362305</v>
+      </c>
+      <c r="D1513">
+        <v>-13.7275972366333</v>
+      </c>
+      <c r="E1513">
+        <v>-10.88778305053711</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5">
+      <c r="A1514" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C1514">
+        <v>-16.35707473754883</v>
+      </c>
+      <c r="D1514">
+        <v>-17.41849517822266</v>
+      </c>
+      <c r="E1514">
+        <v>-15.27130794525146</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5">
+      <c r="A1515" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1515">
+        <v>-26.01636695861816</v>
+      </c>
+      <c r="D1515">
+        <v>-26.57264518737793</v>
+      </c>
+      <c r="E1515">
+        <v>-26.13095283508301</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5">
+      <c r="A1516" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C1516">
+        <v>-29.68030548095703</v>
+      </c>
+      <c r="D1516">
+        <v>-32.88461303710938</v>
+      </c>
+      <c r="E1516">
+        <v>-33.0675163269043</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5">
+      <c r="A1517" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C1517">
+        <v>18.4306526184082</v>
+      </c>
+      <c r="D1517">
+        <v>17.70398712158203</v>
+      </c>
+      <c r="E1517">
+        <v>18.94564628601074</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5">
+      <c r="A1518" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C1518">
+        <v>0</v>
+      </c>
+      <c r="D1518">
+        <v>0</v>
+      </c>
+      <c r="E1518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5">
+      <c r="A1519" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1519">
+        <v>-31.09913063049316</v>
+      </c>
+      <c r="D1519">
+        <v>-36.09987258911133</v>
+      </c>
+      <c r="E1519">
+        <v>-36.45967102050781</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5">
+      <c r="A1520" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1520">
+        <v>-10.5558385848999</v>
+      </c>
+      <c r="D1520">
+        <v>-12.36332607269287</v>
+      </c>
+      <c r="E1520">
+        <v>-9.896894454956055</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5">
+      <c r="A1521" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5">
+      <c r="A1522" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C1522">
+        <v>-21.99339294433594</v>
+      </c>
+      <c r="D1522">
+        <v>-25.09716415405273</v>
+      </c>
+      <c r="E1522">
+        <v>-23.80610847473145</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5">
+      <c r="A1523" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C1523">
+        <v>0.05418065935373306</v>
+      </c>
+      <c r="D1523">
+        <v>-6.902203559875488</v>
+      </c>
+      <c r="E1523">
+        <v>-3.36484432220459</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5">
+      <c r="A1524" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5">
+      <c r="A1525" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C1525">
+        <v>-9.063723564147949</v>
+      </c>
+      <c r="D1525">
+        <v>-9.155792236328125</v>
+      </c>
+      <c r="E1525">
+        <v>-9.115406036376953</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5">
+      <c r="A1526" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C1526">
+        <v>-9.065347671508789</v>
+      </c>
+      <c r="D1526">
+        <v>-9.53482723236084</v>
+      </c>
+      <c r="E1526">
+        <v>-9.130251884460449</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5">
+      <c r="A1527" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C1527">
+        <v>-6.159069538116455</v>
+      </c>
+      <c r="D1527">
+        <v>-11.46291065216064</v>
+      </c>
+      <c r="E1527">
+        <v>-12.11958885192871</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5">
+      <c r="A1528" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C1528">
+        <v>57.56622695922852</v>
+      </c>
+      <c r="D1528">
+        <v>54.45578002929688</v>
+      </c>
+      <c r="E1528">
+        <v>55.47430038452148</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5">
+      <c r="A1529" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1529">
+        <v>-12.88327026367188</v>
+      </c>
+      <c r="D1529">
+        <v>-15.31770133972168</v>
+      </c>
+      <c r="E1529">
+        <v>-13.61489200592041</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5">
+      <c r="A1530" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1530">
+        <v>-35.03279495239258</v>
+      </c>
+      <c r="D1530">
+        <v>-36.67386245727539</v>
+      </c>
+      <c r="E1530">
+        <v>-36.71773910522461</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5">
+      <c r="A1531" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1531">
+        <v>-8.945117950439453</v>
+      </c>
+      <c r="D1531">
+        <v>-12.90749454498291</v>
+      </c>
+      <c r="E1531">
+        <v>-11.85525226593018</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5">
+      <c r="A1532" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C1532">
+        <v>-23.96588325500488</v>
+      </c>
+      <c r="D1532">
+        <v>-28.29411125183105</v>
+      </c>
+      <c r="E1532">
+        <v>-28.42296028137207</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5">
+      <c r="A1533" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C1533">
+        <v>-38.67049789428711</v>
+      </c>
+      <c r="D1533">
+        <v>-38.77999496459961</v>
+      </c>
+      <c r="E1533">
+        <v>-38.68926239013672</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5">
+      <c r="A1534" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C1534">
+        <v>-42.61593246459961</v>
+      </c>
+      <c r="D1534">
+        <v>-42.63225173950195</v>
+      </c>
+      <c r="E1534">
+        <v>-42.60436630249023</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5">
+      <c r="A1535" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C1535">
+        <v>0</v>
+      </c>
+      <c r="D1535">
+        <v>0</v>
+      </c>
+      <c r="E1535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5">
+      <c r="A1536" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C1536">
+        <v>-29.41322326660156</v>
+      </c>
+      <c r="D1536">
+        <v>-35.62997055053711</v>
+      </c>
+      <c r="E1536">
+        <v>-36.37380599975586</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5">
+      <c r="A1537" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1537">
+        <v>6.809447765350342</v>
+      </c>
+      <c r="D1537">
+        <v>1.858007550239563</v>
+      </c>
+      <c r="E1537">
+        <v>3.165043354034424</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5">
+      <c r="A1538" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C1538">
+        <v>-32.07715225219727</v>
+      </c>
+      <c r="D1538">
+        <v>-35.19334411621094</v>
+      </c>
+      <c r="E1538">
+        <v>-34.30155563354492</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5">
+      <c r="A1539" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C1539">
+        <v>-33.05783462524414</v>
+      </c>
+      <c r="D1539">
+        <v>-37.58584213256836</v>
+      </c>
+      <c r="E1539">
+        <v>-37.75868988037109</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5">
+      <c r="A1540" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C1540">
+        <v>76.52216339111328</v>
+      </c>
+      <c r="D1540">
+        <v>55.1190299987793</v>
+      </c>
+      <c r="E1540">
+        <v>64.63491821289062</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5">
+      <c r="A1541" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C1541">
+        <v>-35.14753723144531</v>
+      </c>
+      <c r="D1541">
+        <v>-35.20293045043945</v>
+      </c>
+      <c r="E1541">
+        <v>-35.05650329589844</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5">
+      <c r="A1542" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C1542">
+        <v>-0.1596934944391251</v>
+      </c>
+      <c r="D1542">
+        <v>-5.341487407684326</v>
+      </c>
+      <c r="E1542">
+        <v>-2.033071756362915</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5">
+      <c r="A1543" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1543">
+        <v>-36.70893096923828</v>
+      </c>
+      <c r="D1543">
+        <v>-39.07160949707031</v>
+      </c>
+      <c r="E1543">
+        <v>-38.08582305908203</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5">
+      <c r="A1544" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C1544">
+        <v>-38.30388259887695</v>
+      </c>
+      <c r="D1544">
+        <v>-38.52179336547852</v>
+      </c>
+      <c r="E1544">
+        <v>-38.42876434326172</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5">
+      <c r="A1545" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C1545">
+        <v>-31.73883247375488</v>
+      </c>
+      <c r="D1545">
+        <v>-35.13603591918945</v>
+      </c>
+      <c r="E1545">
+        <v>-33.77647018432617</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5">
+      <c r="A1546" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5">
+      <c r="A1547" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1547">
+        <v>-31.99906349182129</v>
+      </c>
+      <c r="D1547">
+        <v>-35.80299758911133</v>
+      </c>
+      <c r="E1547">
+        <v>-35.58315277099609</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5">
+      <c r="A1548" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C1548">
+        <v>-25.37919807434082</v>
+      </c>
+      <c r="D1548">
+        <v>-26.18971633911133</v>
+      </c>
+      <c r="E1548">
+        <v>-25.91293907165527</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5">
+      <c r="A1549" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5">
+      <c r="A1550" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1550">
+        <v>-32.83298110961914</v>
+      </c>
+      <c r="D1550">
+        <v>-36.64394378662109</v>
+      </c>
+      <c r="E1550">
+        <v>-36.80082321166992</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5">
+      <c r="A1551" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C1551">
+        <v>-14.41475296020508</v>
+      </c>
+      <c r="D1551">
+        <v>-23.85735893249512</v>
+      </c>
+      <c r="E1551">
+        <v>-24.89407348632812</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5">
+      <c r="A1552" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C1552">
+        <v>-31.18929672241211</v>
+      </c>
+      <c r="D1552">
+        <v>-33.31166076660156</v>
+      </c>
+      <c r="E1552">
+        <v>-33.06906890869141</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5">
+      <c r="A1553" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C1553">
+        <v>-15.74172115325928</v>
+      </c>
+      <c r="D1553">
+        <v>-21.2332878112793</v>
+      </c>
+      <c r="E1553">
+        <v>-18.85569763183594</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5">
+      <c r="A1554" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1554">
+        <v>-0.9745497703552246</v>
+      </c>
+      <c r="D1554">
+        <v>-11.40705108642578</v>
+      </c>
+      <c r="E1554">
+        <v>-12.34379768371582</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5">
+      <c r="A1555" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C1555">
+        <v>-37.15622711181641</v>
+      </c>
+      <c r="D1555">
+        <v>-37.32415390014648</v>
+      </c>
+      <c r="E1555">
+        <v>-37.2395133972168</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5">
+      <c r="A1556" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C1556">
+        <v>-8.390970230102539</v>
+      </c>
+      <c r="D1556">
+        <v>-10.87159442901611</v>
+      </c>
+      <c r="E1556">
+        <v>-9.368674278259277</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5">
+      <c r="A1557" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C1557">
+        <v>-7.869227886199951</v>
+      </c>
+      <c r="D1557">
+        <v>-15.23948192596436</v>
+      </c>
+      <c r="E1557">
+        <v>-11.89180564880371</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5">
+      <c r="A1558" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C1558">
+        <v>-16.02501678466797</v>
+      </c>
+      <c r="D1558">
+        <v>-19.24509429931641</v>
+      </c>
+      <c r="E1558">
+        <v>-17.13348960876465</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5">
+      <c r="A1559" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C1559">
+        <v>4.33017110824585</v>
+      </c>
+      <c r="D1559">
+        <v>0.8684369325637817</v>
+      </c>
+      <c r="E1559">
+        <v>1.681298136711121</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5">
+      <c r="A1560" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C1560">
+        <v>4.520161151885986</v>
+      </c>
+      <c r="D1560">
+        <v>1.724244952201843</v>
+      </c>
+      <c r="E1560">
+        <v>2.427721500396729</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5">
+      <c r="A1561" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C1561">
+        <v>10.45280838012695</v>
+      </c>
+      <c r="D1561">
+        <v>3.06100869178772</v>
+      </c>
+      <c r="E1561">
+        <v>4.626565456390381</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5">
+      <c r="A1562" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C1562">
+        <v>0.4168809056282043</v>
+      </c>
+      <c r="D1562">
+        <v>0.2654622495174408</v>
+      </c>
+      <c r="E1562">
+        <v>0.4890567362308502</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5">
+      <c r="A1563" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C1563">
+        <v>0</v>
+      </c>
+      <c r="D1563">
+        <v>0</v>
+      </c>
+      <c r="E1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5">
+      <c r="A1564" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C1564">
+        <v>3.749504327774048</v>
+      </c>
+      <c r="D1564">
+        <v>1.920531988143921</v>
+      </c>
+      <c r="E1564">
+        <v>2.711210489273071</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5">
+      <c r="A1565" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1565">
+        <v>6.778697967529297</v>
+      </c>
+      <c r="D1565">
+        <v>1.91454815864563</v>
+      </c>
+      <c r="E1565">
+        <v>2.890730142593384</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5">
+      <c r="A1566" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C1566">
+        <v>5.346025943756104</v>
+      </c>
+      <c r="D1566">
+        <v>2.942479848861694</v>
+      </c>
+      <c r="E1566">
+        <v>4.14374303817749</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5">
+      <c r="A1567" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5">
+      <c r="A1568" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C1568">
+        <v>10.13296318054199</v>
+      </c>
+      <c r="D1568">
+        <v>7.249392509460449</v>
+      </c>
+      <c r="E1568">
+        <v>9.265872955322266</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5">
+      <c r="A1569" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C1569">
+        <v>13.34019088745117</v>
+      </c>
+      <c r="D1569">
+        <v>8.919155120849609</v>
+      </c>
+      <c r="E1569">
+        <v>11.74021434783936</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5">
+      <c r="A1570" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1570">
+        <v>19.51880073547363</v>
+      </c>
+      <c r="D1570">
+        <v>7.099644660949707</v>
+      </c>
+      <c r="E1570">
+        <v>9.392302513122559</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5">
+      <c r="A1571" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1571">
+        <v>7.805044174194336</v>
+      </c>
+      <c r="D1571">
+        <v>3.718878746032715</v>
+      </c>
+      <c r="E1571">
+        <v>4.626833438873291</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5">
+      <c r="A1572" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C1572">
+        <v>5.217319488525391</v>
+      </c>
+      <c r="D1572">
+        <v>6.824065685272217</v>
+      </c>
+      <c r="E1572">
+        <v>5.33120059967041</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5">
+      <c r="A1573" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C1573">
+        <v>8.284317970275879</v>
+      </c>
+      <c r="D1573">
+        <v>6.280087947845459</v>
+      </c>
+      <c r="E1573">
+        <v>8.000794410705566</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5">
+      <c r="A1574" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C1574">
+        <v>0</v>
+      </c>
+      <c r="D1574">
+        <v>0</v>
+      </c>
+      <c r="E1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5">
+      <c r="A1575" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C1575">
+        <v>6.394137382507324</v>
+      </c>
+      <c r="D1575">
+        <v>8.560955047607422</v>
+      </c>
+      <c r="E1575">
+        <v>6.362887382507324</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5">
+      <c r="A1576" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C1576">
+        <v>11.05548572540283</v>
+      </c>
+      <c r="D1576">
+        <v>7.577051639556885</v>
+      </c>
+      <c r="E1576">
+        <v>9.578362464904785</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5">
+      <c r="A1577" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5">
+      <c r="A1578" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C1578">
+        <v>6.762693881988525</v>
+      </c>
+      <c r="D1578">
+        <v>4.042690277099609</v>
+      </c>
+      <c r="E1578">
+        <v>5.594243049621582</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5">
+      <c r="A1579" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C1579">
+        <v>20.6947021484375</v>
+      </c>
+      <c r="D1579">
+        <v>13.15649127960205</v>
+      </c>
+      <c r="E1579">
+        <v>17.15447425842285</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5">
+      <c r="A1580" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C1580">
+        <v>39.27326965332031</v>
+      </c>
+      <c r="D1580">
+        <v>28.6342945098877</v>
+      </c>
+      <c r="E1580">
+        <v>36.22970199584961</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5">
+      <c r="A1581" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C1581">
+        <v>0.1719451993703842</v>
+      </c>
+      <c r="D1581">
+        <v>0.1043886616826057</v>
+      </c>
+      <c r="E1581">
+        <v>0.1447417587041855</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5">
+      <c r="A1582" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C1582">
+        <v>11.74291896820068</v>
+      </c>
+      <c r="D1582">
+        <v>3.631730318069458</v>
+      </c>
+      <c r="E1582">
+        <v>5.364431381225586</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5">
+      <c r="A1583" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1583">
+        <v>3.301038503646851</v>
+      </c>
+      <c r="D1583">
+        <v>6.42235279083252</v>
+      </c>
+      <c r="E1583">
+        <v>3.348078012466431</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5">
+      <c r="A1584" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C1584">
+        <v>32.87648391723633</v>
+      </c>
+      <c r="D1584">
+        <v>9.272294998168945</v>
+      </c>
+      <c r="E1584">
+        <v>14.05066108703613</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5">
+      <c r="A1585" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C1585">
+        <v>7.761264801025391</v>
+      </c>
+      <c r="D1585">
+        <v>7.040313243865967</v>
+      </c>
+      <c r="E1585">
+        <v>9.064743995666504</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5">
+      <c r="A1586" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C1586">
+        <v>3.006207942962646</v>
+      </c>
+      <c r="D1586">
+        <v>5.168623924255371</v>
+      </c>
+      <c r="E1586">
+        <v>2.691895246505737</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5">
+      <c r="A1587" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1587">
+        <v>8.42103385925293</v>
+      </c>
+      <c r="D1587">
+        <v>5.80614185333252</v>
+      </c>
+      <c r="E1587">
+        <v>6.721962928771973</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5">
+      <c r="A1588" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C1588">
+        <v>6.32634162902832</v>
+      </c>
+      <c r="D1588">
+        <v>7.456802368164062</v>
+      </c>
+      <c r="E1588">
+        <v>6.625978946685791</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5">
+      <c r="A1589" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C1589">
+        <v>4.557154178619385</v>
+      </c>
+      <c r="D1589">
+        <v>1.501488566398621</v>
+      </c>
+      <c r="E1589">
+        <v>2.179787397384644</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5">
+      <c r="A1590" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1590">
+        <v>1.038368105888367</v>
+      </c>
+      <c r="D1590">
+        <v>1.473990201950073</v>
+      </c>
+      <c r="E1590">
+        <v>0.7019628882408142</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5">
+      <c r="A1591" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C1591">
+        <v>0</v>
+      </c>
+      <c r="D1591">
+        <v>0</v>
+      </c>
+      <c r="E1591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5">
+      <c r="A1592" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1592">
+        <v>5.042815685272217</v>
+      </c>
+      <c r="D1592">
+        <v>11.15175247192383</v>
+      </c>
+      <c r="E1592">
+        <v>4.917540073394775</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5">
+      <c r="A1593" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C1593">
+        <v>7.286547660827637</v>
+      </c>
+      <c r="D1593">
+        <v>5.586849212646484</v>
+      </c>
+      <c r="E1593">
+        <v>5.941165924072266</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5">
+      <c r="A1594" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C1594">
+        <v>7.088432788848877</v>
+      </c>
+      <c r="D1594">
+        <v>4.300107002258301</v>
+      </c>
+      <c r="E1594">
+        <v>6.065775394439697</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5">
+      <c r="A1595" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C1595">
+        <v>5.74303674697876</v>
+      </c>
+      <c r="D1595">
+        <v>10.17742156982422</v>
+      </c>
+      <c r="E1595">
+        <v>5.388164520263672</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5">
+      <c r="A1596" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C1596">
+        <v>23.57781791687012</v>
+      </c>
+      <c r="D1596">
+        <v>16.32730293273926</v>
+      </c>
+      <c r="E1596">
+        <v>21.29144096374512</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5">
+      <c r="A1597" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C1597">
+        <v>3.310650825500488</v>
+      </c>
+      <c r="D1597">
+        <v>1.475106120109558</v>
+      </c>
+      <c r="E1597">
+        <v>2.030621528625488</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5">
+      <c r="A1598" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C1598">
+        <v>15.75833320617676</v>
+      </c>
+      <c r="D1598">
+        <v>9.981237411499023</v>
+      </c>
+      <c r="E1598">
+        <v>13.15714550018311</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5">
+      <c r="A1599" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C1599">
+        <v>7.519229412078857</v>
+      </c>
+      <c r="D1599">
+        <v>3.782512426376343</v>
+      </c>
+      <c r="E1599">
+        <v>5.559781551361084</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5">
+      <c r="A1600" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C1600">
+        <v>6.071076393127441</v>
+      </c>
+      <c r="D1600">
+        <v>2.045083284378052</v>
+      </c>
+      <c r="E1600">
+        <v>3.003821134567261</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5">
+      <c r="A1601" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1601">
+        <v>7.731221199035645</v>
+      </c>
+      <c r="D1601">
+        <v>4.353519439697266</v>
+      </c>
+      <c r="E1601">
+        <v>6.114250183105469</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5">
+      <c r="A1602" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5">
+      <c r="A1603" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C1603">
+        <v>5.454571723937988</v>
+      </c>
+      <c r="D1603">
+        <v>7.013100624084473</v>
+      </c>
+      <c r="E1603">
+        <v>5.521461486816406</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5">
+      <c r="A1604" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1604">
+        <v>16.88235473632812</v>
+      </c>
+      <c r="D1604">
+        <v>4.576400279998779</v>
+      </c>
+      <c r="E1604">
+        <v>7.035959720611572</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5">
+      <c r="A1605" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5">
+      <c r="A1606" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1606">
+        <v>5.357293605804443</v>
+      </c>
+      <c r="D1606">
+        <v>7.675206184387207</v>
+      </c>
+      <c r="E1606">
+        <v>5.36582612991333</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5">
+      <c r="A1607" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1607">
+        <v>17.62862586975098</v>
+      </c>
+      <c r="D1607">
+        <v>24.42429733276367</v>
+      </c>
+      <c r="E1607">
+        <v>16.52124214172363</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5">
+      <c r="A1608" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1608">
+        <v>4.808327674865723</v>
+      </c>
+      <c r="D1608">
+        <v>5.206572532653809</v>
+      </c>
+      <c r="E1608">
+        <v>4.363952159881592</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5">
+      <c r="A1609" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1609">
+        <v>14.12550830841064</v>
+      </c>
+      <c r="D1609">
+        <v>7.923291683197021</v>
+      </c>
+      <c r="E1609">
+        <v>11.16167736053467</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5">
+      <c r="A1610" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1610">
+        <v>15.12810325622559</v>
+      </c>
+      <c r="D1610">
+        <v>14.47849941253662</v>
+      </c>
+      <c r="E1610">
+        <v>9.019692420959473</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5">
+      <c r="A1611" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1611">
+        <v>5.209517002105713</v>
+      </c>
+      <c r="D1611">
+        <v>1.556247591972351</v>
+      </c>
+      <c r="E1611">
+        <v>2.329716205596924</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:5">
+      <c r="A1612" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1612">
+        <v>16.77919960021973</v>
+      </c>
+      <c r="D1612">
+        <v>10.11251068115234</v>
+      </c>
+      <c r="E1612">
+        <v>13.58703708648682</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5">
+      <c r="A1613" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1613">
+        <v>27.0897216796875</v>
+      </c>
+      <c r="D1613">
+        <v>16.36142158508301</v>
+      </c>
+      <c r="E1613">
+        <v>22.23388671875</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5">
+      <c r="A1614" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1614">
+        <v>10.69262409210205</v>
+      </c>
+      <c r="D1614">
+        <v>7.1543869972229</v>
+      </c>
+      <c r="E1614">
+        <v>9.418718338012695</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5">
+      <c r="A1615" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1615">
+        <v>3.691997051239014</v>
+      </c>
+      <c r="D1615">
+        <v>0.5136735439300537</v>
+      </c>
+      <c r="E1615">
+        <v>0.6098133325576782</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:5">
+      <c r="A1616" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1616">
+        <v>5.605865478515625</v>
+      </c>
+      <c r="D1616">
+        <v>2.043757200241089</v>
+      </c>
+      <c r="E1616">
+        <v>2.638266801834106</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:5">
+      <c r="A1617" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1617">
+        <v>9.738034248352051</v>
+      </c>
+      <c r="D1617">
+        <v>4.199984550476074</v>
+      </c>
+      <c r="E1617">
+        <v>5.366030216217041</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:5">
+      <c r="A1618" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C1618">
+        <v>0.5233414769172668</v>
+      </c>
+      <c r="D1618">
+        <v>0.4360266327857971</v>
+      </c>
+      <c r="E1618">
+        <v>0.8388299942016602</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:5">
+      <c r="A1619" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C1619">
+        <v>0</v>
+      </c>
+      <c r="D1619">
+        <v>0</v>
+      </c>
+      <c r="E1619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:5">
+      <c r="A1620" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C1620">
+        <v>4.47007942199707</v>
+      </c>
+      <c r="D1620">
+        <v>1.277347683906555</v>
+      </c>
+      <c r="E1620">
+        <v>2.16560959815979</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:5">
+      <c r="A1621" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C1621">
+        <v>8.815543174743652</v>
+      </c>
+      <c r="D1621">
+        <v>3.850122690200806</v>
+      </c>
+      <c r="E1621">
+        <v>4.854906558990479</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:5">
+      <c r="A1622" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C1622">
+        <v>9.261082649230957</v>
+      </c>
+      <c r="D1622">
+        <v>2.884140491485596</v>
+      </c>
+      <c r="E1622">
+        <v>4.890402793884277</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5">
+      <c r="A1623" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C1623">
+        <v>258.2917785644531</v>
+      </c>
+      <c r="D1623">
+        <v>136.466552734375</v>
+      </c>
+      <c r="E1623">
+        <v>175.5612945556641</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5">
+      <c r="A1624" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C1624">
+        <v>16.54279899597168</v>
+      </c>
+      <c r="D1624">
+        <v>4.707825660705566</v>
+      </c>
+      <c r="E1624">
+        <v>12.96969699859619</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5">
+      <c r="A1625" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C1625">
+        <v>19.8044319152832</v>
+      </c>
+      <c r="D1625">
+        <v>6.220066070556641</v>
+      </c>
+      <c r="E1625">
+        <v>11.0101261138916</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5">
+      <c r="A1626" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C1626">
+        <v>24.73040199279785</v>
+      </c>
+      <c r="D1626">
+        <v>2.776750326156616</v>
+      </c>
+      <c r="E1626">
+        <v>5.739630699157715</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5">
+      <c r="A1627" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C1627">
+        <v>7.492061614990234</v>
+      </c>
+      <c r="D1627">
+        <v>4.025644302368164</v>
+      </c>
+      <c r="E1627">
+        <v>5.096120357513428</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5">
+      <c r="A1628" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C1628">
+        <v>5.104976654052734</v>
+      </c>
+      <c r="D1628">
+        <v>6.463869571685791</v>
+      </c>
+      <c r="E1628">
+        <v>6.69638729095459</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5">
+      <c r="A1629" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C1629">
+        <v>8.252448081970215</v>
+      </c>
+      <c r="D1629">
+        <v>9.731402397155762</v>
+      </c>
+      <c r="E1629">
+        <v>11.58996772766113</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5">
+      <c r="A1630" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C1630">
+        <v>0</v>
+      </c>
+      <c r="D1630">
+        <v>0</v>
+      </c>
+      <c r="E1630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5">
+      <c r="A1631" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C1631">
+        <v>6.43330192565918</v>
+      </c>
+      <c r="D1631">
+        <v>9.163071632385254</v>
+      </c>
+      <c r="E1631">
+        <v>9.475974082946777</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5">
+      <c r="A1632" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C1632">
+        <v>11.69315528869629</v>
+      </c>
+      <c r="D1632">
+        <v>3.841461896896362</v>
+      </c>
+      <c r="E1632">
+        <v>6.245113372802734</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:5">
+      <c r="A1633" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5">
+      <c r="A1634" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C1634">
+        <v>7.440120220184326</v>
+      </c>
+      <c r="D1634">
+        <v>3.032204627990723</v>
+      </c>
+      <c r="E1634">
+        <v>4.695976257324219</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5">
+      <c r="A1635" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C1635">
+        <v>26.57224082946777</v>
+      </c>
+      <c r="D1635">
+        <v>8.425778388977051</v>
+      </c>
+      <c r="E1635">
+        <v>13.66039848327637</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5">
+      <c r="A1636" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C1636">
+        <v>64.57964324951172</v>
+      </c>
+      <c r="D1636">
+        <v>27.20745658874512</v>
+      </c>
+      <c r="E1636">
+        <v>40.05918884277344</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5">
+      <c r="A1637" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C1637">
+        <v>0.2020705193281174</v>
+      </c>
+      <c r="D1637">
+        <v>0.0731804296374321</v>
+      </c>
+      <c r="E1637">
+        <v>0.1195153743028641</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5">
+      <c r="A1638" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C1638">
+        <v>12.48336982727051</v>
+      </c>
+      <c r="D1638">
+        <v>4.733230590820312</v>
+      </c>
+      <c r="E1638">
+        <v>6.109340190887451</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5">
+      <c r="A1639" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1639">
+        <v>3.567953586578369</v>
+      </c>
+      <c r="D1639">
+        <v>4.774534225463867</v>
+      </c>
+      <c r="E1639">
+        <v>4.447052001953125</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5">
+      <c r="A1640" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C1640">
+        <v>22.79682350158691</v>
+      </c>
+      <c r="D1640">
+        <v>12.21390151977539</v>
+      </c>
+      <c r="E1640">
+        <v>14.74152374267578</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5">
+      <c r="A1641" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C1641">
+        <v>7.997027397155762</v>
+      </c>
+      <c r="D1641">
+        <v>2.224300622940063</v>
+      </c>
+      <c r="E1641">
+        <v>3.400604009628296</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5">
+      <c r="A1642" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C1642">
+        <v>5.722473621368408</v>
+      </c>
+      <c r="D1642">
+        <v>5.05992317199707</v>
+      </c>
+      <c r="E1642">
+        <v>4.53356409072876</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5">
+      <c r="A1643" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C1643">
+        <v>12.35949611663818</v>
+      </c>
+      <c r="D1643">
+        <v>4.777587890625</v>
+      </c>
+      <c r="E1643">
+        <v>7.159670829772949</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5">
+      <c r="A1644" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C1644">
+        <v>6.117447376251221</v>
+      </c>
+      <c r="D1644">
+        <v>8.340056419372559</v>
+      </c>
+      <c r="E1644">
+        <v>9.044095039367676</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5">
+      <c r="A1645" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1645">
+        <v>5.474507331848145</v>
+      </c>
+      <c r="D1645">
+        <v>2.286153316497803</v>
+      </c>
+      <c r="E1645">
+        <v>2.905562877655029</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5">
+      <c r="A1646" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C1646">
+        <v>1.297892808914185</v>
+      </c>
+      <c r="D1646">
+        <v>0.7666367292404175</v>
+      </c>
+      <c r="E1646">
+        <v>0.6859222650527954</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:5">
+      <c r="A1647" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C1647">
+        <v>0</v>
+      </c>
+      <c r="D1647">
+        <v>0</v>
+      </c>
+      <c r="E1647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:5">
+      <c r="A1648" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C1648">
+        <v>6.134452819824219</v>
+      </c>
+      <c r="D1648">
+        <v>8.365181922912598</v>
+      </c>
+      <c r="E1648">
+        <v>8.335940361022949</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5">
+      <c r="A1649" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1649">
+        <v>8.801318168640137</v>
+      </c>
+      <c r="D1649">
+        <v>4.475300312042236</v>
+      </c>
+      <c r="E1649">
+        <v>5.969583034515381</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5">
+      <c r="A1650" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1650">
+        <v>11.01436901092529</v>
+      </c>
+      <c r="D1650">
+        <v>6.203943252563477</v>
+      </c>
+      <c r="E1650">
+        <v>8.497133255004883</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5">
+      <c r="A1651" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C1651">
+        <v>7.392740726470947</v>
+      </c>
+      <c r="D1651">
+        <v>6.905039310455322</v>
+      </c>
+      <c r="E1651">
+        <v>6.690525054931641</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5">
+      <c r="A1652" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C1652">
+        <v>25.21620750427246</v>
+      </c>
+      <c r="D1652">
+        <v>10.66015148162842</v>
+      </c>
+      <c r="E1652">
+        <v>15.90944576263428</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5">
+      <c r="A1653" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1653">
+        <v>4.874935150146484</v>
+      </c>
+      <c r="D1653">
+        <v>1.590208768844604</v>
+      </c>
+      <c r="E1653">
+        <v>2.079553365707397</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5">
+      <c r="A1654" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C1654">
+        <v>17.46056747436523</v>
+      </c>
+      <c r="D1654">
+        <v>6.123682498931885</v>
+      </c>
+      <c r="E1654">
+        <v>9.77171516418457</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5">
+      <c r="A1655" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1655">
+        <v>13.35766315460205</v>
+      </c>
+      <c r="D1655">
+        <v>3.324732542037964</v>
+      </c>
+      <c r="E1655">
+        <v>5.870448589324951</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:5">
+      <c r="A1656" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C1656">
+        <v>6.959475040435791</v>
+      </c>
+      <c r="D1656">
+        <v>2.993626594543457</v>
+      </c>
+      <c r="E1656">
+        <v>3.782405853271484</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:5">
+      <c r="A1657" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C1657">
+        <v>8.454241752624512</v>
+      </c>
+      <c r="D1657">
+        <v>2.80513072013855</v>
+      </c>
+      <c r="E1657">
+        <v>4.683521747589111</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:5">
+      <c r="A1658" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5">
+      <c r="A1659" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C1659">
+        <v>6.308302402496338</v>
+      </c>
+      <c r="D1659">
+        <v>4.887923717498779</v>
+      </c>
+      <c r="E1659">
+        <v>5.484259128570557</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:5">
+      <c r="A1660" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C1660">
+        <v>18.95363616943359</v>
+      </c>
+      <c r="D1660">
+        <v>8.666867256164551</v>
+      </c>
+      <c r="E1660">
+        <v>10.93660354614258</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:5">
+      <c r="A1661" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:5">
+      <c r="A1662" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1662">
+        <v>5.833412647247314</v>
+      </c>
+      <c r="D1662">
+        <v>6.496257781982422</v>
+      </c>
+      <c r="E1662">
+        <v>6.756235122680664</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:5">
+      <c r="A1663" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C1663">
+        <v>14.34436321258545</v>
+      </c>
+      <c r="D1663">
+        <v>18.62523078918457</v>
+      </c>
+      <c r="E1663">
+        <v>19.02203559875488</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:5">
+      <c r="A1664" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1664">
+        <v>6.56011962890625</v>
+      </c>
+      <c r="D1664">
+        <v>4.989952564239502</v>
+      </c>
+      <c r="E1664">
+        <v>5.761343002319336</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5">
+      <c r="A1665" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C1665">
+        <v>17.10034370422363</v>
+      </c>
+      <c r="D1665">
+        <v>6.879031658172607</v>
+      </c>
+      <c r="E1665">
+        <v>10.46094703674316</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5">
+      <c r="A1666" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1666">
+        <v>12.48107147216797</v>
+      </c>
+      <c r="D1666">
+        <v>10.26449584960938</v>
+      </c>
+      <c r="E1666">
+        <v>10.41531372070312</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5">
+      <c r="A1667" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1667">
+        <v>5.566607475280762</v>
+      </c>
+      <c r="D1667">
+        <v>2.252876043319702</v>
+      </c>
+      <c r="E1667">
+        <v>2.886575698852539</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5">
+      <c r="A1668" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1668">
+        <v>33.07224273681641</v>
+      </c>
+      <c r="D1668">
+        <v>9.461898803710938</v>
+      </c>
+      <c r="E1668">
+        <v>16.17212104797363</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5">
+      <c r="A1669" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1669">
+        <v>50.18161773681641</v>
+      </c>
+      <c r="D1669">
+        <v>14.6680850982666</v>
+      </c>
+      <c r="E1669">
+        <v>24.83562660217285</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5">
+      <c r="A1670" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1670">
+        <v>16.34963989257812</v>
+      </c>
+      <c r="D1670">
+        <v>4.572781085968018</v>
+      </c>
+      <c r="E1670">
+        <v>7.740046977996826</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5">
+      <c r="A1671" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C1671">
+        <v>5.889151573181152</v>
+      </c>
+      <c r="D1671">
+        <v>0.5769818425178528</v>
+      </c>
+      <c r="E1671">
+        <v>1.787942409515381</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5">
+      <c r="A1672" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C1672">
+        <v>4.480499744415283</v>
+      </c>
+      <c r="D1672">
+        <v>1.744734525680542</v>
+      </c>
+      <c r="E1672">
+        <v>2.807522773742676</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5">
+      <c r="A1673" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1673">
+        <v>6.154001712799072</v>
+      </c>
+      <c r="D1673">
+        <v>2.314094543457031</v>
+      </c>
+      <c r="E1673">
+        <v>4.219831943511963</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5">
+      <c r="A1674" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C1674">
+        <v>0.7848028540611267</v>
+      </c>
+      <c r="D1674">
+        <v>0.4901438653469086</v>
+      </c>
+      <c r="E1674">
+        <v>1.592004418373108</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5">
+      <c r="A1675" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1675">
+        <v>0</v>
+      </c>
+      <c r="D1675">
+        <v>0</v>
+      </c>
+      <c r="E1675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5">
+      <c r="A1676" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1676">
+        <v>3.347595691680908</v>
+      </c>
+      <c r="D1676">
+        <v>1.190008282661438</v>
+      </c>
+      <c r="E1676">
+        <v>2.72197151184082</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5">
+      <c r="A1677" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1677">
+        <v>9.77546501159668</v>
+      </c>
+      <c r="D1677">
+        <v>4.10933780670166</v>
+      </c>
+      <c r="E1677">
+        <v>6.736494064331055</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5">
+      <c r="A1678" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C1678">
+        <v>6.484137058258057</v>
+      </c>
+      <c r="D1678">
+        <v>2.65373420715332</v>
+      </c>
+      <c r="E1678">
+        <v>5.91418981552124</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5">
+      <c r="A1679" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1679">
+        <v>79.62158203125</v>
+      </c>
+      <c r="D1679">
+        <v>76.81961059570312</v>
+      </c>
+      <c r="E1679">
+        <v>114.1668548583984</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5">
+      <c r="A1680" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C1680">
+        <v>39.60617828369141</v>
+      </c>
+      <c r="D1680">
+        <v>15.1965274810791</v>
+      </c>
+      <c r="E1680">
+        <v>66.42588806152344</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5">
+      <c r="A1681" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1681">
+        <v>22.52401733398438</v>
+      </c>
+      <c r="D1681">
+        <v>8.633131980895996</v>
+      </c>
+      <c r="E1681">
+        <v>22.21395683288574</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5">
+      <c r="A1682" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1682">
+        <v>19.22593116760254</v>
+      </c>
+      <c r="D1682">
+        <v>2.832573652267456</v>
+      </c>
+      <c r="E1682">
+        <v>8.968869209289551</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5">
+      <c r="A1683" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1683">
+        <v>4.321837425231934</v>
+      </c>
+      <c r="D1683">
+        <v>3.435940742492676</v>
+      </c>
+      <c r="E1683">
+        <v>5.030980110168457</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5">
+      <c r="A1684" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C1684">
+        <v>5.418598651885986</v>
+      </c>
+      <c r="D1684">
+        <v>6.727268695831299</v>
+      </c>
+      <c r="E1684">
+        <v>8.240914344787598</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5">
+      <c r="A1685" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1685">
+        <v>5.568806648254395</v>
+      </c>
+      <c r="D1685">
+        <v>10.01254749298096</v>
+      </c>
+      <c r="E1685">
+        <v>12.93004512786865</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5">
+      <c r="A1686" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C1686">
+        <v>0.8647152185440063</v>
+      </c>
+      <c r="D1686">
+        <v>0</v>
+      </c>
+      <c r="E1686">
+        <v>0.9485371708869934</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5">
+      <c r="A1687" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C1687">
+        <v>6.01744270324707</v>
+      </c>
+      <c r="D1687">
+        <v>8.228984832763672</v>
+      </c>
+      <c r="E1687">
+        <v>10.12661266326904</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5">
+      <c r="A1688" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C1688">
+        <v>9.4852294921875</v>
+      </c>
+      <c r="D1688">
+        <v>3.893314123153687</v>
+      </c>
+      <c r="E1688">
+        <v>8.124289512634277</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5">
+      <c r="A1689" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C1689">
+        <v>186.4793243408203</v>
+      </c>
+      <c r="D1689">
+        <v>149.0765838623047</v>
+      </c>
+      <c r="E1689">
+        <v>265.7361145019531</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5">
+      <c r="A1690" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C1690">
+        <v>5.047217845916748</v>
+      </c>
+      <c r="D1690">
+        <v>2.546925783157349</v>
+      </c>
+      <c r="E1690">
+        <v>5.138813495635986</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5">
+      <c r="A1691" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1691">
+        <v>23.08060264587402</v>
+      </c>
+      <c r="D1691">
+        <v>8.045557975769043</v>
+      </c>
+      <c r="E1691">
+        <v>17.99568748474121</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5">
+      <c r="A1692" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1692">
+        <v>88.39601135253906</v>
+      </c>
+      <c r="D1692">
+        <v>52.10440444946289</v>
+      </c>
+      <c r="E1692">
+        <v>98.48002624511719</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5">
+      <c r="A1693" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C1693">
+        <v>0.1301821023225784</v>
+      </c>
+      <c r="D1693">
+        <v>0.05898470059037209</v>
+      </c>
+      <c r="E1693">
+        <v>0.1292644441127777</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5">
+      <c r="A1694" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C1694">
+        <v>7.547549724578857</v>
+      </c>
+      <c r="D1694">
+        <v>2.703146457672119</v>
+      </c>
+      <c r="E1694">
+        <v>4.918186187744141</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5">
+      <c r="A1695" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1695">
+        <v>3.625307083129883</v>
+      </c>
+      <c r="D1695">
+        <v>4.513206005096436</v>
+      </c>
+      <c r="E1695">
+        <v>5.577173709869385</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5">
+      <c r="A1696" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C1696">
+        <v>9.079269409179688</v>
+      </c>
+      <c r="D1696">
+        <v>4.562314510345459</v>
+      </c>
+      <c r="E1696">
+        <v>7.929461002349854</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5">
+      <c r="A1697" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1697">
+        <v>13.52333641052246</v>
+      </c>
+      <c r="D1697">
+        <v>2.543035745620728</v>
+      </c>
+      <c r="E1697">
+        <v>7.043727874755859</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5">
+      <c r="A1698" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C1698">
+        <v>6.48016881942749</v>
+      </c>
+      <c r="D1698">
+        <v>7.621101379394531</v>
+      </c>
+      <c r="E1698">
+        <v>9.008834838867188</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5">
+      <c r="A1699" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1699">
+        <v>8.899893760681152</v>
+      </c>
+      <c r="D1699">
+        <v>4.69050121307373</v>
+      </c>
+      <c r="E1699">
+        <v>8.91774845123291</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5">
+      <c r="A1700" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C1700">
+        <v>5.093542098999023</v>
+      </c>
+      <c r="D1700">
+        <v>7.328390598297119</v>
+      </c>
+      <c r="E1700">
+        <v>9.236117362976074</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5">
+      <c r="A1701" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1701">
+        <v>4.950162410736084</v>
+      </c>
+      <c r="D1701">
+        <v>2.124711513519287</v>
+      </c>
+      <c r="E1701">
+        <v>3.386761665344238</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5">
+      <c r="A1702" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C1702">
+        <v>1.428417921066284</v>
+      </c>
+      <c r="D1702">
+        <v>1.353857278823853</v>
+      </c>
+      <c r="E1702">
+        <v>1.622195601463318</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5">
+      <c r="A1703" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1703">
+        <v>0</v>
+      </c>
+      <c r="D1703">
+        <v>0</v>
+      </c>
+      <c r="E1703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5">
+      <c r="A1704" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1704">
+        <v>8.416378974914551</v>
+      </c>
+      <c r="D1704">
+        <v>12.31420135498047</v>
+      </c>
+      <c r="E1704">
+        <v>11.86402988433838</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5">
+      <c r="A1705" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1705">
+        <v>6.966753005981445</v>
+      </c>
+      <c r="D1705">
+        <v>4.523853778839111</v>
+      </c>
+      <c r="E1705">
+        <v>7.721343517303467</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5">
+      <c r="A1706" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1706">
+        <v>6.938195705413818</v>
+      </c>
+      <c r="D1706">
+        <v>5.957928657531738</v>
+      </c>
+      <c r="E1706">
+        <v>8.969576835632324</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5">
+      <c r="A1707" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1707">
+        <v>7.376992702484131</v>
+      </c>
+      <c r="D1707">
+        <v>8.71722412109375</v>
+      </c>
+      <c r="E1707">
+        <v>11.34281063079834</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5">
+      <c r="A1708" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C1708">
+        <v>17.44312858581543</v>
+      </c>
+      <c r="D1708">
+        <v>8.985373497009277</v>
+      </c>
+      <c r="E1708">
+        <v>17.85552215576172</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5">
+      <c r="A1709" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1709">
+        <v>4.07367467880249</v>
+      </c>
+      <c r="D1709">
+        <v>1.525945901870728</v>
+      </c>
+      <c r="E1709">
+        <v>2.342447519302368</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5">
+      <c r="A1710" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1710">
+        <v>11.42725372314453</v>
+      </c>
+      <c r="D1710">
+        <v>5.693480968475342</v>
+      </c>
+      <c r="E1710">
+        <v>11.79154586791992</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5">
+      <c r="A1711" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1711">
+        <v>15.96875190734863</v>
+      </c>
+      <c r="D1711">
+        <v>3.220927000045776</v>
+      </c>
+      <c r="E1711">
+        <v>8.964547157287598</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5">
+      <c r="A1712" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1712">
+        <v>5.863672256469727</v>
+      </c>
+      <c r="D1712">
+        <v>2.409004926681519</v>
+      </c>
+      <c r="E1712">
+        <v>3.946512699127197</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5">
+      <c r="A1713" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1713">
+        <v>5.71294641494751</v>
+      </c>
+      <c r="D1713">
+        <v>2.225347757339478</v>
+      </c>
+      <c r="E1713">
+        <v>5.062297344207764</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5">
+      <c r="A1714" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5">
+      <c r="A1715" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1715">
+        <v>5.789107322692871</v>
+      </c>
+      <c r="D1715">
+        <v>5.588135719299316</v>
+      </c>
+      <c r="E1715">
+        <v>7.650160789489746</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5">
+      <c r="A1716" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C1716">
+        <v>15.93735122680664</v>
+      </c>
+      <c r="D1716">
+        <v>7.135069370269775</v>
+      </c>
+      <c r="E1716">
+        <v>11.90674877166748</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5">
+      <c r="A1717" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1717">
+        <v>225.3208770751953</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5">
+      <c r="A1718" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1718">
+        <v>7.280855655670166</v>
+      </c>
+      <c r="D1718">
+        <v>8.013579368591309</v>
+      </c>
+      <c r="E1718">
+        <v>9.62098503112793</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:5">
+      <c r="A1719" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1719">
+        <v>11.10195350646973</v>
+      </c>
+      <c r="D1719">
+        <v>13.19218063354492</v>
+      </c>
+      <c r="E1719">
+        <v>16.57643127441406</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5">
+      <c r="A1720" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C1720">
+        <v>5.762858867645264</v>
+      </c>
+      <c r="D1720">
+        <v>5.531624794006348</v>
+      </c>
+      <c r="E1720">
+        <v>7.983906745910645</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5">
+      <c r="A1721" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1721">
+        <v>13.01638031005859</v>
+      </c>
+      <c r="D1721">
+        <v>5.855890274047852</v>
+      </c>
+      <c r="E1721">
+        <v>11.73416233062744</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5">
+      <c r="A1722" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C1722">
+        <v>8.336034774780273</v>
+      </c>
+      <c r="D1722">
+        <v>1029.931396484375</v>
+      </c>
+      <c r="E1722">
+        <v>1307.811645507812</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5">
+      <c r="A1723" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1723">
+        <v>3.25888204574585</v>
+      </c>
+      <c r="D1723">
+        <v>1.20785653591156</v>
+      </c>
+      <c r="E1723">
+        <v>2.156176805496216</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5">
+      <c r="A1724" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1724">
+        <v>30.15250587463379</v>
+      </c>
+      <c r="D1724">
+        <v>8.714869499206543</v>
+      </c>
+      <c r="E1724">
+        <v>20.47146034240723</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5">
+      <c r="A1725" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1725">
+        <v>27.61543655395508</v>
+      </c>
+      <c r="D1725">
+        <v>15.06936740875244</v>
+      </c>
+      <c r="E1725">
+        <v>37.01187133789062</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5">
+      <c r="A1726" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C1726">
+        <v>16.88742065429688</v>
+      </c>
+      <c r="D1726">
+        <v>4.663036823272705</v>
+      </c>
+      <c r="E1726">
+        <v>11.41146373748779</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5">
+      <c r="A1727" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1727">
+        <v>0.6130074858665466</v>
+      </c>
+      <c r="D1727">
+        <v>0.5606398582458496</v>
+      </c>
+      <c r="E1727">
+        <v>0.7679650187492371</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5">
+      <c r="A1728" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1728">
+        <v>0.8985630869865417</v>
+      </c>
+      <c r="D1728">
+        <v>0.5951439738273621</v>
+      </c>
+      <c r="E1728">
+        <v>1.160842537879944</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5">
+      <c r="A1729" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1729">
+        <v>0.8642293214797974</v>
+      </c>
+      <c r="D1729">
+        <v>0.7251436114311218</v>
+      </c>
+      <c r="E1729">
+        <v>1.49602222442627</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5">
+      <c r="A1730" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1730">
+        <v>2.918008089065552</v>
+      </c>
+      <c r="D1730">
+        <v>0.4766729772090912</v>
+      </c>
+      <c r="E1730">
+        <v>6.445268154144287</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5">
+      <c r="A1731" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1731">
+        <v>0</v>
+      </c>
+      <c r="D1731">
+        <v>0</v>
+      </c>
+      <c r="E1731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5">
+      <c r="A1732" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1732">
+        <v>6.691469192504883</v>
+      </c>
+      <c r="D1732">
+        <v>3.689842224121094</v>
+      </c>
+      <c r="E1732">
+        <v>6.629975318908691</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5">
+      <c r="A1733" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1733">
+        <v>4.017955303192139</v>
+      </c>
+      <c r="D1733">
+        <v>2.767811059951782</v>
+      </c>
+      <c r="E1733">
+        <v>5.852612018585205</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5">
+      <c r="A1734" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C1734">
+        <v>5.918907165527344</v>
+      </c>
+      <c r="D1734">
+        <v>4.936748504638672</v>
+      </c>
+      <c r="E1734">
+        <v>7.342791557312012</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5">
+      <c r="A1735" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1735">
+        <v>28.7080020904541</v>
+      </c>
+      <c r="D1735">
+        <v>60.62048721313477</v>
+      </c>
+      <c r="E1735">
+        <v>46.50505065917969</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5">
+      <c r="A1736" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1736">
+        <v>16.10281181335449</v>
+      </c>
+      <c r="D1736">
+        <v>18.79543685913086</v>
+      </c>
+      <c r="E1736">
+        <v>36.87088775634766</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5">
+      <c r="A1737" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C1737">
+        <v>16.87394332885742</v>
+      </c>
+      <c r="D1737">
+        <v>12.83489322662354</v>
+      </c>
+      <c r="E1737">
+        <v>19.94032096862793</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5">
+      <c r="A1738" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C1738">
+        <v>24.0294361114502</v>
+      </c>
+      <c r="D1738">
+        <v>11.82046794891357</v>
+      </c>
+      <c r="E1738">
+        <v>25.92525100708008</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5">
+      <c r="A1739" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1739">
+        <v>2.721760749816895</v>
+      </c>
+      <c r="D1739">
+        <v>2.882450819015503</v>
+      </c>
+      <c r="E1739">
+        <v>4.083144664764404</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:5">
+      <c r="A1740" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1740">
+        <v>7.339457988739014</v>
+      </c>
+      <c r="D1740">
+        <v>9.148576736450195</v>
+      </c>
+      <c r="E1740">
+        <v>10.64120006561279</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:5">
+      <c r="A1741" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1741">
+        <v>11.36451816558838</v>
+      </c>
+      <c r="D1741">
+        <v>8.894525527954102</v>
+      </c>
+      <c r="E1741">
+        <v>11.86120414733887</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5">
+      <c r="A1742" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1742">
+        <v>1.361244440078735</v>
+      </c>
+      <c r="D1742">
+        <v>0</v>
+      </c>
+      <c r="E1742">
+        <v>0.9940803647041321</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5">
+      <c r="A1743" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1743">
+        <v>13.6785717010498</v>
+      </c>
+      <c r="D1743">
+        <v>21.93404579162598</v>
+      </c>
+      <c r="E1743">
+        <v>23.72637748718262</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5">
+      <c r="A1744" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1744">
+        <v>1.835204839706421</v>
+      </c>
+      <c r="D1744">
+        <v>1.323745369911194</v>
+      </c>
+      <c r="E1744">
+        <v>1.634479880332947</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5">
+      <c r="A1745" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1745">
+        <v>118.520881652832</v>
+      </c>
+      <c r="D1745">
+        <v>80.93462371826172</v>
+      </c>
+      <c r="E1745">
+        <v>182.2588043212891</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5">
+      <c r="A1746" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C1746">
+        <v>3.38923978805542</v>
+      </c>
+      <c r="D1746">
+        <v>3.809303760528564</v>
+      </c>
+      <c r="E1746">
+        <v>5.064090728759766</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5">
+      <c r="A1747" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1747">
+        <v>17.75777626037598</v>
+      </c>
+      <c r="D1747">
+        <v>11.86329746246338</v>
+      </c>
+      <c r="E1747">
+        <v>17.54285621643066</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5">
+      <c r="A1748" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1748">
+        <v>27.00082969665527</v>
+      </c>
+      <c r="D1748">
+        <v>50.82209396362305</v>
+      </c>
+      <c r="E1748">
+        <v>44.83523941040039</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5">
+      <c r="A1749" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1749">
+        <v>0.1268114596605301</v>
+      </c>
+      <c r="D1749">
+        <v>0.0955243855714798</v>
+      </c>
+      <c r="E1749">
+        <v>0.1433282345533371</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5">
+      <c r="A1750" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1750">
+        <v>1.450285911560059</v>
+      </c>
+      <c r="D1750">
+        <v>0.9450945854187012</v>
+      </c>
+      <c r="E1750">
+        <v>2.400997877120972</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5">
+      <c r="A1751" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1751">
+        <v>8.238221168518066</v>
+      </c>
+      <c r="D1751">
+        <v>11.81199741363525</v>
+      </c>
+      <c r="E1751">
+        <v>13.37504959106445</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5">
+      <c r="A1752" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C1752">
+        <v>1.275501251220703</v>
+      </c>
+      <c r="D1752">
+        <v>1.221671581268311</v>
+      </c>
+      <c r="E1752">
+        <v>2.620865821838379</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5">
+      <c r="A1753" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C1753">
+        <v>13.63334655761719</v>
+      </c>
+      <c r="D1753">
+        <v>3.260971069335938</v>
+      </c>
+      <c r="E1753">
+        <v>7.764853000640869</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5">
+      <c r="A1754" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1754">
+        <v>13.6763219833374</v>
+      </c>
+      <c r="D1754">
+        <v>19.00408172607422</v>
+      </c>
+      <c r="E1754">
+        <v>20.40112686157227</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5">
+      <c r="A1755" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1755">
+        <v>9.168693542480469</v>
+      </c>
+      <c r="D1755">
+        <v>9.718683242797852</v>
+      </c>
+      <c r="E1755">
+        <v>12.23933029174805</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5">
+      <c r="A1756" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1756">
+        <v>9.287335395812988</v>
+      </c>
+      <c r="D1756">
+        <v>9.416241645812988</v>
+      </c>
+      <c r="E1756">
+        <v>11.25144100189209</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5">
+      <c r="A1757" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1757">
+        <v>1.58521044254303</v>
+      </c>
+      <c r="D1757">
+        <v>1.16988205909729</v>
+      </c>
+      <c r="E1757">
+        <v>2.43241548538208</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5">
+      <c r="A1758" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C1758">
+        <v>1.313085317611694</v>
+      </c>
+      <c r="D1758">
+        <v>3.451415777206421</v>
+      </c>
+      <c r="E1758">
+        <v>3.366630792617798</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5">
+      <c r="A1759" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1759">
+        <v>0</v>
+      </c>
+      <c r="D1759">
+        <v>0</v>
+      </c>
+      <c r="E1759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5">
+      <c r="A1760" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1760">
+        <v>13.00649261474609</v>
+      </c>
+      <c r="D1760">
+        <v>14.98176765441895</v>
+      </c>
+      <c r="E1760">
+        <v>19.45181083679199</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5">
+      <c r="A1761" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1761">
+        <v>5.294060707092285</v>
+      </c>
+      <c r="D1761">
+        <v>6.964319229125977</v>
+      </c>
+      <c r="E1761">
+        <v>8.865100860595703</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5">
+      <c r="A1762" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1762">
+        <v>5.26345682144165</v>
+      </c>
+      <c r="D1762">
+        <v>4.818901062011719</v>
+      </c>
+      <c r="E1762">
+        <v>6.360226154327393</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5">
+      <c r="A1763" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1763">
+        <v>8.325241088867188</v>
+      </c>
+      <c r="D1763">
+        <v>12.67552471160889</v>
+      </c>
+      <c r="E1763">
+        <v>15.34538745880127</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5">
+      <c r="A1764" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1764">
+        <v>10.51992321014404</v>
+      </c>
+      <c r="D1764">
+        <v>14.17668533325195</v>
+      </c>
+      <c r="E1764">
+        <v>16.6205883026123</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5">
+      <c r="A1765" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1765">
+        <v>1.077194333076477</v>
+      </c>
+      <c r="D1765">
+        <v>0.7209699153900146</v>
+      </c>
+      <c r="E1765">
+        <v>1.284729957580566</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5">
+      <c r="A1766" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1766">
+        <v>7.037332534790039</v>
+      </c>
+      <c r="D1766">
+        <v>8.7470703125</v>
+      </c>
+      <c r="E1766">
+        <v>11.3609561920166</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5">
+      <c r="A1767" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1767">
+        <v>13.65457916259766</v>
+      </c>
+      <c r="D1767">
+        <v>5.162581920623779</v>
+      </c>
+      <c r="E1767">
+        <v>10.25216197967529</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5">
+      <c r="A1768" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C1768">
+        <v>2.096848487854004</v>
+      </c>
+      <c r="D1768">
+        <v>1.616759896278381</v>
+      </c>
+      <c r="E1768">
+        <v>2.911685943603516</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5">
+      <c r="A1769" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1769">
+        <v>23.19849967956543</v>
+      </c>
+      <c r="D1769">
+        <v>12.37741851806641</v>
+      </c>
+      <c r="E1769">
+        <v>23.20733451843262</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5">
+      <c r="A1770" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5">
+      <c r="A1771" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1771">
+        <v>11.26494789123535</v>
+      </c>
+      <c r="D1771">
+        <v>12.90354442596436</v>
+      </c>
+      <c r="E1771">
+        <v>14.65089511871338</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5">
+      <c r="A1772" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1772">
+        <v>4.486217975616455</v>
+      </c>
+      <c r="D1772">
+        <v>4.022979259490967</v>
+      </c>
+      <c r="E1772">
+        <v>7.49942684173584</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5">
+      <c r="A1773" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1773">
+        <v>36.04162216186523</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5">
+      <c r="A1774" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C1774">
+        <v>12.11575317382812</v>
+      </c>
+      <c r="D1774">
+        <v>15.88742065429688</v>
+      </c>
+      <c r="E1774">
+        <v>17.31737327575684</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5">
+      <c r="A1775" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1775">
+        <v>8.145047187805176</v>
+      </c>
+      <c r="D1775">
+        <v>15.19632720947266</v>
+      </c>
+      <c r="E1775">
+        <v>18.25994682312012</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5">
+      <c r="A1776" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1776">
+        <v>5.150447845458984</v>
+      </c>
+      <c r="D1776">
+        <v>7.794849395751953</v>
+      </c>
+      <c r="E1776">
+        <v>9.373167037963867</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5">
+      <c r="A1777" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1777">
+        <v>20.75418281555176</v>
+      </c>
+      <c r="D1777">
+        <v>12.88272476196289</v>
+      </c>
+      <c r="E1777">
+        <v>20.47726821899414</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5">
+      <c r="A1778" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1778">
+        <v>0.7862104773521423</v>
+      </c>
+      <c r="D1778">
+        <v>224.8590393066406</v>
+      </c>
+      <c r="E1778">
+        <v>234.6429748535156</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5">
+      <c r="A1779" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C1779">
+        <v>0.8644489049911499</v>
+      </c>
+      <c r="D1779">
+        <v>0.6347739696502686</v>
+      </c>
+      <c r="E1779">
+        <v>1.311270475387573</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5">
+      <c r="A1780" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1780">
+        <v>26.20874786376953</v>
+      </c>
+      <c r="D1780">
+        <v>11.23091888427734</v>
+      </c>
+      <c r="E1780">
+        <v>19.3926830291748</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5">
+      <c r="A1781" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1781">
+        <v>21.19446182250977</v>
+      </c>
+      <c r="D1781">
+        <v>25.24505043029785</v>
+      </c>
+      <c r="E1781">
+        <v>38.52029800415039</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5">
+      <c r="A1782" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C1782">
+        <v>21.53973388671875</v>
+      </c>
+      <c r="D1782">
+        <v>10.14539813995361</v>
+      </c>
+      <c r="E1782">
+        <v>17.07102584838867</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5">
+      <c r="A1783" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C1783">
+        <v>0.2484400272369385</v>
+      </c>
+      <c r="D1783">
+        <v>0.5473768711090088</v>
+      </c>
+      <c r="E1783">
+        <v>1.028585910797119</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5">
+      <c r="A1784" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1784">
+        <v>0</v>
+      </c>
+      <c r="D1784">
+        <v>0.07275550067424774</v>
+      </c>
+      <c r="E1784">
+        <v>0.5250588059425354</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5">
+      <c r="A1785" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C1785">
+        <v>0.03241138532757759</v>
+      </c>
+      <c r="D1785">
+        <v>0.1785308420658112</v>
+      </c>
+      <c r="E1785">
+        <v>0.6625459790229797</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5">
+      <c r="A1786" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C1786">
+        <v>1.070126056671143</v>
+      </c>
+      <c r="D1786">
+        <v>0.4657852947711945</v>
+      </c>
+      <c r="E1786">
+        <v>3.269106388092041</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5">
+      <c r="A1787" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1787">
+        <v>0</v>
+      </c>
+      <c r="D1787">
+        <v>0</v>
+      </c>
+      <c r="E1787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5">
+      <c r="A1788" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1788">
+        <v>2.565798759460449</v>
+      </c>
+      <c r="D1788">
+        <v>2.516010999679565</v>
+      </c>
+      <c r="E1788">
+        <v>3.559836149215698</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5">
+      <c r="A1789" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1789">
+        <v>0</v>
+      </c>
+      <c r="D1789">
+        <v>0.1614776998758316</v>
+      </c>
+      <c r="E1789">
+        <v>0.9587888717651367</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5">
+      <c r="A1790" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1790">
+        <v>2.245852947235107</v>
+      </c>
+      <c r="D1790">
+        <v>3.181836128234863</v>
+      </c>
+      <c r="E1790">
+        <v>3.852548837661743</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5">
+      <c r="A1791" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C1791">
+        <v>8.006160736083984</v>
+      </c>
+      <c r="D1791">
+        <v>24.26560211181641</v>
+      </c>
+      <c r="E1791">
+        <v>15.89193153381348</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5">
+      <c r="A1792" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1792">
+        <v>5.542262077331543</v>
+      </c>
+      <c r="D1792">
+        <v>10.68194770812988</v>
+      </c>
+      <c r="E1792">
+        <v>14.47788619995117</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5">
+      <c r="A1793" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1793">
+        <v>6.609262943267822</v>
+      </c>
+      <c r="D1793">
+        <v>7.829609870910645</v>
+      </c>
+      <c r="E1793">
+        <v>9.878416061401367</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5">
+      <c r="A1794" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1794">
+        <v>10.88199520111084</v>
+      </c>
+      <c r="D1794">
+        <v>7.387710094451904</v>
+      </c>
+      <c r="E1794">
+        <v>12.3230619430542</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5">
+      <c r="A1795" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C1795">
+        <v>1.177803754806519</v>
+      </c>
+      <c r="D1795">
+        <v>2.518086671829224</v>
+      </c>
+      <c r="E1795">
+        <v>3.68719482421875</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5">
+      <c r="A1796" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1796">
+        <v>4.1589035987854</v>
+      </c>
+      <c r="D1796">
+        <v>7.43221378326416</v>
+      </c>
+      <c r="E1796">
+        <v>9.63896656036377</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5">
+      <c r="A1797" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1797">
+        <v>4.161157131195068</v>
+      </c>
+      <c r="D1797">
+        <v>8.019498825073242</v>
+      </c>
+      <c r="E1797">
+        <v>11.21707725524902</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5">
+      <c r="A1798" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1798">
+        <v>0.4817444682121277</v>
+      </c>
+      <c r="D1798">
+        <v>0</v>
+      </c>
+      <c r="E1798">
+        <v>0.5024773478507996</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5">
+      <c r="A1799" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1799">
+        <v>13.52527809143066</v>
+      </c>
+      <c r="D1799">
+        <v>22.02934074401855</v>
+      </c>
+      <c r="E1799">
+        <v>25.81283187866211</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5">
+      <c r="A1800" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1800">
+        <v>0.6739151477813721</v>
+      </c>
+      <c r="D1800">
+        <v>1.534728288650513</v>
+      </c>
+      <c r="E1800">
+        <v>1.926530480384827</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5">
+      <c r="A1801" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C1801">
+        <v>19.48347091674805</v>
+      </c>
+      <c r="D1801">
+        <v>29.03188896179199</v>
+      </c>
+      <c r="E1801">
+        <v>31.07629776000977</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5">
+      <c r="A1802" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1802">
+        <v>1.528901338577271</v>
+      </c>
+      <c r="D1802">
+        <v>2.463681936264038</v>
+      </c>
+      <c r="E1802">
+        <v>2.979595184326172</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5">
+      <c r="A1803" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C1803">
+        <v>8.749588012695312</v>
+      </c>
+      <c r="D1803">
+        <v>8.187165260314941</v>
+      </c>
+      <c r="E1803">
+        <v>10.83564567565918</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5">
+      <c r="A1804" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1804">
+        <v>8.81158447265625</v>
+      </c>
+      <c r="D1804">
+        <v>22.7807788848877</v>
+      </c>
+      <c r="E1804">
+        <v>16.90532302856445</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5">
+      <c r="A1805" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1805">
+        <v>0.08189591765403748</v>
+      </c>
+      <c r="D1805">
+        <v>0.05897057056427002</v>
+      </c>
+      <c r="E1805">
+        <v>0.0870903953909874</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5">
+      <c r="A1806" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C1806">
+        <v>0</v>
+      </c>
+      <c r="D1806">
+        <v>0.08999065309762955</v>
+      </c>
+      <c r="E1806">
+        <v>0.6320319771766663</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5">
+      <c r="A1807" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1807">
+        <v>3.797988891601562</v>
+      </c>
+      <c r="D1807">
+        <v>6.347126483917236</v>
+      </c>
+      <c r="E1807">
+        <v>8.179964065551758</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5">
+      <c r="A1808" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1808">
+        <v>0</v>
+      </c>
+      <c r="D1808">
+        <v>0.1029649749398232</v>
+      </c>
+      <c r="E1808">
+        <v>0.6577742099761963</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5">
+      <c r="A1809" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C1809">
+        <v>4.370571136474609</v>
+      </c>
+      <c r="D1809">
+        <v>2.206554174423218</v>
+      </c>
+      <c r="E1809">
+        <v>3.956382513046265</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5">
+      <c r="A1810" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1810">
+        <v>8.373692512512207</v>
+      </c>
+      <c r="D1810">
+        <v>13.42401313781738</v>
+      </c>
+      <c r="E1810">
+        <v>16.43477630615234</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5">
+      <c r="A1811" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1811">
+        <v>3.818506002426147</v>
+      </c>
+      <c r="D1811">
+        <v>5.770203113555908</v>
+      </c>
+      <c r="E1811">
+        <v>6.87429141998291</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5">
+      <c r="A1812" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1812">
+        <v>3.776609420776367</v>
+      </c>
+      <c r="D1812">
+        <v>7.324535846710205</v>
+      </c>
+      <c r="E1812">
+        <v>9.888214111328125</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5">
+      <c r="A1813" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1813">
+        <v>0.02305141091346741</v>
+      </c>
+      <c r="D1813">
+        <v>0.1449735164642334</v>
+      </c>
+      <c r="E1813">
+        <v>0.6674965023994446</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5">
+      <c r="A1814" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1814">
+        <v>1.335697174072266</v>
+      </c>
+      <c r="D1814">
+        <v>2.81827974319458</v>
+      </c>
+      <c r="E1814">
+        <v>3.541366100311279</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5">
+      <c r="A1815" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1815">
+        <v>0</v>
+      </c>
+      <c r="D1815">
+        <v>0</v>
+      </c>
+      <c r="E1815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5">
+      <c r="A1816" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1816">
+        <v>7.260571002960205</v>
+      </c>
+      <c r="D1816">
+        <v>9.585080146789551</v>
+      </c>
+      <c r="E1816">
+        <v>14.60299968719482</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5">
+      <c r="A1817" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1817">
+        <v>3.226261377334595</v>
+      </c>
+      <c r="D1817">
+        <v>5.08337926864624</v>
+      </c>
+      <c r="E1817">
+        <v>6.403004169464111</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5">
+      <c r="A1818" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1818">
+        <v>2.038934707641602</v>
+      </c>
+      <c r="D1818">
+        <v>4.51376485824585</v>
+      </c>
+      <c r="E1818">
+        <v>6.325920104980469</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5">
+      <c r="A1819" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1819">
+        <v>5.20449161529541</v>
+      </c>
+      <c r="D1819">
+        <v>8.906549453735352</v>
+      </c>
+      <c r="E1819">
+        <v>11.77964210510254</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5">
+      <c r="A1820" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1820">
+        <v>4.99324893951416</v>
+      </c>
+      <c r="D1820">
+        <v>8.69389533996582</v>
+      </c>
+      <c r="E1820">
+        <v>8.897510528564453</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:5">
+      <c r="A1821" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1821">
+        <v>0</v>
+      </c>
+      <c r="D1821">
+        <v>0.04857146367430687</v>
+      </c>
+      <c r="E1821">
+        <v>0.3592060804367065</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5">
+      <c r="A1822" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1822">
+        <v>3.219017028808594</v>
+      </c>
+      <c r="D1822">
+        <v>6.023909568786621</v>
+      </c>
+      <c r="E1822">
+        <v>6.696412563323975</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5">
+      <c r="A1823" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1823">
+        <v>6.82002592086792</v>
+      </c>
+      <c r="D1823">
+        <v>3.44066309928894</v>
+      </c>
+      <c r="E1823">
+        <v>6.235110759735107</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5">
+      <c r="A1824" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1824">
+        <v>0</v>
+      </c>
+      <c r="D1824">
+        <v>0.1096699684858322</v>
+      </c>
+      <c r="E1824">
+        <v>0.6482245922088623</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5">
+      <c r="A1825" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1825">
+        <v>7.492904186248779</v>
+      </c>
+      <c r="D1825">
+        <v>7.322653293609619</v>
+      </c>
+      <c r="E1825">
+        <v>9.941239356994629</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5">
+      <c r="A1826" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1826">
+        <v>97.80448150634766</v>
+      </c>
+      <c r="E1826">
+        <v>130.9531555175781</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5">
+      <c r="A1827" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1827">
+        <v>5.522768020629883</v>
+      </c>
+      <c r="D1827">
+        <v>9.789958953857422</v>
+      </c>
+      <c r="E1827">
+        <v>12.5013952255249</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5">
+      <c r="A1828" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1828">
+        <v>0.03171971812844276</v>
+      </c>
+      <c r="D1828">
+        <v>0.3769749999046326</v>
+      </c>
+      <c r="E1828">
+        <v>1.666214466094971</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5">
+      <c r="A1829" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1829">
+        <v>10.77415943145752</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5">
+      <c r="A1830" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1830">
+        <v>8.154433250427246</v>
+      </c>
+      <c r="D1830">
+        <v>13.67916965484619</v>
+      </c>
+      <c r="E1830">
+        <v>16.47416877746582</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5">
+      <c r="A1831" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1831">
+        <v>4.905763626098633</v>
+      </c>
+      <c r="D1831">
+        <v>7.806684017181396</v>
+      </c>
+      <c r="E1831">
+        <v>10.56032943725586</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5">
+      <c r="A1832" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1832">
+        <v>3.381463527679443</v>
+      </c>
+      <c r="D1832">
+        <v>6.258751392364502</v>
+      </c>
+      <c r="E1832">
+        <v>7.945755004882812</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5">
+      <c r="A1833" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1833">
+        <v>8.433628082275391</v>
+      </c>
+      <c r="D1833">
+        <v>7.893136024475098</v>
+      </c>
+      <c r="E1833">
+        <v>10.43883991241455</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5">
+      <c r="A1834" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1834">
+        <v>1.425748467445374</v>
+      </c>
+      <c r="D1834">
+        <v>56.74431228637695</v>
+      </c>
+      <c r="E1834">
+        <v>63.71674346923828</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5">
+      <c r="A1835" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1835">
+        <v>0.00303438282571733</v>
+      </c>
+      <c r="D1835">
+        <v>0.0362035259604454</v>
+      </c>
+      <c r="E1835">
+        <v>0.1985399574041367</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5">
+      <c r="A1836" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1836">
+        <v>12.97202396392822</v>
+      </c>
+      <c r="D1836">
+        <v>7.139035224914551</v>
+      </c>
+      <c r="E1836">
+        <v>11.59365749359131</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5">
+      <c r="A1837" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C1837">
+        <v>7.725818157196045</v>
+      </c>
+      <c r="D1837">
+        <v>13.35719203948975</v>
+      </c>
+      <c r="E1837">
+        <v>14.77319717407227</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5">
+      <c r="A1838" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1838">
+        <v>10.53853511810303</v>
+      </c>
+      <c r="D1838">
+        <v>6.446229457855225</v>
+      </c>
+      <c r="E1838">
+        <v>9.90286922454834</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5">
+      <c r="A1839" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C1839">
+        <v>-8.940157890319824</v>
+      </c>
+      <c r="D1839">
+        <v>-10.28324222564697</v>
+      </c>
+      <c r="E1839">
+        <v>-9.841169357299805</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5">
+      <c r="A1840" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1840">
+        <v>-28.45031547546387</v>
+      </c>
+      <c r="D1840">
+        <v>-100</v>
+      </c>
+      <c r="E1840">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5">
+      <c r="A1841" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1841">
+        <v>27.62912940979004</v>
+      </c>
+      <c r="D1841">
+        <v>28.98475074768066</v>
+      </c>
+      <c r="E1841">
+        <v>30.40701866149902</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5">
+      <c r="A1842" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1842">
+        <v>-97.96548461914062</v>
+      </c>
+      <c r="D1842">
+        <v>-97.9892578125</v>
+      </c>
+      <c r="E1842">
+        <v>-97.94863128662109</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5">
+      <c r="A1843" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1843">
+        <v>-25.80515670776367</v>
+      </c>
+      <c r="D1843">
+        <v>-25.80810546875</v>
+      </c>
+      <c r="E1843">
+        <v>-25.80306816101074</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5">
+      <c r="A1844" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1844">
+        <v>-92.50789642333984</v>
+      </c>
+      <c r="D1844">
+        <v>-92.59545135498047</v>
+      </c>
+      <c r="E1844">
+        <v>-92.44584655761719</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5">
+      <c r="A1845" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1845">
+        <v>45.0267219543457</v>
+      </c>
+      <c r="D1845">
+        <v>33.20018005371094</v>
+      </c>
+      <c r="E1845">
+        <v>48.18932342529297</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5">
+      <c r="A1846" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1846">
+        <v>-26.64229202270508</v>
+      </c>
+      <c r="D1846">
+        <v>-31.61293411254883</v>
+      </c>
+      <c r="E1846">
+        <v>-29.40289115905762</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5">
+      <c r="A1847" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1847">
+        <v>-23.46528625488281</v>
+      </c>
+      <c r="D1847">
+        <v>-19.79804611206055</v>
+      </c>
+      <c r="E1847">
+        <v>-18.66863250732422</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5">
+      <c r="A1848" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1848">
+        <v>138.2331390380859</v>
+      </c>
+      <c r="D1848">
+        <v>162.4386138916016</v>
+      </c>
+      <c r="E1848">
+        <v>170.8627471923828</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5">
+      <c r="A1849" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C1849">
+        <v>-10.17635631561279</v>
+      </c>
+      <c r="D1849">
+        <v>-10.70745944976807</v>
+      </c>
+      <c r="E1849">
+        <v>-9.646365165710449</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5">
+      <c r="A1850" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1850">
+        <v>43.4904670715332</v>
+      </c>
+      <c r="D1850">
+        <v>-100</v>
+      </c>
+      <c r="E1850">
+        <v>53.30073547363281</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5">
+      <c r="A1851" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1851">
+        <v>-22.16069221496582</v>
+      </c>
+      <c r="D1851">
+        <v>-21.57657432556152</v>
+      </c>
+      <c r="E1851">
+        <v>-19.96999931335449</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5">
+      <c r="A1852" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C1852">
+        <v>-23.71253204345703</v>
+      </c>
+      <c r="D1852">
+        <v>-25.97347068786621</v>
+      </c>
+      <c r="E1852">
+        <v>-25.61108779907227</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:5">
+      <c r="A1853" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1853">
+        <v>-30.15028762817383</v>
+      </c>
+      <c r="D1853">
+        <v>-33.98865127563477</v>
+      </c>
+      <c r="E1853">
+        <v>-32.14559173583984</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5">
+      <c r="A1854" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1854">
+        <v>-100</v>
+      </c>
+      <c r="D1854">
+        <v>-100</v>
+      </c>
+      <c r="E1854">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5">
+      <c r="A1855" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1855">
+        <v>-29.41009140014648</v>
+      </c>
+      <c r="D1855">
+        <v>-29.41009140014648</v>
+      </c>
+      <c r="E1855">
+        <v>-29.41009140014648</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5">
+      <c r="A1856" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1856">
+        <v>-25.99195861816406</v>
+      </c>
+      <c r="D1856">
+        <v>-22.63495254516602</v>
+      </c>
+      <c r="E1856">
+        <v>-20.26705169677734</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:5">
+      <c r="A1857" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1857">
+        <v>-29.07699394226074</v>
+      </c>
+      <c r="D1857">
+        <v>-29.23058891296387</v>
+      </c>
+      <c r="E1857">
+        <v>-28.31185913085938</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:5">
+      <c r="A1858" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1858">
+        <v>17.64059066772461</v>
+      </c>
+      <c r="D1858">
+        <v>8.361394882202148</v>
+      </c>
+      <c r="E1858">
+        <v>12.10616874694824</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:5">
+      <c r="A1859" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1859">
+        <v>-39.1231689453125</v>
+      </c>
+      <c r="D1859">
+        <v>-37.74115371704102</v>
+      </c>
+      <c r="E1859">
+        <v>-37.02981948852539</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:5">
+      <c r="A1860" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1860">
+        <v>-88.8736572265625</v>
+      </c>
+      <c r="D1860">
+        <v>-89.00368499755859</v>
+      </c>
+      <c r="E1860">
+        <v>-88.78150939941406</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:5">
+      <c r="A1861" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1861">
+        <v>249.8621673583984</v>
+      </c>
+      <c r="D1861">
+        <v>265.9898376464844</v>
+      </c>
+      <c r="E1861">
+        <v>277.5034484863281</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:5">
+      <c r="A1862" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1862">
+        <v>-21.96667289733887</v>
+      </c>
+      <c r="D1862">
+        <v>-20.1750545501709</v>
+      </c>
+      <c r="E1862">
+        <v>-16.58968353271484</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:5">
+      <c r="A1863" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1863">
+        <v>-99.01702880859375</v>
+      </c>
+      <c r="D1863">
+        <v>-99.02851867675781</v>
+      </c>
+      <c r="E1863">
+        <v>-99.00888824462891</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:5">
+      <c r="A1864" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1864">
+        <v>-97.70296478271484</v>
+      </c>
+      <c r="D1864">
+        <v>-97.72980499267578</v>
+      </c>
+      <c r="E1864">
+        <v>-97.68393707275391</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:5">
+      <c r="A1865" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1865">
+        <v>-85.38395690917969</v>
+      </c>
+      <c r="D1865">
+        <v>-85.55476379394531</v>
+      </c>
+      <c r="E1865">
+        <v>-85.26290130615234</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:5">
+      <c r="A1866" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1866">
+        <v>-94.00336456298828</v>
+      </c>
+      <c r="D1866">
+        <v>-94.07344818115234</v>
+      </c>
+      <c r="E1866">
+        <v>-93.95370483398438</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:5">
+      <c r="A1867" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1867">
+        <v>-27.35002708435059</v>
+      </c>
+      <c r="D1867">
+        <v>-27.77956199645996</v>
+      </c>
+      <c r="E1867">
+        <v>-26.5982551574707</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:5">
+      <c r="A1868" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1868">
+        <v>6.862723827362061</v>
+      </c>
+      <c r="D1868">
+        <v>-100</v>
+      </c>
+      <c r="E1868">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:5">
+      <c r="A1869" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1869">
+        <v>7.58171272277832</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:5">
+      <c r="A1870" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1870">
+        <v>24.05439949035645</v>
+      </c>
+      <c r="D1870">
+        <v>10.6007251739502</v>
+      </c>
+      <c r="E1870">
+        <v>13.46783351898193</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:5">
+      <c r="A1871" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1871">
+        <v>2657.453125</v>
+      </c>
+      <c r="D1871">
+        <v>12.02837181091309</v>
+      </c>
+      <c r="E1871">
+        <v>15.17903900146484</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:5">
+      <c r="A1872" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1872">
+        <v>25.22663307189941</v>
+      </c>
+      <c r="D1872">
+        <v>25.99800300598145</v>
+      </c>
+      <c r="E1872">
+        <v>27.37622261047363</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:5">
+      <c r="A1873" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1873">
+        <v>903.446044921875</v>
+      </c>
+      <c r="D1873">
+        <v>780.440185546875</v>
+      </c>
+      <c r="E1873">
+        <v>796.982666015625</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:5">
+      <c r="A1874" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1874">
+        <v>27.49294853210449</v>
+      </c>
+      <c r="D1874">
+        <v>-100</v>
+      </c>
+      <c r="E1874">
+        <v>16.58352088928223</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:5">
+      <c r="A1875" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C1875">
+        <v>27.82895469665527</v>
+      </c>
+      <c r="D1875">
+        <v>28.59170532226562</v>
+      </c>
+      <c r="E1875">
+        <v>35.24016571044922</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:5">
+      <c r="A1876" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1876">
+        <v>11.80511569976807</v>
+      </c>
+      <c r="D1876">
+        <v>9.253467559814453</v>
+      </c>
+      <c r="E1876">
+        <v>16.24175643920898</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:5">
+      <c r="A1877" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C1877">
+        <v>18.82792282104492</v>
+      </c>
+      <c r="D1877">
+        <v>14.69610500335693</v>
+      </c>
+      <c r="E1877">
+        <v>22.01045989990234</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:5">
+      <c r="A1878" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1878">
+        <v>6.692920684814453</v>
+      </c>
+      <c r="D1878">
+        <v>3.490712404251099</v>
+      </c>
+      <c r="E1878">
+        <v>4.539451599121094</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:5">
+      <c r="A1879" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1879">
+        <v>1.643964290618896</v>
+      </c>
+      <c r="E1879">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:5">
+      <c r="A1880" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1880">
+        <v>22.28820610046387</v>
+      </c>
+      <c r="D1880">
+        <v>3.529137849807739</v>
+      </c>
+      <c r="E1880">
+        <v>7.26594352722168</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:5">
+      <c r="A1881" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1881">
+        <v>7.137650489807129</v>
+      </c>
+      <c r="D1881">
+        <v>4.957151889801025</v>
+      </c>
+      <c r="E1881">
+        <v>5.108507633209229</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:5">
+      <c r="A1882" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1882">
+        <v>20.13122367858887</v>
+      </c>
+      <c r="D1882">
+        <v>14.03321838378906</v>
+      </c>
+      <c r="E1882">
+        <v>17.37783241271973</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:5">
+      <c r="A1883" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:5">
+      <c r="A1884" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1884">
+        <v>17.09033584594727</v>
+      </c>
+      <c r="D1884">
+        <v>17.09033584594727</v>
+      </c>
+      <c r="E1884">
+        <v>17.09033584594727</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:5">
+      <c r="A1885" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1885">
+        <v>9.402849197387695</v>
+      </c>
+      <c r="D1885">
+        <v>6.647522926330566</v>
+      </c>
+      <c r="E1885">
+        <v>11.64308643341064</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:5">
+      <c r="A1886" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1886">
+        <v>15.52823543548584</v>
+      </c>
+      <c r="D1886">
+        <v>1.851727604866028</v>
+      </c>
+      <c r="E1886">
+        <v>6.139818668365479</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:5">
+      <c r="A1887" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1887">
+        <v>9.152072906494141</v>
+      </c>
+      <c r="D1887">
+        <v>3.019472599029541</v>
+      </c>
+      <c r="E1887">
+        <v>5.885316371917725</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:5">
+      <c r="A1888" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1888">
+        <v>17.12021064758301</v>
+      </c>
+      <c r="D1888">
+        <v>5.537042617797852</v>
+      </c>
+      <c r="E1888">
+        <v>7.69061279296875</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:5">
+      <c r="A1889" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1889">
+        <v>1246.728271484375</v>
+      </c>
+      <c r="D1889">
+        <v>1134.054565429688</v>
+      </c>
+      <c r="E1889">
+        <v>1155.896606445312</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:5">
+      <c r="A1890" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1890">
+        <v>32.31802749633789</v>
+      </c>
+      <c r="D1890">
+        <v>29.08674812316895</v>
+      </c>
+      <c r="E1890">
+        <v>35.35954666137695</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:5">
+      <c r="A1891" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C1891">
+        <v>16.34242248535156</v>
+      </c>
+      <c r="D1891">
+        <v>3.881914377212524</v>
+      </c>
+      <c r="E1891">
+        <v>7.013106346130371</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:5">
+      <c r="A1892" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1892">
+        <v>7679.8896484375</v>
+      </c>
+      <c r="D1892">
+        <v>6154.1376953125</v>
+      </c>
+      <c r="E1892">
+        <v>6765.2626953125</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:5">
+      <c r="A1893" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1893">
+        <v>2312.51416015625</v>
+      </c>
+      <c r="D1893">
+        <v>12.02837181091309</v>
+      </c>
+      <c r="E1893">
+        <v>15.17903900146484</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:5">
+      <c r="A1894" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1894">
+        <v>667.0103149414062</v>
+      </c>
+      <c r="D1894">
+        <v>641.07568359375</v>
+      </c>
+      <c r="E1894">
+        <v>605.4154052734375</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:5">
+      <c r="A1895" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C1895">
+        <v>753.2020263671875</v>
+      </c>
+      <c r="D1895">
+        <v>12.02837181091309</v>
+      </c>
+      <c r="E1895">
+        <v>15.17903900146484</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:5">
+      <c r="A1896" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C1896">
+        <v>11.64621639251709</v>
+      </c>
+      <c r="D1896">
+        <v>-94.14774322509766</v>
+      </c>
+      <c r="E1896">
+        <v>2.993500709533691</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:5">
+      <c r="A1897" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1897">
+        <v>7.468527317047119</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:5">
+      <c r="A1898" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1898">
+        <v>8.318314552307129</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:5">
+      <c r="A1899" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1899">
+        <v>8.760002136230469</v>
+      </c>
+      <c r="D1899">
+        <v>-99.64057159423828</v>
+      </c>
+      <c r="E1899">
+        <v>-99.62746429443359</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:5">
+      <c r="A1900" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1900">
+        <v>13.06198024749756</v>
+      </c>
+      <c r="D1900">
+        <v>2262.28076171875</v>
+      </c>
+      <c r="E1900">
+        <v>2295.578369140625</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:5">
+      <c r="A1901" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1901">
+        <v>3.836580038070679</v>
+      </c>
+      <c r="D1901">
+        <v>17.32173728942871</v>
+      </c>
+      <c r="E1901">
+        <v>20.05820655822754</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:5">
+      <c r="A1902" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C1902">
+        <v>4.046356201171875</v>
+      </c>
+      <c r="D1902">
+        <v>-85.02593994140625</v>
+      </c>
+      <c r="E1902">
+        <v>-84.51177978515625</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:5">
+      <c r="A1903" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1903">
+        <v>22.17300224304199</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1903">
+        <v>15.68651962280273</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:5">
+      <c r="A1904" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1904">
+        <v>20.58630561828613</v>
+      </c>
+      <c r="D1904">
+        <v>19.47366905212402</v>
+      </c>
+      <c r="E1904">
+        <v>22.5789794921875</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:5">
+      <c r="A1905" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1905">
+        <v>12.10302829742432</v>
+      </c>
+      <c r="D1905">
+        <v>9.294498443603516</v>
+      </c>
+      <c r="E1905">
+        <v>13.84101581573486</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:5">
+      <c r="A1906" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C1906">
+        <v>7.851326465606689</v>
+      </c>
+      <c r="D1906">
+        <v>-69.68054962158203</v>
+      </c>
+      <c r="E1906">
+        <v>-68.89122009277344</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:5">
+      <c r="A1907" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1907">
+        <v>7.136096477508545</v>
+      </c>
+      <c r="D1907">
+        <v>5.08370304107666</v>
+      </c>
+      <c r="E1907">
+        <v>6.099717140197754</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:5">
+      <c r="A1908" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1908">
+        <v>0.4043438136577606</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:5">
+      <c r="A1909" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1909">
+        <v>18.1339111328125</v>
+      </c>
+      <c r="D1909">
+        <v>3.263134002685547</v>
+      </c>
+      <c r="E1909">
+        <v>14.61375045776367</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:5">
+      <c r="A1910" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1910">
+        <v>8.71646785736084</v>
+      </c>
+      <c r="D1910">
+        <v>4.783885478973389</v>
+      </c>
+      <c r="E1910">
+        <v>6.025421619415283</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:5">
+      <c r="A1911" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C1911">
+        <v>7.151594161987305</v>
+      </c>
+      <c r="D1911">
+        <v>2.854996204376221</v>
+      </c>
+      <c r="E1911">
+        <v>4.24039888381958</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:5">
+      <c r="A1912" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1912">
+        <v>6.514657974243164</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:5">
+      <c r="A1913" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1913">
+        <v>22.69301605224609</v>
+      </c>
+      <c r="D1913">
+        <v>22.69301605224609</v>
+      </c>
+      <c r="E1913">
+        <v>22.69301605224609</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:5">
+      <c r="A1914" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1914">
+        <v>5.309175491333008</v>
+      </c>
+      <c r="D1914">
+        <v>3.499712944030762</v>
+      </c>
+      <c r="E1914">
+        <v>7.045456886291504</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:5">
+      <c r="A1915" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1915">
+        <v>16.73989486694336</v>
+      </c>
+      <c r="D1915">
+        <v>6.554084300994873</v>
+      </c>
+      <c r="E1915">
+        <v>14.0118465423584</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:5">
+      <c r="A1916" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1916">
+        <v>43.83361434936523</v>
+      </c>
+      <c r="D1916">
+        <v>33.55083847045898</v>
+      </c>
+      <c r="E1916">
+        <v>32.8935661315918</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:5">
+      <c r="A1917" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1917">
+        <v>13.81486988067627</v>
+      </c>
+      <c r="D1917">
+        <v>20.50991439819336</v>
+      </c>
+      <c r="E1917">
+        <v>31.8197078704834</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:5">
+      <c r="A1918" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C1918">
+        <v>7.464813232421875</v>
+      </c>
+      <c r="D1918">
+        <v>-89.31671142578125</v>
+      </c>
+      <c r="E1918">
+        <v>-88.93804931640625</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:5">
+      <c r="A1919" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1919">
+        <v>15.54188823699951</v>
+      </c>
+      <c r="D1919">
+        <v>12.45337200164795</v>
+      </c>
+      <c r="E1919">
+        <v>17.29500770568848</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:5">
+      <c r="A1920" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1920">
+        <v>12.48497772216797</v>
+      </c>
+      <c r="D1920">
+        <v>-96.79002380371094</v>
+      </c>
+      <c r="E1920">
+        <v>2.522807598114014</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:5">
+      <c r="A1921" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1921">
+        <v>42.09703063964844</v>
+      </c>
+      <c r="D1921">
+        <v>22.67024040222168</v>
+      </c>
+      <c r="E1921">
+        <v>36.33816909790039</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:5">
+      <c r="A1922" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1922">
+        <v>11.00553321838379</v>
+      </c>
+      <c r="D1922">
+        <v>17.68236923217773</v>
+      </c>
+      <c r="E1922">
+        <v>20.61801719665527</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:5">
+      <c r="A1923" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C1923">
+        <v>9.618955612182617</v>
+      </c>
+      <c r="D1923">
+        <v>11.66934490203857</v>
+      </c>
+      <c r="E1923">
+        <v>11.94405364990234</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:5">
+      <c r="A1924" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1924">
+        <v>7.006062030792236</v>
+      </c>
+      <c r="D1924">
+        <v>17.68236923217773</v>
+      </c>
+      <c r="E1924">
+        <v>20.61801719665527</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:5">
+      <c r="A1925" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1925">
+        <v>9.17125415802002</v>
+      </c>
+      <c r="D1925">
+        <v>1625.178588867188</v>
+      </c>
+      <c r="E1925">
+        <v>2.40341854095459</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:5">
+      <c r="A1926" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1926">
+        <v>8.000015258789062</v>
+      </c>
+      <c r="D1926">
+        <v>3.901735305786133</v>
+      </c>
+      <c r="E1926">
+        <v>5.82514762878418</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:5">
+      <c r="A1927" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1927">
+        <v>18.00707054138184</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1927" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:5">
+      <c r="A1928" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1928">
+        <v>8.043951034545898</v>
+      </c>
+      <c r="D1928">
+        <v>29602.5546875</v>
+      </c>
+      <c r="E1928">
+        <v>28343.052734375</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:5">
+      <c r="A1929" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1929">
+        <v>11.10453128814697</v>
+      </c>
+      <c r="D1929">
+        <v>13.94086265563965</v>
+      </c>
+      <c r="E1929">
+        <v>25.02372550964355</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:5">
+      <c r="A1930" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1930">
+        <v>2.330730676651001</v>
+      </c>
+      <c r="D1930">
+        <v>11.10030174255371</v>
+      </c>
+      <c r="E1930">
+        <v>12.53560543060303</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:5">
+      <c r="A1931" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1931">
+        <v>3.449650526046753</v>
+      </c>
+      <c r="D1931">
+        <v>582.2554321289062</v>
+      </c>
+      <c r="E1931">
+        <v>21.28029632568359</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:5">
+      <c r="A1932" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1932">
+        <v>17.85250663757324</v>
+      </c>
+      <c r="D1932">
+        <v>11.73312568664551</v>
+      </c>
+      <c r="E1932">
+        <v>12.11813449859619</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:5">
+      <c r="A1933" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1933">
+        <v>10.27401828765869</v>
+      </c>
+      <c r="D1933">
+        <v>4.47040319442749</v>
+      </c>
+      <c r="E1933">
+        <v>7.517856597900391</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:5">
+      <c r="A1934" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1934">
+        <v>11.84947204589844</v>
+      </c>
+      <c r="D1934">
+        <v>6.557873725891113</v>
+      </c>
+      <c r="E1934">
+        <v>8.900356292724609</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:5">
+      <c r="A1935" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1935">
+        <v>15.08343124389648</v>
+      </c>
+      <c r="D1935">
+        <v>260.1383056640625</v>
+      </c>
+      <c r="E1935">
+        <v>283.6507568359375</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:5">
+      <c r="A1936" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C1936">
+        <v>20.92133712768555</v>
+      </c>
+      <c r="D1936">
+        <v>19.52780151367188</v>
+      </c>
+      <c r="E1936">
+        <v>45.95585632324219</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:5">
+      <c r="A1937" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1937">
+        <v>0.4027154445648193</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:5">
+      <c r="A1938" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1938">
+        <v>14.06790542602539</v>
+      </c>
+      <c r="D1938">
+        <v>9.393896102905273</v>
+      </c>
+      <c r="E1938">
+        <v>10.7661018371582</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:5">
+      <c r="A1939" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1939">
+        <v>7.772922515869141</v>
+      </c>
+      <c r="D1939">
+        <v>5.264143466949463</v>
+      </c>
+      <c r="E1939">
+        <v>8.392663955688477</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:5">
+      <c r="A1940" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1940">
+        <v>17.69796943664551</v>
+      </c>
+      <c r="D1940">
+        <v>1.137654304504395</v>
+      </c>
+      <c r="E1940">
+        <v>3.189161539077759</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:5">
+      <c r="A1941" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1941">
+        <v>6.116208076477051</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:5">
+      <c r="A1942" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1942">
+        <v>15.85595703125</v>
+      </c>
+      <c r="D1942">
+        <v>15.85595703125</v>
+      </c>
+      <c r="E1942">
+        <v>15.85595703125</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:5">
+      <c r="A1943" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1943">
+        <v>4.366089820861816</v>
+      </c>
+      <c r="D1943">
+        <v>1.675084471702576</v>
+      </c>
+      <c r="E1943">
+        <v>3.053096055984497</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:5">
+      <c r="A1944" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1944">
+        <v>21.99891471862793</v>
+      </c>
+      <c r="D1944">
+        <v>7.843052387237549</v>
+      </c>
+      <c r="E1944">
+        <v>18.04816818237305</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:5">
+      <c r="A1945" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1945">
+        <v>29.99481391906738</v>
+      </c>
+      <c r="D1945">
+        <v>25.09633636474609</v>
+      </c>
+      <c r="E1945">
+        <v>26.42307090759277</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:5">
+      <c r="A1946" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1946">
+        <v>29.35686111450195</v>
+      </c>
+      <c r="D1946">
+        <v>59.33816146850586</v>
+      </c>
+      <c r="E1946">
+        <v>70.34635925292969</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:5">
+      <c r="A1947" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1947">
+        <v>1.436096549034119</v>
+      </c>
+      <c r="D1947">
+        <v>16.96403312683105</v>
+      </c>
+      <c r="E1947">
+        <v>21.28029632568359</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:5">
+      <c r="A1948" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1948">
+        <v>11.4394702911377</v>
+      </c>
+      <c r="D1948">
+        <v>5.691106796264648</v>
+      </c>
+      <c r="E1948">
+        <v>7.954504013061523</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:5">
+      <c r="A1949" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1949">
+        <v>11.00747966766357</v>
+      </c>
+      <c r="D1949">
+        <v>3064.06201171875</v>
+      </c>
+      <c r="E1949">
+        <v>5.331850051879883</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:5">
+      <c r="A1950" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1950">
+        <v>18.76491355895996</v>
+      </c>
+      <c r="D1950">
+        <v>12.48562145233154</v>
+      </c>
+      <c r="E1950">
+        <v>13.15376281738281</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:5">
+      <c r="A1951" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1951">
+        <v>9.910930633544922</v>
+      </c>
+      <c r="D1951">
+        <v>1630.290283203125</v>
+      </c>
+      <c r="E1951">
+        <v>1701.338256835938</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:5">
+      <c r="A1952" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1952">
+        <v>8.229348182678223</v>
+      </c>
+      <c r="D1952">
+        <v>5.859855651855469</v>
+      </c>
+      <c r="E1952">
+        <v>7.219461917877197</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:5">
+      <c r="A1953" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1953">
+        <v>70.09065246582031</v>
+      </c>
+      <c r="D1953">
+        <v>817.7852783203125</v>
+      </c>
+      <c r="E1953">
+        <v>867.1316528320312</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:5">
+      <c r="A1954" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1954">
+        <v>11.60948181152344</v>
+      </c>
+      <c r="D1954">
+        <v>1.506057262420654</v>
+      </c>
+      <c r="E1954">
+        <v>6.103707790374756</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:5">
+      <c r="A1955" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1955">
+        <v>-100</v>
+      </c>
+      <c r="D1955">
+        <v>-100</v>
+      </c>
+      <c r="E1955">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:5">
+      <c r="A1956" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1956">
+        <v>-100</v>
+      </c>
+      <c r="D1956">
+        <v>-100</v>
+      </c>
+      <c r="E1956">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:5">
+      <c r="A1957" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C1957">
+        <v>0.3800555467605591</v>
+      </c>
+      <c r="D1957">
+        <v>17.14908790588379</v>
+      </c>
+      <c r="E1957">
+        <v>9.923203468322754</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:5">
+      <c r="A1958" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1958">
+        <v>0.7732897996902466</v>
+      </c>
+      <c r="D1958">
+        <v>3.639347791671753</v>
+      </c>
+      <c r="E1958">
+        <v>39.60202789306641</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:5">
+      <c r="A1959" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C1959">
+        <v>2.592678546905518</v>
+      </c>
+      <c r="D1959">
+        <v>22.79574012756348</v>
+      </c>
+      <c r="E1959">
+        <v>24.56206703186035</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:5">
+      <c r="A1960" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1960">
+        <v>4.663471698760986</v>
+      </c>
+      <c r="D1960">
+        <v>20.24318695068359</v>
+      </c>
+      <c r="E1960">
+        <v>522.3865356445312</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:5">
+      <c r="A1961" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1961">
+        <v>24.07377815246582</v>
+      </c>
+      <c r="D1961">
+        <v>39.88592529296875</v>
+      </c>
+      <c r="E1961">
+        <v>35.90115737915039</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:5">
+      <c r="A1962" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1962">
+        <v>3.406226396560669</v>
+      </c>
+      <c r="D1962">
+        <v>1.574849605560303</v>
+      </c>
+      <c r="E1962">
+        <v>3.970083236694336</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:5">
+      <c r="A1963" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1963">
+        <v>1.955814480781555</v>
+      </c>
+      <c r="D1963">
+        <v>2.318260431289673</v>
+      </c>
+      <c r="E1963">
+        <v>3.032900333404541</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:5">
+      <c r="A1964" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1964">
+        <v>9.736428260803223</v>
+      </c>
+      <c r="D1964">
+        <v>21.3304615020752</v>
+      </c>
+      <c r="E1964">
+        <v>22.41931343078613</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:5">
+      <c r="A1965" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1965">
+        <v>9.909064292907715</v>
+      </c>
+      <c r="D1965">
+        <v>19.69295883178711</v>
+      </c>
+      <c r="E1965">
+        <v>39.79788970947266</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:5">
+      <c r="A1966" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1966">
+        <v>0.4011001586914062</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:5">
+      <c r="A1967" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1967">
+        <v>7.203895568847656</v>
+      </c>
+      <c r="D1967">
+        <v>22.62425994873047</v>
+      </c>
+      <c r="E1967">
+        <v>17.17148017883301</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:5">
+      <c r="A1968" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C1968">
+        <v>7.024309635162354</v>
+      </c>
+      <c r="D1968">
+        <v>8.091565132141113</v>
+      </c>
+      <c r="E1968">
+        <v>11.07551765441895</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:5">
+      <c r="A1969" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1969">
+        <v>4.059111595153809</v>
+      </c>
+      <c r="D1969">
+        <v>7.404355049133301</v>
+      </c>
+      <c r="E1969">
+        <v>9.057644844055176</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:5">
+      <c r="A1970" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1970">
+        <v>-100</v>
+      </c>
+      <c r="D1970">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:5">
+      <c r="A1971" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1971">
+        <v>0</v>
+      </c>
+      <c r="D1971">
+        <v>0</v>
+      </c>
+      <c r="E1971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:5">
+      <c r="A1972" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C1972">
+        <v>2.626588106155396</v>
+      </c>
+      <c r="D1972">
+        <v>2.276456356048584</v>
+      </c>
+      <c r="E1972">
+        <v>3.594907522201538</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:5">
+      <c r="A1973" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1973">
+        <v>9.776825904846191</v>
+      </c>
+      <c r="D1973">
+        <v>9.25357723236084</v>
+      </c>
+      <c r="E1973">
+        <v>20.41475105285645</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:5">
+      <c r="A1974" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C1974">
+        <v>-3.59332275390625</v>
+      </c>
+      <c r="D1974">
+        <v>-42.47799301147461</v>
+      </c>
+      <c r="E1974">
+        <v>4.293241024017334</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:5">
+      <c r="A1975" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1975">
+        <v>11.90443992614746</v>
+      </c>
+      <c r="D1975">
+        <v>41.63571166992188</v>
+      </c>
+      <c r="E1975">
+        <v>46.91225433349609</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:5">
+      <c r="A1976" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1976">
+        <v>2.393425941467285</v>
+      </c>
+      <c r="D1976">
+        <v>848.453125</v>
+      </c>
+      <c r="E1976">
+        <v>740.5821533203125</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:5">
+      <c r="A1977" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1977">
+        <v>3.402884721755981</v>
+      </c>
+      <c r="D1977">
+        <v>10.24697780609131</v>
+      </c>
+      <c r="E1977">
+        <v>11.45570468902588</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:5">
+      <c r="A1978" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C1978">
+        <v>2.553990125656128</v>
+      </c>
+      <c r="D1978">
+        <v>6.50149393081665</v>
+      </c>
+      <c r="E1978">
+        <v>6.499076843261719</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:5">
+      <c r="A1979" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1979">
+        <v>13.32607173919678</v>
+      </c>
+      <c r="D1979">
+        <v>30.6917610168457</v>
+      </c>
+      <c r="E1979">
+        <v>24.96785736083984</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:5">
+      <c r="A1980" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C1980">
+        <v>-94.15592956542969</v>
+      </c>
+      <c r="D1980">
+        <v>-92.28206634521484</v>
+      </c>
+      <c r="E1980">
+        <v>-92.04338073730469</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:5">
+      <c r="A1981" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1981">
+        <v>-81.09664154052734</v>
+      </c>
+      <c r="D1981">
+        <v>-79.90297698974609</v>
+      </c>
+      <c r="E1981">
+        <v>-76.48257446289062</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:5">
+      <c r="A1982" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1982">
+        <v>13.64478874206543</v>
+      </c>
+      <c r="D1982">
+        <v>26.05955505371094</v>
+      </c>
+      <c r="E1982">
+        <v>23.21361351013184</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:5">
+      <c r="A1983" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1983">
+        <v>2.479773044586182</v>
+      </c>
+      <c r="D1983">
+        <v>5.608715534210205</v>
+      </c>
+      <c r="E1983">
+        <v>9.677143096923828</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:5">
+      <c r="A1984" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:5">
+      <c r="A1985" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:5">
+      <c r="A1986" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1986">
+        <v>0.3451904952526093</v>
+      </c>
+      <c r="D1986">
+        <v>3.687396287918091</v>
+      </c>
+      <c r="E1986">
+        <v>-99.46699523925781</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5">
+      <c r="A1987" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C1987">
+        <v>0.3129008412361145</v>
+      </c>
+      <c r="D1987">
+        <v>50.03044128417969</v>
+      </c>
+      <c r="E1987">
+        <v>72.09524536132812</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:5">
+      <c r="A1988" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1988">
+        <v>2.811794519424438</v>
+      </c>
+      <c r="D1988">
+        <v>17.21816825866699</v>
+      </c>
+      <c r="E1988">
+        <v>18.66708755493164</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:5">
+      <c r="A1989" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C1989">
+        <v>3.052391052246094</v>
+      </c>
+      <c r="D1989">
+        <v>6.871538639068604</v>
+      </c>
+      <c r="E1989">
+        <v>-77.92270660400391</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:5">
+      <c r="A1990" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1990">
+        <v>19.40279197692871</v>
+      </c>
+      <c r="D1990">
+        <v>-100</v>
+      </c>
+      <c r="E1990">
+        <v>17.5788402557373</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5">
+      <c r="A1991" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1991">
+        <v>2.188337564468384</v>
+      </c>
+      <c r="D1991">
+        <v>5.889395713806152</v>
+      </c>
+      <c r="E1991">
+        <v>8.623011589050293</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:5">
+      <c r="A1992" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1992">
+        <v>1.177012801170349</v>
+      </c>
+      <c r="D1992">
+        <v>2.77308201789856</v>
+      </c>
+      <c r="E1992">
+        <v>4.479422569274902</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:5">
+      <c r="A1993" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C1993">
+        <v>-20.85583114624023</v>
+      </c>
+      <c r="D1993">
+        <v>-20.57200622558594</v>
+      </c>
+      <c r="E1993">
+        <v>-19.89276695251465</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:5">
+      <c r="A1994" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1994">
+        <v>17.93227767944336</v>
+      </c>
+      <c r="D1994">
+        <v>20.84437561035156</v>
+      </c>
+      <c r="E1994">
+        <v>40.6120719909668</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:5">
+      <c r="A1995" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C1995">
+        <v>0.399497777223587</v>
+      </c>
+      <c r="D1995">
+        <v>3.639297723770142</v>
+      </c>
+      <c r="E1995">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:5">
+      <c r="A1996" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1996">
+        <v>9.841521263122559</v>
+      </c>
+      <c r="D1996">
+        <v>11.68402194976807</v>
+      </c>
+      <c r="E1996">
+        <v>9.311573028564453</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:5">
+      <c r="A1997" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1997">
+        <v>3.434762477874756</v>
+      </c>
+      <c r="D1997">
+        <v>5.923059940338135</v>
+      </c>
+      <c r="E1997">
+        <v>7.93340015411377</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:5">
+      <c r="A1998" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1998">
+        <v>3.793755292892456</v>
+      </c>
+      <c r="D1998">
+        <v>6.665188312530518</v>
+      </c>
+      <c r="E1998">
+        <v>8.342541694641113</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:5">
+      <c r="A1999" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:5">
+      <c r="A2000" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C2000">
+        <v>0</v>
+      </c>
+      <c r="D2000">
+        <v>0</v>
+      </c>
+      <c r="E2000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:5">
+      <c r="A2001" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C2001">
+        <v>2.583913564682007</v>
+      </c>
+      <c r="D2001">
+        <v>3.495292186737061</v>
+      </c>
+      <c r="E2001">
+        <v>4.579998970031738</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:5">
+      <c r="A2002" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C2002">
+        <v>11.3723611831665</v>
+      </c>
+      <c r="D2002">
+        <v>6.747061252593994</v>
+      </c>
+      <c r="E2002">
+        <v>10.55101108551025</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:5">
+      <c r="A2003" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C2003">
+        <v>7.819004058837891</v>
+      </c>
+      <c r="D2003">
+        <v>90.38050842285156</v>
+      </c>
+      <c r="E2003">
+        <v>5.406156063079834</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:5">
+      <c r="A2004" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C2004">
+        <v>11.47342491149902</v>
+      </c>
+      <c r="D2004">
+        <v>19.12232971191406</v>
+      </c>
+      <c r="E2004">
+        <v>18.26775741577148</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:5">
+      <c r="A2005" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C2005">
+        <v>1.28216540813446</v>
+      </c>
+      <c r="D2005">
+        <v>4.958264350891113</v>
+      </c>
+      <c r="E2005">
+        <v>-83.65345764160156</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:5">
+      <c r="A2006" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C2006">
+        <v>8.433977127075195</v>
+      </c>
+      <c r="D2006">
+        <v>9.899059295654297</v>
+      </c>
+      <c r="E2006">
+        <v>10.91853713989258</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:5">
+      <c r="A2007" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C2007">
+        <v>4.245435237884521</v>
+      </c>
+      <c r="D2007">
+        <v>3.101895809173584</v>
+      </c>
+      <c r="E2007">
+        <v>9.799628257751465</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:5">
+      <c r="A2008" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C2008">
+        <v>9.317231178283691</v>
+      </c>
+      <c r="D2008">
+        <v>11.17052459716797</v>
+      </c>
+      <c r="E2008">
+        <v>7.177564144134521</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:5">
+      <c r="A2009" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C2009">
+        <v>1090.74609375</v>
+      </c>
+      <c r="D2009">
+        <v>973.3925170898438</v>
+      </c>
+      <c r="E2009">
+        <v>885.6720581054688</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:5">
+      <c r="A2010" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C2010">
+        <v>350.5106811523438</v>
+      </c>
+      <c r="D2010">
+        <v>362.3034362792969</v>
+      </c>
+      <c r="E2010">
+        <v>314.7750854492188</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:5">
+      <c r="A2011" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C2011">
+        <v>15.91605186462402</v>
+      </c>
+      <c r="D2011">
+        <v>15.83144378662109</v>
+      </c>
+      <c r="E2011">
+        <v>15.29609203338623</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:5">
+      <c r="A2012" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C2012">
+        <v>10.05361270904541</v>
+      </c>
+      <c r="D2012">
+        <v>6.979473114013672</v>
+      </c>
+      <c r="E2012">
+        <v>12.2914342880249</v>
       </c>
     </row>
   </sheetData>

--- a/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
+++ b/create_forecast_basic/utils/monitoring_df_fixed_1.xlsx
@@ -40,19 +40,19 @@
     <t>emp_2050</t>
   </si>
   <si>
-    <t>Taz_U_Jewish</t>
-  </si>
-  <si>
-    <t>Taz_U_U_Orthodox</t>
-  </si>
-  <si>
-    <t>Taz_U_Palestinian</t>
-  </si>
-  <si>
-    <t>Taz_U_Arab</t>
-  </si>
-  <si>
-    <t>Taz_U_arabs_behined_seperation_wall</t>
+    <t>Taz_nums for Jewish sector</t>
+  </si>
+  <si>
+    <t>Taz_nums for U_Orthodox sector</t>
+  </si>
+  <si>
+    <t>Taz_nums for Palestinian sector</t>
+  </si>
+  <si>
+    <t>Taz_nums for Arab sector</t>
+  </si>
+  <si>
+    <t>Taz_nums for arabs_behined_seperation_wall sector</t>
   </si>
   <si>
     <t>univ_2020</t>
